--- a/en/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/030_アプリ設計/010_システム機能設計/システム機能設計書(画面)_WA10101_ログイン.xlsx
+++ b/en/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/030_アプリ設計/010_システム機能設計/システム機能設計書(画面)_WA10101_ログイン.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" updateLinks="never" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42D5BB85-B867-4AEF-9760-0E12A655CBCD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{869D9A40-D34E-4C0A-8B56-F5A794B83D20}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1575" yWindow="3120" windowWidth="27225" windowHeight="7905" tabRatio="822" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="822" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="11" state="hidden" r:id="rId1"/>
@@ -48,80 +48,6 @@
     <author>作成者</author>
   </authors>
   <commentList>
-    <comment ref="D7" authorId="0" shapeId="0" xr:uid="{4BBB5184-6223-4B4D-B4DF-6220A8D0AA80}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>作成者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t xml:space="preserve">
-「取引」は
-「subfunction」と訳してください。</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>作成者</author>
-  </authors>
-  <commentList>
-    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{4FEBEDFF-12E9-45B0-9C58-AB44C0B0F694}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>作成者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t xml:space="preserve">
-「取引」は「subfunction」と訳してください。
-他のセルも同様に修正をお願いします。</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>作成者</author>
-  </authors>
-  <commentList>
     <comment ref="B5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
       <text>
         <r>
@@ -149,25 +75,6 @@
           </rPr>
           <t xml:space="preserve">
 </t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G5" authorId="0" shapeId="0" xr:uid="{8BDC78E6-1D5C-4299-9AB3-1028B06DC839}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>作成者:
-注釈コメントの6番について
-「内部設計工程」は
-「internal design process」
-と訳してください。</t>
         </r>
       </text>
     </comment>
@@ -918,7 +825,7 @@
     <numFmt numFmtId="176" formatCode="&quot;第&quot;0.00&quot;版&quot;"/>
     <numFmt numFmtId="177" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="9"/>
       <name val="ＭＳ 明朝"/>
@@ -1084,21 +991,6 @@
       <color indexed="81"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="MS P ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="MS P ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
     </font>
   </fonts>
   <fills count="6">
@@ -2002,6 +1894,150 @@
     <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="33" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="35" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="34" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2044,148 +2080,31 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="20" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="20" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="20" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="33" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="35" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="34" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="20" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="20" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2251,33 +2170,6 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="20" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="20" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="20" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="20" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="20" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2332,6 +2224,267 @@
     <xf numFmtId="0" fontId="20" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="20" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="20" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2346,271 +2499,10 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="20" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="20" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="20" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="パーセント 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -3398,42 +3290,42 @@
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="13.5" customHeight="1">
+    <row r="1" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
     </row>
-    <row r="2" spans="1:3" ht="19.5" customHeight="1">
+    <row r="2" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
     </row>
-    <row r="3" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="4" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="5" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="6" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="7" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="8" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="9" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="10" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="11" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="12" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="13" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="14" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="15" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="16" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="17" spans="6:12" ht="13.5" customHeight="1"/>
-    <row r="18" spans="6:12" ht="13.5" customHeight="1"/>
-    <row r="19" spans="6:12" ht="13.5" customHeight="1"/>
-    <row r="20" spans="6:12" ht="13.5" customHeight="1"/>
-    <row r="21" spans="6:12" ht="13.5" customHeight="1"/>
-    <row r="22" spans="6:12" ht="13.5" customHeight="1">
+    <row r="3" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="6" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="7" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="8" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="10" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="11" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="13" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="15" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="16" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="17" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="18" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="19" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="20" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="21" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="22" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F22" s="5"/>
       <c r="H22" s="5"/>
     </row>
-    <row r="23" spans="6:12" ht="17.25" customHeight="1">
+    <row r="23" spans="6:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
@@ -3444,7 +3336,7 @@
       <c r="K23" s="19"/>
       <c r="L23" s="19"/>
     </row>
-    <row r="24" spans="6:12" ht="13.5" customHeight="1">
+    <row r="24" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
@@ -3453,7 +3345,7 @@
       <c r="K24" s="19"/>
       <c r="L24" s="19"/>
     </row>
-    <row r="25" spans="6:12" ht="18" customHeight="1">
+    <row r="25" spans="6:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
@@ -3465,7 +3357,7 @@
       <c r="K25" s="171"/>
       <c r="L25" s="19"/>
     </row>
-    <row r="26" spans="6:12" ht="13.5" customHeight="1">
+    <row r="26" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
@@ -3474,7 +3366,7 @@
       <c r="K26" s="19"/>
       <c r="L26" s="19"/>
     </row>
-    <row r="27" spans="6:12" ht="13.5" customHeight="1">
+    <row r="27" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
@@ -3483,7 +3375,7 @@
       <c r="K27" s="19"/>
       <c r="L27" s="19"/>
     </row>
-    <row r="28" spans="6:12" ht="13.5" customHeight="1">
+    <row r="28" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F28" s="6"/>
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
@@ -3492,7 +3384,7 @@
       <c r="K28" s="19"/>
       <c r="L28" s="19"/>
     </row>
-    <row r="29" spans="6:12" ht="15" customHeight="1">
+    <row r="29" spans="6:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F29" s="5"/>
       <c r="H29" s="5"/>
       <c r="I29" s="19"/>
@@ -3500,7 +3392,7 @@
       <c r="K29" s="19"/>
       <c r="L29" s="19"/>
     </row>
-    <row r="30" spans="6:12" ht="13.5" customHeight="1">
+    <row r="30" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F30" s="5"/>
       <c r="G30" s="12"/>
       <c r="H30" s="5"/>
@@ -3509,7 +3401,7 @@
       <c r="K30" s="19"/>
       <c r="L30" s="19"/>
     </row>
-    <row r="31" spans="6:12" ht="18.75" customHeight="1">
+    <row r="31" spans="6:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F31" s="5"/>
       <c r="G31" s="12"/>
       <c r="H31" s="5"/>
@@ -3518,7 +3410,7 @@
       <c r="K31" s="19"/>
       <c r="L31" s="19"/>
     </row>
-    <row r="32" spans="6:12" ht="18.75">
+    <row r="32" spans="6:12" ht="18.75" x14ac:dyDescent="0.2">
       <c r="F32" s="5"/>
       <c r="G32" s="12"/>
       <c r="H32" s="5"/>
@@ -3527,7 +3419,7 @@
       <c r="K32" s="19"/>
       <c r="L32" s="19"/>
     </row>
-    <row r="33" spans="6:19" ht="18.75">
+    <row r="33" spans="6:19" ht="18.75" x14ac:dyDescent="0.2">
       <c r="F33" s="5"/>
       <c r="H33" s="5"/>
       <c r="I33" s="19"/>
@@ -3539,7 +3431,7 @@
       <c r="O33" s="7"/>
       <c r="P33" s="7"/>
     </row>
-    <row r="34" spans="6:19" ht="18.75">
+    <row r="34" spans="6:19" ht="18.75" x14ac:dyDescent="0.2">
       <c r="F34" s="5"/>
       <c r="H34" s="5"/>
       <c r="I34" s="19"/>
@@ -3554,515 +3446,515 @@
       <c r="R34" s="33"/>
       <c r="S34" s="33"/>
     </row>
-    <row r="35" spans="6:19" ht="13.5" customHeight="1">
+    <row r="35" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O35" s="7"/>
       <c r="P35" s="7"/>
       <c r="Q35" s="33"/>
       <c r="R35" s="33"/>
       <c r="S35" s="33"/>
     </row>
-    <row r="36" spans="6:19" ht="13.5" customHeight="1">
+    <row r="36" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O36" s="34"/>
       <c r="P36" s="33"/>
       <c r="Q36" s="34"/>
       <c r="R36" s="33"/>
       <c r="S36" s="31"/>
     </row>
-    <row r="37" spans="6:19" ht="13.5" customHeight="1">
+    <row r="37" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O37" s="35"/>
       <c r="P37" s="36"/>
       <c r="Q37" s="35"/>
       <c r="R37" s="36"/>
       <c r="S37" s="35"/>
     </row>
-    <row r="38" spans="6:19" ht="13.5" customHeight="1">
+    <row r="38" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O38" s="36"/>
       <c r="P38" s="36"/>
       <c r="Q38" s="36"/>
       <c r="R38" s="36"/>
       <c r="S38" s="36"/>
     </row>
-    <row r="39" spans="6:19" ht="13.5" customHeight="1">
+    <row r="39" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O39" s="36"/>
       <c r="P39" s="36"/>
       <c r="Q39" s="36"/>
       <c r="R39" s="36"/>
       <c r="S39" s="36"/>
     </row>
-    <row r="40" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="41" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="42" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="43" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="44" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="45" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="46" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="47" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="48" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="49" ht="13.5" customHeight="1"/>
-    <row r="50" ht="13.5" customHeight="1"/>
-    <row r="51" ht="13.5" customHeight="1"/>
-    <row r="52" ht="13.5" customHeight="1"/>
-    <row r="53" ht="13.5" customHeight="1"/>
-    <row r="54" ht="13.5" customHeight="1"/>
-    <row r="55" ht="13.5" customHeight="1"/>
-    <row r="56" ht="13.5" customHeight="1"/>
-    <row r="57" ht="13.5" customHeight="1"/>
-    <row r="58" ht="13.5" customHeight="1"/>
-    <row r="59" ht="13.5" customHeight="1"/>
-    <row r="60" ht="13.5" customHeight="1"/>
-    <row r="61" ht="13.5" customHeight="1"/>
-    <row r="62" ht="13.5" customHeight="1"/>
-    <row r="63" ht="13.5" customHeight="1"/>
-    <row r="64" ht="13.5" customHeight="1"/>
-    <row r="65" ht="13.5" customHeight="1"/>
-    <row r="66" ht="13.5" customHeight="1"/>
-    <row r="67" ht="13.5" customHeight="1"/>
-    <row r="68" ht="13.5" customHeight="1"/>
-    <row r="69" ht="13.5" customHeight="1"/>
-    <row r="70" ht="13.5" customHeight="1"/>
-    <row r="71" ht="13.5" customHeight="1"/>
-    <row r="72" ht="13.5" customHeight="1"/>
-    <row r="73" ht="13.5" customHeight="1"/>
-    <row r="74" ht="13.5" customHeight="1"/>
-    <row r="75" ht="13.5" customHeight="1"/>
-    <row r="76" ht="13.5" customHeight="1"/>
-    <row r="77" ht="13.5" customHeight="1"/>
-    <row r="78" ht="13.5" customHeight="1"/>
-    <row r="79" ht="13.5" customHeight="1"/>
-    <row r="80" ht="13.5" customHeight="1"/>
-    <row r="81" ht="13.5" customHeight="1"/>
-    <row r="82" ht="13.5" customHeight="1"/>
-    <row r="83" ht="13.5" customHeight="1"/>
-    <row r="84" ht="13.5" customHeight="1"/>
-    <row r="85" ht="13.5" customHeight="1"/>
-    <row r="86" ht="13.5" customHeight="1"/>
-    <row r="87" ht="13.5" customHeight="1"/>
-    <row r="88" ht="13.5" customHeight="1"/>
-    <row r="89" ht="13.5" customHeight="1"/>
-    <row r="90" ht="13.5" customHeight="1"/>
-    <row r="91" ht="13.5" customHeight="1"/>
-    <row r="92" ht="13.5" customHeight="1"/>
-    <row r="93" ht="13.5" customHeight="1"/>
-    <row r="94" ht="13.5" customHeight="1"/>
-    <row r="95" ht="13.5" customHeight="1"/>
-    <row r="96" ht="13.5" customHeight="1"/>
-    <row r="97" ht="13.5" customHeight="1"/>
-    <row r="98" ht="13.5" customHeight="1"/>
-    <row r="99" ht="13.5" customHeight="1"/>
-    <row r="100" ht="13.5" customHeight="1"/>
-    <row r="101" ht="13.5" customHeight="1"/>
-    <row r="102" ht="13.5" customHeight="1"/>
-    <row r="103" ht="13.5" customHeight="1"/>
-    <row r="104" ht="13.5" customHeight="1"/>
-    <row r="105" ht="13.5" customHeight="1"/>
-    <row r="106" ht="13.5" customHeight="1"/>
-    <row r="107" ht="13.5" customHeight="1"/>
-    <row r="108" ht="13.5" customHeight="1"/>
-    <row r="109" ht="13.5" customHeight="1"/>
-    <row r="110" ht="13.5" customHeight="1"/>
-    <row r="111" ht="13.5" customHeight="1"/>
-    <row r="112" ht="13.5" customHeight="1"/>
-    <row r="113" ht="13.5" customHeight="1"/>
-    <row r="114" ht="13.5" customHeight="1"/>
-    <row r="115" ht="13.5" customHeight="1"/>
-    <row r="116" ht="13.5" customHeight="1"/>
-    <row r="117" ht="13.5" customHeight="1"/>
-    <row r="118" ht="13.5" customHeight="1"/>
-    <row r="119" ht="13.5" customHeight="1"/>
-    <row r="120" ht="13.5" customHeight="1"/>
-    <row r="121" ht="13.5" customHeight="1"/>
-    <row r="122" ht="13.5" customHeight="1"/>
-    <row r="123" ht="13.5" customHeight="1"/>
-    <row r="124" ht="13.5" customHeight="1"/>
-    <row r="125" ht="13.5" customHeight="1"/>
-    <row r="126" ht="13.5" customHeight="1"/>
-    <row r="127" ht="13.5" customHeight="1"/>
-    <row r="128" ht="13.5" customHeight="1"/>
-    <row r="129" ht="13.5" customHeight="1"/>
-    <row r="130" ht="13.5" customHeight="1"/>
-    <row r="131" ht="13.5" customHeight="1"/>
-    <row r="132" ht="13.5" customHeight="1"/>
-    <row r="133" ht="13.5" customHeight="1"/>
-    <row r="134" ht="13.5" customHeight="1"/>
-    <row r="135" ht="13.5" customHeight="1"/>
-    <row r="136" ht="13.5" customHeight="1"/>
-    <row r="137" ht="13.5" customHeight="1"/>
-    <row r="138" ht="13.5" customHeight="1"/>
-    <row r="139" ht="13.5" customHeight="1"/>
-    <row r="140" ht="13.5" customHeight="1"/>
-    <row r="141" ht="13.5" customHeight="1"/>
-    <row r="142" ht="13.5" customHeight="1"/>
-    <row r="143" ht="13.5" customHeight="1"/>
-    <row r="144" ht="13.5" customHeight="1"/>
-    <row r="145" ht="13.5" customHeight="1"/>
-    <row r="146" ht="13.5" customHeight="1"/>
-    <row r="147" ht="13.5" customHeight="1"/>
-    <row r="148" ht="13.5" customHeight="1"/>
-    <row r="149" ht="13.5" customHeight="1"/>
-    <row r="150" ht="13.5" customHeight="1"/>
-    <row r="151" ht="13.5" customHeight="1"/>
-    <row r="152" ht="13.5" customHeight="1"/>
-    <row r="153" ht="13.5" customHeight="1"/>
-    <row r="154" ht="13.5" customHeight="1"/>
-    <row r="155" ht="13.5" customHeight="1"/>
-    <row r="156" ht="13.5" customHeight="1"/>
-    <row r="157" ht="13.5" customHeight="1"/>
-    <row r="158" ht="13.5" customHeight="1"/>
-    <row r="159" ht="13.5" customHeight="1"/>
-    <row r="160" ht="13.5" customHeight="1"/>
-    <row r="161" ht="13.5" customHeight="1"/>
-    <row r="162" ht="13.5" customHeight="1"/>
-    <row r="163" ht="13.5" customHeight="1"/>
-    <row r="164" ht="13.5" customHeight="1"/>
-    <row r="165" ht="13.5" customHeight="1"/>
-    <row r="166" ht="13.5" customHeight="1"/>
-    <row r="167" ht="13.5" customHeight="1"/>
-    <row r="168" ht="13.5" customHeight="1"/>
-    <row r="169" ht="13.5" customHeight="1"/>
-    <row r="170" ht="13.5" customHeight="1"/>
-    <row r="171" ht="13.5" customHeight="1"/>
-    <row r="172" ht="13.5" customHeight="1"/>
-    <row r="173" ht="13.5" customHeight="1"/>
-    <row r="174" ht="13.5" customHeight="1"/>
-    <row r="175" ht="13.5" customHeight="1"/>
-    <row r="176" ht="13.5" customHeight="1"/>
-    <row r="177" ht="13.5" customHeight="1"/>
-    <row r="178" ht="13.5" customHeight="1"/>
-    <row r="179" ht="13.5" customHeight="1"/>
-    <row r="180" ht="13.5" customHeight="1"/>
-    <row r="181" ht="13.5" customHeight="1"/>
-    <row r="182" ht="13.5" customHeight="1"/>
-    <row r="183" ht="13.5" customHeight="1"/>
-    <row r="184" ht="13.5" customHeight="1"/>
-    <row r="185" ht="13.5" customHeight="1"/>
-    <row r="186" ht="13.5" customHeight="1"/>
-    <row r="187" ht="13.5" customHeight="1"/>
-    <row r="188" ht="13.5" customHeight="1"/>
-    <row r="189" ht="13.5" customHeight="1"/>
-    <row r="190" ht="13.5" customHeight="1"/>
-    <row r="191" ht="13.5" customHeight="1"/>
-    <row r="192" ht="13.5" customHeight="1"/>
-    <row r="193" ht="13.5" customHeight="1"/>
-    <row r="194" ht="13.5" customHeight="1"/>
-    <row r="195" ht="13.5" customHeight="1"/>
-    <row r="196" ht="13.5" customHeight="1"/>
-    <row r="197" ht="13.5" customHeight="1"/>
-    <row r="198" ht="13.5" customHeight="1"/>
-    <row r="199" ht="13.5" customHeight="1"/>
-    <row r="200" ht="13.5" customHeight="1"/>
-    <row r="201" ht="13.5" customHeight="1"/>
-    <row r="202" ht="13.5" customHeight="1"/>
-    <row r="203" ht="13.5" customHeight="1"/>
-    <row r="204" ht="13.5" customHeight="1"/>
-    <row r="205" ht="13.5" customHeight="1"/>
-    <row r="206" ht="13.5" customHeight="1"/>
-    <row r="207" ht="13.5" customHeight="1"/>
-    <row r="208" ht="13.5" customHeight="1"/>
-    <row r="209" ht="13.5" customHeight="1"/>
-    <row r="210" ht="13.5" customHeight="1"/>
-    <row r="211" ht="13.5" customHeight="1"/>
-    <row r="212" ht="13.5" customHeight="1"/>
-    <row r="213" ht="13.5" customHeight="1"/>
-    <row r="214" ht="13.5" customHeight="1"/>
-    <row r="215" ht="13.5" customHeight="1"/>
-    <row r="216" ht="13.5" customHeight="1"/>
-    <row r="217" ht="13.5" customHeight="1"/>
-    <row r="218" ht="13.5" customHeight="1"/>
-    <row r="219" ht="13.5" customHeight="1"/>
-    <row r="220" ht="13.5" customHeight="1"/>
-    <row r="221" ht="13.5" customHeight="1"/>
-    <row r="222" ht="13.5" customHeight="1"/>
-    <row r="223" ht="13.5" customHeight="1"/>
-    <row r="224" ht="13.5" customHeight="1"/>
-    <row r="225" ht="13.5" customHeight="1"/>
-    <row r="226" ht="13.5" customHeight="1"/>
-    <row r="227" ht="13.5" customHeight="1"/>
-    <row r="228" ht="13.5" customHeight="1"/>
-    <row r="229" ht="13.5" customHeight="1"/>
-    <row r="230" ht="13.5" customHeight="1"/>
-    <row r="231" ht="13.5" customHeight="1"/>
-    <row r="232" ht="13.5" customHeight="1"/>
-    <row r="233" ht="13.5" customHeight="1"/>
-    <row r="234" ht="13.5" customHeight="1"/>
-    <row r="235" ht="13.5" customHeight="1"/>
-    <row r="236" ht="13.5" customHeight="1"/>
-    <row r="237" ht="13.5" customHeight="1"/>
-    <row r="238" ht="13.5" customHeight="1"/>
-    <row r="239" ht="13.5" customHeight="1"/>
-    <row r="240" ht="13.5" customHeight="1"/>
-    <row r="241" ht="13.5" customHeight="1"/>
-    <row r="242" ht="13.5" customHeight="1"/>
-    <row r="243" ht="13.5" customHeight="1"/>
-    <row r="244" ht="13.5" customHeight="1"/>
-    <row r="245" ht="13.5" customHeight="1"/>
-    <row r="246" ht="13.5" customHeight="1"/>
-    <row r="247" ht="13.5" customHeight="1"/>
-    <row r="248" ht="13.5" customHeight="1"/>
-    <row r="249" ht="13.5" customHeight="1"/>
-    <row r="250" ht="13.5" customHeight="1"/>
-    <row r="251" ht="13.5" customHeight="1"/>
-    <row r="252" ht="13.5" customHeight="1"/>
-    <row r="253" ht="13.5" customHeight="1"/>
-    <row r="254" ht="13.5" customHeight="1"/>
-    <row r="255" ht="13.5" customHeight="1"/>
-    <row r="256" ht="13.5" customHeight="1"/>
-    <row r="257" ht="13.5" customHeight="1"/>
-    <row r="258" ht="13.5" customHeight="1"/>
-    <row r="259" ht="13.5" customHeight="1"/>
-    <row r="260" ht="13.5" customHeight="1"/>
-    <row r="261" ht="13.5" customHeight="1"/>
-    <row r="262" ht="13.5" customHeight="1"/>
-    <row r="263" ht="13.5" customHeight="1"/>
-    <row r="264" ht="13.5" customHeight="1"/>
-    <row r="265" ht="13.5" customHeight="1"/>
-    <row r="266" ht="13.5" customHeight="1"/>
-    <row r="267" ht="13.5" customHeight="1"/>
-    <row r="268" ht="13.5" customHeight="1"/>
-    <row r="269" ht="13.5" customHeight="1"/>
-    <row r="270" ht="13.5" customHeight="1"/>
-    <row r="271" ht="13.5" customHeight="1"/>
-    <row r="272" ht="13.5" customHeight="1"/>
-    <row r="273" ht="13.5" customHeight="1"/>
-    <row r="274" ht="13.5" customHeight="1"/>
-    <row r="275" ht="13.5" customHeight="1"/>
-    <row r="276" ht="13.5" customHeight="1"/>
-    <row r="277" ht="13.5" customHeight="1"/>
-    <row r="278" ht="13.5" customHeight="1"/>
-    <row r="279" ht="13.5" customHeight="1"/>
-    <row r="280" ht="13.5" customHeight="1"/>
-    <row r="281" ht="13.5" customHeight="1"/>
-    <row r="282" ht="13.5" customHeight="1"/>
-    <row r="283" ht="13.5" customHeight="1"/>
-    <row r="284" ht="13.5" customHeight="1"/>
-    <row r="285" ht="13.5" customHeight="1"/>
-    <row r="286" ht="13.5" customHeight="1"/>
-    <row r="287" ht="13.5" customHeight="1"/>
-    <row r="288" ht="13.5" customHeight="1"/>
-    <row r="289" ht="13.5" customHeight="1"/>
-    <row r="290" ht="13.5" customHeight="1"/>
-    <row r="291" ht="13.5" customHeight="1"/>
-    <row r="292" ht="13.5" customHeight="1"/>
-    <row r="293" ht="13.5" customHeight="1"/>
-    <row r="294" ht="13.5" customHeight="1"/>
-    <row r="295" ht="13.5" customHeight="1"/>
-    <row r="296" ht="13.5" customHeight="1"/>
-    <row r="297" ht="13.5" customHeight="1"/>
-    <row r="298" ht="13.5" customHeight="1"/>
-    <row r="299" ht="13.5" customHeight="1"/>
-    <row r="300" ht="13.5" customHeight="1"/>
-    <row r="301" ht="13.5" customHeight="1"/>
-    <row r="302" ht="13.5" customHeight="1"/>
-    <row r="303" ht="13.5" customHeight="1"/>
-    <row r="304" ht="13.5" customHeight="1"/>
-    <row r="305" ht="13.5" customHeight="1"/>
-    <row r="306" ht="13.5" customHeight="1"/>
-    <row r="307" ht="13.5" customHeight="1"/>
-    <row r="308" ht="13.5" customHeight="1"/>
-    <row r="309" ht="13.5" customHeight="1"/>
-    <row r="310" ht="13.5" customHeight="1"/>
-    <row r="311" ht="13.5" customHeight="1"/>
-    <row r="312" ht="13.5" customHeight="1"/>
-    <row r="313" ht="13.5" customHeight="1"/>
-    <row r="314" ht="13.5" customHeight="1"/>
-    <row r="315" ht="13.5" customHeight="1"/>
-    <row r="316" ht="13.5" customHeight="1"/>
-    <row r="317" ht="13.5" customHeight="1"/>
-    <row r="318" ht="13.5" customHeight="1"/>
-    <row r="319" ht="13.5" customHeight="1"/>
-    <row r="320" ht="13.5" customHeight="1"/>
-    <row r="321" ht="13.5" customHeight="1"/>
-    <row r="322" ht="13.5" customHeight="1"/>
-    <row r="323" ht="13.5" customHeight="1"/>
-    <row r="324" ht="13.5" customHeight="1"/>
-    <row r="325" ht="13.5" customHeight="1"/>
-    <row r="326" ht="13.5" customHeight="1"/>
-    <row r="327" ht="13.5" customHeight="1"/>
-    <row r="328" ht="13.5" customHeight="1"/>
-    <row r="329" ht="13.5" customHeight="1"/>
-    <row r="330" ht="13.5" customHeight="1"/>
-    <row r="331" ht="13.5" customHeight="1"/>
-    <row r="332" ht="13.5" customHeight="1"/>
-    <row r="333" ht="13.5" customHeight="1"/>
-    <row r="334" ht="13.5" customHeight="1"/>
-    <row r="335" ht="13.5" customHeight="1"/>
-    <row r="336" ht="13.5" customHeight="1"/>
-    <row r="337" ht="13.5" customHeight="1"/>
-    <row r="338" ht="13.5" customHeight="1"/>
-    <row r="339" ht="13.5" customHeight="1"/>
-    <row r="340" ht="13.5" customHeight="1"/>
-    <row r="341" ht="13.5" customHeight="1"/>
-    <row r="342" ht="13.5" customHeight="1"/>
-    <row r="343" ht="13.5" customHeight="1"/>
-    <row r="344" ht="13.5" customHeight="1"/>
-    <row r="345" ht="13.5" customHeight="1"/>
-    <row r="346" ht="13.5" customHeight="1"/>
-    <row r="347" ht="13.5" customHeight="1"/>
-    <row r="348" ht="13.5" customHeight="1"/>
-    <row r="349" ht="13.5" customHeight="1"/>
-    <row r="350" ht="13.5" customHeight="1"/>
-    <row r="351" ht="13.5" customHeight="1"/>
-    <row r="352" ht="13.5" customHeight="1"/>
-    <row r="353" ht="13.5" customHeight="1"/>
-    <row r="354" ht="13.5" customHeight="1"/>
-    <row r="355" ht="13.5" customHeight="1"/>
-    <row r="356" ht="13.5" customHeight="1"/>
-    <row r="357" ht="13.5" customHeight="1"/>
-    <row r="358" ht="13.5" customHeight="1"/>
-    <row r="359" ht="13.5" customHeight="1"/>
-    <row r="360" ht="13.5" customHeight="1"/>
-    <row r="361" ht="13.5" customHeight="1"/>
-    <row r="362" ht="13.5" customHeight="1"/>
-    <row r="363" ht="13.5" customHeight="1"/>
-    <row r="364" ht="13.5" customHeight="1"/>
-    <row r="365" ht="13.5" customHeight="1"/>
-    <row r="366" ht="13.5" customHeight="1"/>
-    <row r="367" ht="13.5" customHeight="1"/>
-    <row r="368" ht="13.5" customHeight="1"/>
-    <row r="369" ht="13.5" customHeight="1"/>
-    <row r="370" ht="13.5" customHeight="1"/>
-    <row r="371" ht="13.5" customHeight="1"/>
-    <row r="372" ht="13.5" customHeight="1"/>
-    <row r="373" ht="13.5" customHeight="1"/>
-    <row r="374" ht="13.5" customHeight="1"/>
-    <row r="375" ht="13.5" customHeight="1"/>
-    <row r="376" ht="13.5" customHeight="1"/>
-    <row r="377" ht="13.5" customHeight="1"/>
-    <row r="378" ht="13.5" customHeight="1"/>
-    <row r="379" ht="13.5" customHeight="1"/>
-    <row r="380" ht="13.5" customHeight="1"/>
-    <row r="381" ht="13.5" customHeight="1"/>
-    <row r="382" ht="13.5" customHeight="1"/>
-    <row r="383" ht="13.5" customHeight="1"/>
-    <row r="384" ht="13.5" customHeight="1"/>
-    <row r="385" ht="13.5" customHeight="1"/>
-    <row r="386" ht="13.5" customHeight="1"/>
-    <row r="387" ht="13.5" customHeight="1"/>
-    <row r="388" ht="13.5" customHeight="1"/>
-    <row r="389" ht="13.5" customHeight="1"/>
-    <row r="390" ht="13.5" customHeight="1"/>
-    <row r="391" ht="13.5" customHeight="1"/>
-    <row r="392" ht="13.5" customHeight="1"/>
-    <row r="393" ht="13.5" customHeight="1"/>
-    <row r="394" ht="13.5" customHeight="1"/>
-    <row r="395" ht="13.5" customHeight="1"/>
-    <row r="396" ht="13.5" customHeight="1"/>
-    <row r="397" ht="13.5" customHeight="1"/>
-    <row r="398" ht="13.5" customHeight="1"/>
-    <row r="399" ht="13.5" customHeight="1"/>
-    <row r="400" ht="13.5" customHeight="1"/>
-    <row r="401" ht="13.5" customHeight="1"/>
-    <row r="402" ht="13.5" customHeight="1"/>
-    <row r="403" ht="13.5" customHeight="1"/>
-    <row r="404" ht="13.5" customHeight="1"/>
-    <row r="405" ht="13.5" customHeight="1"/>
-    <row r="406" ht="13.5" customHeight="1"/>
-    <row r="407" ht="13.5" customHeight="1"/>
-    <row r="408" ht="13.5" customHeight="1"/>
-    <row r="409" ht="13.5" customHeight="1"/>
-    <row r="410" ht="13.5" customHeight="1"/>
-    <row r="411" ht="13.5" customHeight="1"/>
-    <row r="412" ht="13.5" customHeight="1"/>
-    <row r="413" ht="13.5" customHeight="1"/>
-    <row r="414" ht="13.5" customHeight="1"/>
-    <row r="415" ht="13.5" customHeight="1"/>
-    <row r="416" ht="13.5" customHeight="1"/>
-    <row r="417" ht="13.5" customHeight="1"/>
-    <row r="418" ht="13.5" customHeight="1"/>
-    <row r="419" ht="13.5" customHeight="1"/>
-    <row r="420" ht="13.5" customHeight="1"/>
-    <row r="421" ht="13.5" customHeight="1"/>
-    <row r="422" ht="13.5" customHeight="1"/>
-    <row r="423" ht="13.5" customHeight="1"/>
-    <row r="424" ht="13.5" customHeight="1"/>
-    <row r="425" ht="13.5" customHeight="1"/>
-    <row r="426" ht="13.5" customHeight="1"/>
-    <row r="427" ht="13.5" customHeight="1"/>
-    <row r="428" ht="13.5" customHeight="1"/>
-    <row r="429" ht="13.5" customHeight="1"/>
-    <row r="430" ht="13.5" customHeight="1"/>
-    <row r="431" ht="13.5" customHeight="1"/>
-    <row r="432" ht="13.5" customHeight="1"/>
-    <row r="433" ht="13.5" customHeight="1"/>
-    <row r="434" ht="13.5" customHeight="1"/>
-    <row r="435" ht="13.5" customHeight="1"/>
-    <row r="436" ht="13.5" customHeight="1"/>
-    <row r="437" ht="13.5" customHeight="1"/>
-    <row r="438" ht="13.5" customHeight="1"/>
-    <row r="439" ht="13.5" customHeight="1"/>
-    <row r="440" ht="13.5" customHeight="1"/>
-    <row r="441" ht="13.5" customHeight="1"/>
-    <row r="442" ht="13.5" customHeight="1"/>
-    <row r="443" ht="13.5" customHeight="1"/>
-    <row r="444" ht="13.5" customHeight="1"/>
-    <row r="445" ht="13.5" customHeight="1"/>
-    <row r="446" ht="13.5" customHeight="1"/>
-    <row r="447" ht="13.5" customHeight="1"/>
-    <row r="448" ht="13.5" customHeight="1"/>
-    <row r="449" ht="13.5" customHeight="1"/>
-    <row r="450" ht="13.5" customHeight="1"/>
-    <row r="451" ht="13.5" customHeight="1"/>
-    <row r="452" ht="13.5" customHeight="1"/>
-    <row r="453" ht="13.5" customHeight="1"/>
-    <row r="454" ht="13.5" customHeight="1"/>
-    <row r="455" ht="13.5" customHeight="1"/>
-    <row r="456" ht="13.5" customHeight="1"/>
-    <row r="457" ht="13.5" customHeight="1"/>
-    <row r="458" ht="13.5" customHeight="1"/>
-    <row r="459" ht="13.5" customHeight="1"/>
-    <row r="460" ht="13.5" customHeight="1"/>
-    <row r="461" ht="13.5" customHeight="1"/>
-    <row r="462" ht="13.5" customHeight="1"/>
-    <row r="463" ht="13.5" customHeight="1"/>
-    <row r="464" ht="13.5" customHeight="1"/>
-    <row r="465" ht="13.5" customHeight="1"/>
-    <row r="466" ht="13.5" customHeight="1"/>
-    <row r="467" ht="13.5" customHeight="1"/>
-    <row r="468" ht="13.5" customHeight="1"/>
-    <row r="469" ht="13.5" customHeight="1"/>
-    <row r="470" ht="13.5" customHeight="1"/>
-    <row r="471" ht="13.5" customHeight="1"/>
-    <row r="472" ht="13.5" customHeight="1"/>
-    <row r="473" ht="13.5" customHeight="1"/>
-    <row r="474" ht="13.5" customHeight="1"/>
-    <row r="475" ht="13.5" customHeight="1"/>
-    <row r="476" ht="13.5" customHeight="1"/>
-    <row r="477" ht="13.5" customHeight="1"/>
-    <row r="478" ht="13.5" customHeight="1"/>
-    <row r="479" ht="13.5" customHeight="1"/>
-    <row r="480" ht="13.5" customHeight="1"/>
-    <row r="481" ht="13.5" customHeight="1"/>
-    <row r="482" ht="13.5" customHeight="1"/>
-    <row r="483" ht="13.5" customHeight="1"/>
-    <row r="484" ht="13.5" customHeight="1"/>
-    <row r="485" ht="13.5" customHeight="1"/>
-    <row r="486" ht="13.5" customHeight="1"/>
-    <row r="487" ht="13.5" customHeight="1"/>
-    <row r="488" ht="13.5" customHeight="1"/>
-    <row r="489" ht="13.5" customHeight="1"/>
-    <row r="490" ht="13.5" customHeight="1"/>
-    <row r="491" ht="13.5" customHeight="1"/>
-    <row r="492" ht="13.5" customHeight="1"/>
-    <row r="493" ht="13.5" customHeight="1"/>
-    <row r="494" ht="13.5" customHeight="1"/>
-    <row r="495" ht="13.5" customHeight="1"/>
-    <row r="496" ht="13.5" customHeight="1"/>
-    <row r="497" ht="13.5" customHeight="1"/>
-    <row r="498" ht="13.5" customHeight="1"/>
-    <row r="499" ht="13.5" customHeight="1"/>
-    <row r="500" ht="13.5" customHeight="1"/>
-    <row r="501" ht="13.5" customHeight="1"/>
-    <row r="502" ht="13.5" customHeight="1"/>
-    <row r="503" ht="13.5" customHeight="1"/>
-    <row r="504" ht="13.5" customHeight="1"/>
-    <row r="505" ht="13.5" customHeight="1"/>
-    <row r="506" ht="13.5" customHeight="1"/>
-    <row r="507" ht="13.5" customHeight="1"/>
-    <row r="508" ht="13.5" customHeight="1"/>
-    <row r="509" ht="13.5" customHeight="1"/>
-    <row r="510" ht="13.5" customHeight="1"/>
-    <row r="511" ht="13.5" customHeight="1"/>
-    <row r="512" ht="13.5" customHeight="1"/>
-    <row r="513" ht="13.5" customHeight="1"/>
+    <row r="40" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="41" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="42" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="43" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="44" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="45" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="46" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="47" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="48" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="49" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="50" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="51" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="53" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="54" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="55" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="56" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="57" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="58" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="59" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="60" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="61" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="62" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="63" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="64" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="65" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="66" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="67" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="68" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="69" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="70" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="71" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="72" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="73" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="74" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="75" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="76" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="77" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="78" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="79" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="80" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="81" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="82" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="83" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="84" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="85" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="86" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="87" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="88" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="89" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="90" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="91" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="92" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="93" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="94" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="95" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="96" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="97" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="98" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="99" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="100" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="101" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="102" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="103" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="104" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="105" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="106" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="107" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="108" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="109" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="110" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="111" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="112" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="113" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="114" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="115" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="116" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="117" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="118" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="119" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="120" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="121" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="123" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="124" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="125" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="126" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="127" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="128" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="129" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="130" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="131" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="132" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="133" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="134" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="135" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="136" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="137" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="138" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="139" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="140" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="141" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="142" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="143" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="144" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="145" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="146" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="147" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="148" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="149" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="150" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="151" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="152" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="153" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="154" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="155" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="156" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="157" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="158" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="159" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="160" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="161" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="162" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="163" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="164" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="165" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="166" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="167" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="168" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="169" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="170" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="171" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="172" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="173" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="174" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="175" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="176" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="177" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="178" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="179" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="180" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="181" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="182" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="183" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="184" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="185" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="186" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="187" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="188" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="189" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="190" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="191" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="192" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="193" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="194" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="195" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="196" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="197" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="198" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="199" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="200" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="201" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="202" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="203" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="204" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="205" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="206" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="207" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="208" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="209" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="210" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="211" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="212" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="213" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="214" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="215" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="216" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="217" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="218" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="219" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="220" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="221" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="222" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="223" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="224" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="225" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="226" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="227" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="228" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="229" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="230" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="231" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="232" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="233" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="234" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="235" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="236" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="237" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="238" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="239" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="240" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="241" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="242" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="243" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="244" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="245" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="246" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="247" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="248" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="249" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="250" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="251" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="252" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="253" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="254" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="255" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="256" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="257" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="258" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="259" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="260" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="261" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="262" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="263" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="264" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="265" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="266" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="267" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="268" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="269" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="270" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="271" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="272" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="273" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="274" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="275" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="276" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="277" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="278" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="279" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="280" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="281" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="282" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="283" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="284" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="285" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="286" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="287" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="288" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="289" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="290" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="291" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="292" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="293" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="294" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="295" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="296" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="297" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="298" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="299" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="300" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="301" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="302" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="303" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="304" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="305" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="306" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="307" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="308" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="309" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="310" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="311" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="312" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="313" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="314" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="315" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="316" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="317" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="318" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="319" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="320" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="321" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="322" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="323" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="324" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="325" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="326" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="327" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="328" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="329" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="330" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="331" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="332" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="333" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="334" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="335" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="336" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="337" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="338" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="339" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="340" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="341" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="342" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="343" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="344" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="345" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="346" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="347" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="348" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="349" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="350" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="351" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="352" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="353" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="354" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="355" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="356" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="357" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="358" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="359" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="360" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="361" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="362" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="363" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="364" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="365" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="366" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="367" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="368" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="369" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="370" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="371" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="372" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="373" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="374" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="375" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="376" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="377" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="378" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="379" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="380" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="381" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="382" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="383" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="384" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="385" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="386" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="387" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="388" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="389" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="390" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="391" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="392" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="393" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="394" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="395" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="396" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="397" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="398" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="399" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="400" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="401" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="402" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="403" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="404" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="405" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="406" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="407" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="408" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="409" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="410" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="411" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="412" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="413" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="414" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="415" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="416" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="417" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="418" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="419" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="420" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="421" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="422" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="423" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="424" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="425" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="426" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="427" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="428" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="429" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="430" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="431" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="432" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="433" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="434" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="435" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="436" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="437" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="438" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="439" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="440" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="441" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="442" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="443" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="444" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="445" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="446" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="447" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="448" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="449" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="450" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="451" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="452" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="453" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="454" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="455" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="456" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="457" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="458" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="459" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="460" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="461" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="462" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="463" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="464" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="465" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="466" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="467" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="468" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="469" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="470" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="471" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="472" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="473" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="474" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="475" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="476" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="477" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="478" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="479" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="480" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="481" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="482" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="483" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="484" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="485" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="486" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="487" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="488" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="489" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="490" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="491" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="492" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="493" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="494" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="495" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="496" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="497" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="498" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="499" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="500" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="501" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="502" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="503" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="504" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="505" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="506" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="507" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="508" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="509" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="510" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="511" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="512" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="513" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="I25:K25"/>
@@ -4086,170 +3978,170 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="4.83203125" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" s="11" customFormat="1">
-      <c r="A1" s="172" t="s">
+    <row r="1" spans="1:40" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="220" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="173"/>
-      <c r="C1" s="173"/>
-      <c r="D1" s="174"/>
-      <c r="E1" s="219" t="s">
+      <c r="B1" s="221"/>
+      <c r="C1" s="221"/>
+      <c r="D1" s="222"/>
+      <c r="E1" s="190" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="220"/>
-      <c r="G1" s="220"/>
-      <c r="H1" s="220"/>
-      <c r="I1" s="220"/>
-      <c r="J1" s="220"/>
-      <c r="K1" s="220"/>
-      <c r="L1" s="220"/>
-      <c r="M1" s="220"/>
-      <c r="N1" s="221"/>
-      <c r="O1" s="175" t="s">
+      <c r="F1" s="191"/>
+      <c r="G1" s="191"/>
+      <c r="H1" s="191"/>
+      <c r="I1" s="191"/>
+      <c r="J1" s="191"/>
+      <c r="K1" s="191"/>
+      <c r="L1" s="191"/>
+      <c r="M1" s="191"/>
+      <c r="N1" s="192"/>
+      <c r="O1" s="223" t="s">
         <v>21</v>
       </c>
-      <c r="P1" s="176"/>
-      <c r="Q1" s="176"/>
-      <c r="R1" s="177"/>
-      <c r="S1" s="225" t="s">
+      <c r="P1" s="224"/>
+      <c r="Q1" s="224"/>
+      <c r="R1" s="225"/>
+      <c r="S1" s="202" t="s">
         <v>22</v>
       </c>
-      <c r="T1" s="226"/>
-      <c r="U1" s="226"/>
-      <c r="V1" s="226"/>
-      <c r="W1" s="226"/>
-      <c r="X1" s="226"/>
-      <c r="Y1" s="226"/>
-      <c r="Z1" s="227"/>
-      <c r="AA1" s="172" t="s">
+      <c r="T1" s="203"/>
+      <c r="U1" s="203"/>
+      <c r="V1" s="203"/>
+      <c r="W1" s="203"/>
+      <c r="X1" s="203"/>
+      <c r="Y1" s="203"/>
+      <c r="Z1" s="204"/>
+      <c r="AA1" s="220" t="s">
         <v>23</v>
       </c>
-      <c r="AB1" s="174"/>
-      <c r="AC1" s="207" t="str">
+      <c r="AB1" s="222"/>
+      <c r="AC1" s="172" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="208"/>
-      <c r="AE1" s="208"/>
-      <c r="AF1" s="209"/>
-      <c r="AG1" s="213">
+      <c r="AD1" s="173"/>
+      <c r="AE1" s="173"/>
+      <c r="AF1" s="174"/>
+      <c r="AG1" s="178">
         <f>IF(D8="","",D8)</f>
         <v>43656</v>
       </c>
-      <c r="AH1" s="214"/>
-      <c r="AI1" s="215"/>
+      <c r="AH1" s="179"/>
+      <c r="AI1" s="180"/>
       <c r="AJ1" s="9"/>
       <c r="AK1" s="9"/>
       <c r="AL1" s="9"/>
       <c r="AM1" s="9"/>
       <c r="AN1" s="10"/>
     </row>
-    <row r="2" spans="1:40" s="11" customFormat="1">
-      <c r="A2" s="172" t="s">
+    <row r="2" spans="1:40" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="220" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="173"/>
-      <c r="C2" s="173"/>
-      <c r="D2" s="174"/>
-      <c r="E2" s="219" t="s">
+      <c r="B2" s="221"/>
+      <c r="C2" s="221"/>
+      <c r="D2" s="222"/>
+      <c r="E2" s="190" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="220"/>
-      <c r="G2" s="220"/>
-      <c r="H2" s="220"/>
-      <c r="I2" s="220"/>
-      <c r="J2" s="220"/>
-      <c r="K2" s="220"/>
-      <c r="L2" s="220"/>
-      <c r="M2" s="220"/>
-      <c r="N2" s="221"/>
-      <c r="O2" s="178"/>
-      <c r="P2" s="179"/>
-      <c r="Q2" s="179"/>
-      <c r="R2" s="180"/>
-      <c r="S2" s="228"/>
-      <c r="T2" s="229"/>
-      <c r="U2" s="229"/>
-      <c r="V2" s="229"/>
-      <c r="W2" s="229"/>
-      <c r="X2" s="229"/>
-      <c r="Y2" s="229"/>
-      <c r="Z2" s="230"/>
-      <c r="AA2" s="172" t="s">
+      <c r="F2" s="191"/>
+      <c r="G2" s="191"/>
+      <c r="H2" s="191"/>
+      <c r="I2" s="191"/>
+      <c r="J2" s="191"/>
+      <c r="K2" s="191"/>
+      <c r="L2" s="191"/>
+      <c r="M2" s="191"/>
+      <c r="N2" s="192"/>
+      <c r="O2" s="226"/>
+      <c r="P2" s="227"/>
+      <c r="Q2" s="227"/>
+      <c r="R2" s="228"/>
+      <c r="S2" s="205"/>
+      <c r="T2" s="206"/>
+      <c r="U2" s="206"/>
+      <c r="V2" s="206"/>
+      <c r="W2" s="206"/>
+      <c r="X2" s="206"/>
+      <c r="Y2" s="206"/>
+      <c r="Z2" s="207"/>
+      <c r="AA2" s="220" t="s">
         <v>26</v>
       </c>
-      <c r="AB2" s="174"/>
-      <c r="AC2" s="216" t="str">
+      <c r="AB2" s="222"/>
+      <c r="AC2" s="181" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="217"/>
-      <c r="AE2" s="217"/>
-      <c r="AF2" s="218"/>
-      <c r="AG2" s="213" t="str">
+      <c r="AD2" s="182"/>
+      <c r="AE2" s="182"/>
+      <c r="AF2" s="183"/>
+      <c r="AG2" s="178" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="214"/>
-      <c r="AI2" s="215"/>
+      <c r="AH2" s="179"/>
+      <c r="AI2" s="180"/>
       <c r="AJ2" s="9"/>
       <c r="AK2" s="9"/>
       <c r="AL2" s="9"/>
       <c r="AM2" s="9"/>
       <c r="AN2" s="9"/>
     </row>
-    <row r="3" spans="1:40" s="11" customFormat="1">
-      <c r="A3" s="172" t="s">
+    <row r="3" spans="1:40" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="220" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="173"/>
-      <c r="C3" s="173"/>
-      <c r="D3" s="174"/>
-      <c r="E3" s="219" t="s">
+      <c r="B3" s="221"/>
+      <c r="C3" s="221"/>
+      <c r="D3" s="222"/>
+      <c r="E3" s="190" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="220"/>
-      <c r="G3" s="220"/>
-      <c r="H3" s="220"/>
-      <c r="I3" s="220"/>
-      <c r="J3" s="220"/>
-      <c r="K3" s="220"/>
-      <c r="L3" s="220"/>
-      <c r="M3" s="220"/>
-      <c r="N3" s="221"/>
-      <c r="O3" s="181"/>
-      <c r="P3" s="182"/>
-      <c r="Q3" s="182"/>
-      <c r="R3" s="183"/>
-      <c r="S3" s="231"/>
-      <c r="T3" s="232"/>
-      <c r="U3" s="232"/>
-      <c r="V3" s="232"/>
-      <c r="W3" s="232"/>
-      <c r="X3" s="232"/>
-      <c r="Y3" s="232"/>
-      <c r="Z3" s="233"/>
-      <c r="AA3" s="184"/>
-      <c r="AB3" s="185"/>
-      <c r="AC3" s="207"/>
-      <c r="AD3" s="208"/>
-      <c r="AE3" s="208"/>
-      <c r="AF3" s="209"/>
-      <c r="AG3" s="213"/>
-      <c r="AH3" s="214"/>
-      <c r="AI3" s="215"/>
+      <c r="F3" s="191"/>
+      <c r="G3" s="191"/>
+      <c r="H3" s="191"/>
+      <c r="I3" s="191"/>
+      <c r="J3" s="191"/>
+      <c r="K3" s="191"/>
+      <c r="L3" s="191"/>
+      <c r="M3" s="191"/>
+      <c r="N3" s="192"/>
+      <c r="O3" s="229"/>
+      <c r="P3" s="230"/>
+      <c r="Q3" s="230"/>
+      <c r="R3" s="231"/>
+      <c r="S3" s="208"/>
+      <c r="T3" s="209"/>
+      <c r="U3" s="209"/>
+      <c r="V3" s="209"/>
+      <c r="W3" s="209"/>
+      <c r="X3" s="209"/>
+      <c r="Y3" s="209"/>
+      <c r="Z3" s="210"/>
+      <c r="AA3" s="232"/>
+      <c r="AB3" s="233"/>
+      <c r="AC3" s="172"/>
+      <c r="AD3" s="173"/>
+      <c r="AE3" s="173"/>
+      <c r="AF3" s="174"/>
+      <c r="AG3" s="178"/>
+      <c r="AH3" s="179"/>
+      <c r="AI3" s="180"/>
       <c r="AJ3" s="9"/>
       <c r="AK3" s="9"/>
       <c r="AL3" s="9"/>
       <c r="AM3" s="9"/>
       <c r="AN3" s="9"/>
     </row>
-    <row r="4" spans="1:40" s="16" customFormat="1">
+    <row r="4" spans="1:40" s="16" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="17"/>
       <c r="B4" s="17"/>
       <c r="C4" s="17"/>
@@ -4291,7 +4183,7 @@
       <c r="AM4" s="17"/>
       <c r="AN4" s="17"/>
     </row>
-    <row r="5" spans="1:40" s="18" customFormat="1" ht="22.5" customHeight="1">
+    <row r="5" spans="1:40" s="18" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="13"/>
       <c r="B5" s="13"/>
       <c r="C5" s="13"/>
@@ -4335,7 +4227,7 @@
       <c r="AM5" s="13"/>
       <c r="AN5" s="13"/>
     </row>
-    <row r="6" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="6" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="13"/>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
@@ -4377,1034 +4269,1034 @@
       <c r="AM6" s="13"/>
       <c r="AN6" s="13"/>
     </row>
-    <row r="7" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="7" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="198" t="s">
+      <c r="B7" s="187" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="199"/>
-      <c r="D7" s="198" t="s">
+      <c r="C7" s="189"/>
+      <c r="D7" s="187" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="200"/>
-      <c r="F7" s="199"/>
-      <c r="G7" s="198" t="s">
+      <c r="E7" s="188"/>
+      <c r="F7" s="189"/>
+      <c r="G7" s="187" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="200"/>
-      <c r="I7" s="199"/>
-      <c r="J7" s="198" t="s">
+      <c r="H7" s="188"/>
+      <c r="I7" s="189"/>
+      <c r="J7" s="187" t="s">
         <v>34</v>
       </c>
-      <c r="K7" s="200"/>
-      <c r="L7" s="200"/>
-      <c r="M7" s="200"/>
-      <c r="N7" s="200"/>
-      <c r="O7" s="200"/>
-      <c r="P7" s="199"/>
-      <c r="Q7" s="198" t="s">
+      <c r="K7" s="188"/>
+      <c r="L7" s="188"/>
+      <c r="M7" s="188"/>
+      <c r="N7" s="188"/>
+      <c r="O7" s="188"/>
+      <c r="P7" s="189"/>
+      <c r="Q7" s="187" t="s">
         <v>35</v>
       </c>
-      <c r="R7" s="200"/>
-      <c r="S7" s="200"/>
-      <c r="T7" s="200"/>
-      <c r="U7" s="200"/>
-      <c r="V7" s="200"/>
-      <c r="W7" s="200"/>
-      <c r="X7" s="200"/>
-      <c r="Y7" s="200"/>
-      <c r="Z7" s="200"/>
-      <c r="AA7" s="200"/>
-      <c r="AB7" s="200"/>
-      <c r="AC7" s="200"/>
-      <c r="AD7" s="200"/>
-      <c r="AE7" s="199"/>
-      <c r="AF7" s="198" t="s">
+      <c r="R7" s="188"/>
+      <c r="S7" s="188"/>
+      <c r="T7" s="188"/>
+      <c r="U7" s="188"/>
+      <c r="V7" s="188"/>
+      <c r="W7" s="188"/>
+      <c r="X7" s="188"/>
+      <c r="Y7" s="188"/>
+      <c r="Z7" s="188"/>
+      <c r="AA7" s="188"/>
+      <c r="AB7" s="188"/>
+      <c r="AC7" s="188"/>
+      <c r="AD7" s="188"/>
+      <c r="AE7" s="189"/>
+      <c r="AF7" s="187" t="s">
         <v>36</v>
       </c>
-      <c r="AG7" s="200"/>
-      <c r="AH7" s="200"/>
-      <c r="AI7" s="199"/>
-    </row>
-    <row r="8" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" thickTop="1">
+      <c r="AG7" s="188"/>
+      <c r="AH7" s="188"/>
+      <c r="AI7" s="189"/>
+    </row>
+    <row r="8" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A8" s="29">
         <v>1</v>
       </c>
-      <c r="B8" s="201" t="s">
+      <c r="B8" s="214" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="202"/>
-      <c r="D8" s="203">
+      <c r="C8" s="215"/>
+      <c r="D8" s="216">
         <v>43656</v>
       </c>
-      <c r="E8" s="204"/>
-      <c r="F8" s="205"/>
-      <c r="G8" s="201" t="s">
+      <c r="E8" s="217"/>
+      <c r="F8" s="218"/>
+      <c r="G8" s="214" t="s">
         <v>38</v>
       </c>
-      <c r="H8" s="206"/>
-      <c r="I8" s="202"/>
-      <c r="J8" s="222" t="s">
+      <c r="H8" s="219"/>
+      <c r="I8" s="215"/>
+      <c r="J8" s="199" t="s">
         <v>39</v>
       </c>
-      <c r="K8" s="223"/>
-      <c r="L8" s="223"/>
-      <c r="M8" s="223"/>
-      <c r="N8" s="223"/>
-      <c r="O8" s="223"/>
-      <c r="P8" s="224"/>
-      <c r="Q8" s="210" t="s">
+      <c r="K8" s="200"/>
+      <c r="L8" s="200"/>
+      <c r="M8" s="200"/>
+      <c r="N8" s="200"/>
+      <c r="O8" s="200"/>
+      <c r="P8" s="201"/>
+      <c r="Q8" s="175" t="s">
         <v>40</v>
       </c>
-      <c r="R8" s="211"/>
-      <c r="S8" s="211"/>
-      <c r="T8" s="211"/>
-      <c r="U8" s="211"/>
-      <c r="V8" s="211"/>
-      <c r="W8" s="211"/>
-      <c r="X8" s="211"/>
-      <c r="Y8" s="211"/>
-      <c r="Z8" s="211"/>
-      <c r="AA8" s="211"/>
-      <c r="AB8" s="211"/>
-      <c r="AC8" s="211"/>
-      <c r="AD8" s="211"/>
-      <c r="AE8" s="212"/>
-      <c r="AF8" s="222" t="s">
+      <c r="R8" s="176"/>
+      <c r="S8" s="176"/>
+      <c r="T8" s="176"/>
+      <c r="U8" s="176"/>
+      <c r="V8" s="176"/>
+      <c r="W8" s="176"/>
+      <c r="X8" s="176"/>
+      <c r="Y8" s="176"/>
+      <c r="Z8" s="176"/>
+      <c r="AA8" s="176"/>
+      <c r="AB8" s="176"/>
+      <c r="AC8" s="176"/>
+      <c r="AD8" s="176"/>
+      <c r="AE8" s="177"/>
+      <c r="AF8" s="199" t="s">
         <v>41</v>
       </c>
-      <c r="AG8" s="223"/>
-      <c r="AH8" s="223"/>
-      <c r="AI8" s="224"/>
-    </row>
-    <row r="9" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1">
+      <c r="AG8" s="200"/>
+      <c r="AH8" s="200"/>
+      <c r="AI8" s="201"/>
+    </row>
+    <row r="9" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="30"/>
-      <c r="B9" s="192"/>
-      <c r="C9" s="193"/>
-      <c r="D9" s="194"/>
-      <c r="E9" s="195"/>
-      <c r="F9" s="196"/>
-      <c r="G9" s="192"/>
-      <c r="H9" s="197"/>
-      <c r="I9" s="193"/>
-      <c r="J9" s="189"/>
-      <c r="K9" s="190"/>
-      <c r="L9" s="190"/>
-      <c r="M9" s="190"/>
-      <c r="N9" s="190"/>
-      <c r="O9" s="190"/>
-      <c r="P9" s="191"/>
-      <c r="Q9" s="186"/>
-      <c r="R9" s="187"/>
-      <c r="S9" s="187"/>
-      <c r="T9" s="187"/>
-      <c r="U9" s="187"/>
-      <c r="V9" s="187"/>
-      <c r="W9" s="187"/>
-      <c r="X9" s="187"/>
-      <c r="Y9" s="187"/>
-      <c r="Z9" s="187"/>
-      <c r="AA9" s="187"/>
-      <c r="AB9" s="187"/>
-      <c r="AC9" s="187"/>
-      <c r="AD9" s="187"/>
-      <c r="AE9" s="188"/>
-      <c r="AF9" s="189"/>
-      <c r="AG9" s="190"/>
-      <c r="AH9" s="190"/>
-      <c r="AI9" s="191"/>
-    </row>
-    <row r="10" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1">
+      <c r="B9" s="184"/>
+      <c r="C9" s="186"/>
+      <c r="D9" s="211"/>
+      <c r="E9" s="212"/>
+      <c r="F9" s="213"/>
+      <c r="G9" s="184"/>
+      <c r="H9" s="185"/>
+      <c r="I9" s="186"/>
+      <c r="J9" s="196"/>
+      <c r="K9" s="197"/>
+      <c r="L9" s="197"/>
+      <c r="M9" s="197"/>
+      <c r="N9" s="197"/>
+      <c r="O9" s="197"/>
+      <c r="P9" s="198"/>
+      <c r="Q9" s="193"/>
+      <c r="R9" s="194"/>
+      <c r="S9" s="194"/>
+      <c r="T9" s="194"/>
+      <c r="U9" s="194"/>
+      <c r="V9" s="194"/>
+      <c r="W9" s="194"/>
+      <c r="X9" s="194"/>
+      <c r="Y9" s="194"/>
+      <c r="Z9" s="194"/>
+      <c r="AA9" s="194"/>
+      <c r="AB9" s="194"/>
+      <c r="AC9" s="194"/>
+      <c r="AD9" s="194"/>
+      <c r="AE9" s="195"/>
+      <c r="AF9" s="196"/>
+      <c r="AG9" s="197"/>
+      <c r="AH9" s="197"/>
+      <c r="AI9" s="198"/>
+    </row>
+    <row r="10" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="30"/>
-      <c r="B10" s="192"/>
-      <c r="C10" s="193"/>
-      <c r="D10" s="194"/>
-      <c r="E10" s="195"/>
-      <c r="F10" s="196"/>
-      <c r="G10" s="192"/>
-      <c r="H10" s="197"/>
-      <c r="I10" s="193"/>
-      <c r="J10" s="189"/>
-      <c r="K10" s="190"/>
-      <c r="L10" s="190"/>
-      <c r="M10" s="190"/>
-      <c r="N10" s="190"/>
-      <c r="O10" s="190"/>
-      <c r="P10" s="191"/>
-      <c r="Q10" s="186"/>
-      <c r="R10" s="187"/>
-      <c r="S10" s="187"/>
-      <c r="T10" s="187"/>
-      <c r="U10" s="187"/>
-      <c r="V10" s="187"/>
-      <c r="W10" s="187"/>
-      <c r="X10" s="187"/>
-      <c r="Y10" s="187"/>
-      <c r="Z10" s="187"/>
-      <c r="AA10" s="187"/>
-      <c r="AB10" s="187"/>
-      <c r="AC10" s="187"/>
-      <c r="AD10" s="187"/>
-      <c r="AE10" s="188"/>
-      <c r="AF10" s="189"/>
-      <c r="AG10" s="190"/>
-      <c r="AH10" s="190"/>
-      <c r="AI10" s="191"/>
-    </row>
-    <row r="11" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1">
+      <c r="B10" s="184"/>
+      <c r="C10" s="186"/>
+      <c r="D10" s="211"/>
+      <c r="E10" s="212"/>
+      <c r="F10" s="213"/>
+      <c r="G10" s="184"/>
+      <c r="H10" s="185"/>
+      <c r="I10" s="186"/>
+      <c r="J10" s="196"/>
+      <c r="K10" s="197"/>
+      <c r="L10" s="197"/>
+      <c r="M10" s="197"/>
+      <c r="N10" s="197"/>
+      <c r="O10" s="197"/>
+      <c r="P10" s="198"/>
+      <c r="Q10" s="193"/>
+      <c r="R10" s="194"/>
+      <c r="S10" s="194"/>
+      <c r="T10" s="194"/>
+      <c r="U10" s="194"/>
+      <c r="V10" s="194"/>
+      <c r="W10" s="194"/>
+      <c r="X10" s="194"/>
+      <c r="Y10" s="194"/>
+      <c r="Z10" s="194"/>
+      <c r="AA10" s="194"/>
+      <c r="AB10" s="194"/>
+      <c r="AC10" s="194"/>
+      <c r="AD10" s="194"/>
+      <c r="AE10" s="195"/>
+      <c r="AF10" s="196"/>
+      <c r="AG10" s="197"/>
+      <c r="AH10" s="197"/>
+      <c r="AI10" s="198"/>
+    </row>
+    <row r="11" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="30"/>
-      <c r="B11" s="192"/>
-      <c r="C11" s="193"/>
-      <c r="D11" s="194"/>
-      <c r="E11" s="195"/>
-      <c r="F11" s="196"/>
-      <c r="G11" s="192"/>
-      <c r="H11" s="197"/>
-      <c r="I11" s="193"/>
-      <c r="J11" s="189"/>
-      <c r="K11" s="190"/>
-      <c r="L11" s="190"/>
-      <c r="M11" s="190"/>
-      <c r="N11" s="190"/>
-      <c r="O11" s="190"/>
-      <c r="P11" s="191"/>
-      <c r="Q11" s="186"/>
-      <c r="R11" s="187"/>
-      <c r="S11" s="187"/>
-      <c r="T11" s="187"/>
-      <c r="U11" s="187"/>
-      <c r="V11" s="187"/>
-      <c r="W11" s="187"/>
-      <c r="X11" s="187"/>
-      <c r="Y11" s="187"/>
-      <c r="Z11" s="187"/>
-      <c r="AA11" s="187"/>
-      <c r="AB11" s="187"/>
-      <c r="AC11" s="187"/>
-      <c r="AD11" s="187"/>
-      <c r="AE11" s="188"/>
-      <c r="AF11" s="189"/>
-      <c r="AG11" s="190"/>
-      <c r="AH11" s="190"/>
-      <c r="AI11" s="191"/>
-    </row>
-    <row r="12" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1">
+      <c r="B11" s="184"/>
+      <c r="C11" s="186"/>
+      <c r="D11" s="211"/>
+      <c r="E11" s="212"/>
+      <c r="F11" s="213"/>
+      <c r="G11" s="184"/>
+      <c r="H11" s="185"/>
+      <c r="I11" s="186"/>
+      <c r="J11" s="196"/>
+      <c r="K11" s="197"/>
+      <c r="L11" s="197"/>
+      <c r="M11" s="197"/>
+      <c r="N11" s="197"/>
+      <c r="O11" s="197"/>
+      <c r="P11" s="198"/>
+      <c r="Q11" s="193"/>
+      <c r="R11" s="194"/>
+      <c r="S11" s="194"/>
+      <c r="T11" s="194"/>
+      <c r="U11" s="194"/>
+      <c r="V11" s="194"/>
+      <c r="W11" s="194"/>
+      <c r="X11" s="194"/>
+      <c r="Y11" s="194"/>
+      <c r="Z11" s="194"/>
+      <c r="AA11" s="194"/>
+      <c r="AB11" s="194"/>
+      <c r="AC11" s="194"/>
+      <c r="AD11" s="194"/>
+      <c r="AE11" s="195"/>
+      <c r="AF11" s="196"/>
+      <c r="AG11" s="197"/>
+      <c r="AH11" s="197"/>
+      <c r="AI11" s="198"/>
+    </row>
+    <row r="12" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="30"/>
-      <c r="B12" s="192"/>
-      <c r="C12" s="193"/>
-      <c r="D12" s="194"/>
-      <c r="E12" s="195"/>
-      <c r="F12" s="196"/>
-      <c r="G12" s="192"/>
-      <c r="H12" s="197"/>
-      <c r="I12" s="193"/>
-      <c r="J12" s="189"/>
-      <c r="K12" s="190"/>
-      <c r="L12" s="190"/>
-      <c r="M12" s="190"/>
-      <c r="N12" s="190"/>
-      <c r="O12" s="190"/>
-      <c r="P12" s="191"/>
-      <c r="Q12" s="186"/>
-      <c r="R12" s="187"/>
-      <c r="S12" s="187"/>
-      <c r="T12" s="187"/>
-      <c r="U12" s="187"/>
-      <c r="V12" s="187"/>
-      <c r="W12" s="187"/>
-      <c r="X12" s="187"/>
-      <c r="Y12" s="187"/>
-      <c r="Z12" s="187"/>
-      <c r="AA12" s="187"/>
-      <c r="AB12" s="187"/>
-      <c r="AC12" s="187"/>
-      <c r="AD12" s="187"/>
-      <c r="AE12" s="188"/>
-      <c r="AF12" s="189"/>
-      <c r="AG12" s="190"/>
-      <c r="AH12" s="190"/>
-      <c r="AI12" s="191"/>
-    </row>
-    <row r="13" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1">
+      <c r="B12" s="184"/>
+      <c r="C12" s="186"/>
+      <c r="D12" s="211"/>
+      <c r="E12" s="212"/>
+      <c r="F12" s="213"/>
+      <c r="G12" s="184"/>
+      <c r="H12" s="185"/>
+      <c r="I12" s="186"/>
+      <c r="J12" s="196"/>
+      <c r="K12" s="197"/>
+      <c r="L12" s="197"/>
+      <c r="M12" s="197"/>
+      <c r="N12" s="197"/>
+      <c r="O12" s="197"/>
+      <c r="P12" s="198"/>
+      <c r="Q12" s="193"/>
+      <c r="R12" s="194"/>
+      <c r="S12" s="194"/>
+      <c r="T12" s="194"/>
+      <c r="U12" s="194"/>
+      <c r="V12" s="194"/>
+      <c r="W12" s="194"/>
+      <c r="X12" s="194"/>
+      <c r="Y12" s="194"/>
+      <c r="Z12" s="194"/>
+      <c r="AA12" s="194"/>
+      <c r="AB12" s="194"/>
+      <c r="AC12" s="194"/>
+      <c r="AD12" s="194"/>
+      <c r="AE12" s="195"/>
+      <c r="AF12" s="196"/>
+      <c r="AG12" s="197"/>
+      <c r="AH12" s="197"/>
+      <c r="AI12" s="198"/>
+    </row>
+    <row r="13" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="30"/>
-      <c r="B13" s="192"/>
-      <c r="C13" s="193"/>
-      <c r="D13" s="194"/>
-      <c r="E13" s="195"/>
-      <c r="F13" s="196"/>
-      <c r="G13" s="192"/>
-      <c r="H13" s="197"/>
-      <c r="I13" s="193"/>
-      <c r="J13" s="189"/>
-      <c r="K13" s="190"/>
-      <c r="L13" s="190"/>
-      <c r="M13" s="190"/>
-      <c r="N13" s="190"/>
-      <c r="O13" s="190"/>
-      <c r="P13" s="191"/>
-      <c r="Q13" s="186"/>
-      <c r="R13" s="187"/>
-      <c r="S13" s="187"/>
-      <c r="T13" s="187"/>
-      <c r="U13" s="187"/>
-      <c r="V13" s="187"/>
-      <c r="W13" s="187"/>
-      <c r="X13" s="187"/>
-      <c r="Y13" s="187"/>
-      <c r="Z13" s="187"/>
-      <c r="AA13" s="187"/>
-      <c r="AB13" s="187"/>
-      <c r="AC13" s="187"/>
-      <c r="AD13" s="187"/>
-      <c r="AE13" s="188"/>
-      <c r="AF13" s="189"/>
-      <c r="AG13" s="190"/>
-      <c r="AH13" s="190"/>
-      <c r="AI13" s="191"/>
-    </row>
-    <row r="14" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1">
+      <c r="B13" s="184"/>
+      <c r="C13" s="186"/>
+      <c r="D13" s="211"/>
+      <c r="E13" s="212"/>
+      <c r="F13" s="213"/>
+      <c r="G13" s="184"/>
+      <c r="H13" s="185"/>
+      <c r="I13" s="186"/>
+      <c r="J13" s="196"/>
+      <c r="K13" s="197"/>
+      <c r="L13" s="197"/>
+      <c r="M13" s="197"/>
+      <c r="N13" s="197"/>
+      <c r="O13" s="197"/>
+      <c r="P13" s="198"/>
+      <c r="Q13" s="193"/>
+      <c r="R13" s="194"/>
+      <c r="S13" s="194"/>
+      <c r="T13" s="194"/>
+      <c r="U13" s="194"/>
+      <c r="V13" s="194"/>
+      <c r="W13" s="194"/>
+      <c r="X13" s="194"/>
+      <c r="Y13" s="194"/>
+      <c r="Z13" s="194"/>
+      <c r="AA13" s="194"/>
+      <c r="AB13" s="194"/>
+      <c r="AC13" s="194"/>
+      <c r="AD13" s="194"/>
+      <c r="AE13" s="195"/>
+      <c r="AF13" s="196"/>
+      <c r="AG13" s="197"/>
+      <c r="AH13" s="197"/>
+      <c r="AI13" s="198"/>
+    </row>
+    <row r="14" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="30"/>
-      <c r="B14" s="192"/>
-      <c r="C14" s="193"/>
-      <c r="D14" s="194"/>
-      <c r="E14" s="195"/>
-      <c r="F14" s="196"/>
-      <c r="G14" s="192"/>
-      <c r="H14" s="197"/>
-      <c r="I14" s="193"/>
-      <c r="J14" s="189"/>
-      <c r="K14" s="190"/>
-      <c r="L14" s="190"/>
-      <c r="M14" s="190"/>
-      <c r="N14" s="190"/>
-      <c r="O14" s="190"/>
-      <c r="P14" s="191"/>
-      <c r="Q14" s="186"/>
-      <c r="R14" s="187"/>
-      <c r="S14" s="187"/>
-      <c r="T14" s="187"/>
-      <c r="U14" s="187"/>
-      <c r="V14" s="187"/>
-      <c r="W14" s="187"/>
-      <c r="X14" s="187"/>
-      <c r="Y14" s="187"/>
-      <c r="Z14" s="187"/>
-      <c r="AA14" s="187"/>
-      <c r="AB14" s="187"/>
-      <c r="AC14" s="187"/>
-      <c r="AD14" s="187"/>
-      <c r="AE14" s="188"/>
-      <c r="AF14" s="189"/>
-      <c r="AG14" s="190"/>
-      <c r="AH14" s="190"/>
-      <c r="AI14" s="191"/>
-    </row>
-    <row r="15" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1">
+      <c r="B14" s="184"/>
+      <c r="C14" s="186"/>
+      <c r="D14" s="211"/>
+      <c r="E14" s="212"/>
+      <c r="F14" s="213"/>
+      <c r="G14" s="184"/>
+      <c r="H14" s="185"/>
+      <c r="I14" s="186"/>
+      <c r="J14" s="196"/>
+      <c r="K14" s="197"/>
+      <c r="L14" s="197"/>
+      <c r="M14" s="197"/>
+      <c r="N14" s="197"/>
+      <c r="O14" s="197"/>
+      <c r="P14" s="198"/>
+      <c r="Q14" s="193"/>
+      <c r="R14" s="194"/>
+      <c r="S14" s="194"/>
+      <c r="T14" s="194"/>
+      <c r="U14" s="194"/>
+      <c r="V14" s="194"/>
+      <c r="W14" s="194"/>
+      <c r="X14" s="194"/>
+      <c r="Y14" s="194"/>
+      <c r="Z14" s="194"/>
+      <c r="AA14" s="194"/>
+      <c r="AB14" s="194"/>
+      <c r="AC14" s="194"/>
+      <c r="AD14" s="194"/>
+      <c r="AE14" s="195"/>
+      <c r="AF14" s="196"/>
+      <c r="AG14" s="197"/>
+      <c r="AH14" s="197"/>
+      <c r="AI14" s="198"/>
+    </row>
+    <row r="15" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="30"/>
-      <c r="B15" s="192"/>
-      <c r="C15" s="193"/>
-      <c r="D15" s="194"/>
-      <c r="E15" s="195"/>
-      <c r="F15" s="196"/>
-      <c r="G15" s="192"/>
-      <c r="H15" s="197"/>
-      <c r="I15" s="193"/>
-      <c r="J15" s="189"/>
-      <c r="K15" s="190"/>
-      <c r="L15" s="190"/>
-      <c r="M15" s="190"/>
-      <c r="N15" s="190"/>
-      <c r="O15" s="190"/>
-      <c r="P15" s="191"/>
-      <c r="Q15" s="186"/>
-      <c r="R15" s="187"/>
-      <c r="S15" s="187"/>
-      <c r="T15" s="187"/>
-      <c r="U15" s="187"/>
-      <c r="V15" s="187"/>
-      <c r="W15" s="187"/>
-      <c r="X15" s="187"/>
-      <c r="Y15" s="187"/>
-      <c r="Z15" s="187"/>
-      <c r="AA15" s="187"/>
-      <c r="AB15" s="187"/>
-      <c r="AC15" s="187"/>
-      <c r="AD15" s="187"/>
-      <c r="AE15" s="188"/>
-      <c r="AF15" s="189"/>
-      <c r="AG15" s="190"/>
-      <c r="AH15" s="190"/>
-      <c r="AI15" s="191"/>
-    </row>
-    <row r="16" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1">
+      <c r="B15" s="184"/>
+      <c r="C15" s="186"/>
+      <c r="D15" s="211"/>
+      <c r="E15" s="212"/>
+      <c r="F15" s="213"/>
+      <c r="G15" s="184"/>
+      <c r="H15" s="185"/>
+      <c r="I15" s="186"/>
+      <c r="J15" s="196"/>
+      <c r="K15" s="197"/>
+      <c r="L15" s="197"/>
+      <c r="M15" s="197"/>
+      <c r="N15" s="197"/>
+      <c r="O15" s="197"/>
+      <c r="P15" s="198"/>
+      <c r="Q15" s="193"/>
+      <c r="R15" s="194"/>
+      <c r="S15" s="194"/>
+      <c r="T15" s="194"/>
+      <c r="U15" s="194"/>
+      <c r="V15" s="194"/>
+      <c r="W15" s="194"/>
+      <c r="X15" s="194"/>
+      <c r="Y15" s="194"/>
+      <c r="Z15" s="194"/>
+      <c r="AA15" s="194"/>
+      <c r="AB15" s="194"/>
+      <c r="AC15" s="194"/>
+      <c r="AD15" s="194"/>
+      <c r="AE15" s="195"/>
+      <c r="AF15" s="196"/>
+      <c r="AG15" s="197"/>
+      <c r="AH15" s="197"/>
+      <c r="AI15" s="198"/>
+    </row>
+    <row r="16" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="30"/>
-      <c r="B16" s="192"/>
-      <c r="C16" s="193"/>
-      <c r="D16" s="194"/>
-      <c r="E16" s="195"/>
-      <c r="F16" s="196"/>
-      <c r="G16" s="192"/>
-      <c r="H16" s="197"/>
-      <c r="I16" s="193"/>
-      <c r="J16" s="189"/>
-      <c r="K16" s="190"/>
-      <c r="L16" s="190"/>
-      <c r="M16" s="190"/>
-      <c r="N16" s="190"/>
-      <c r="O16" s="190"/>
-      <c r="P16" s="191"/>
-      <c r="Q16" s="186"/>
-      <c r="R16" s="187"/>
-      <c r="S16" s="187"/>
-      <c r="T16" s="187"/>
-      <c r="U16" s="187"/>
-      <c r="V16" s="187"/>
-      <c r="W16" s="187"/>
-      <c r="X16" s="187"/>
-      <c r="Y16" s="187"/>
-      <c r="Z16" s="187"/>
-      <c r="AA16" s="187"/>
-      <c r="AB16" s="187"/>
-      <c r="AC16" s="187"/>
-      <c r="AD16" s="187"/>
-      <c r="AE16" s="188"/>
-      <c r="AF16" s="189"/>
-      <c r="AG16" s="190"/>
-      <c r="AH16" s="190"/>
-      <c r="AI16" s="191"/>
-    </row>
-    <row r="17" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1">
+      <c r="B16" s="184"/>
+      <c r="C16" s="186"/>
+      <c r="D16" s="211"/>
+      <c r="E16" s="212"/>
+      <c r="F16" s="213"/>
+      <c r="G16" s="184"/>
+      <c r="H16" s="185"/>
+      <c r="I16" s="186"/>
+      <c r="J16" s="196"/>
+      <c r="K16" s="197"/>
+      <c r="L16" s="197"/>
+      <c r="M16" s="197"/>
+      <c r="N16" s="197"/>
+      <c r="O16" s="197"/>
+      <c r="P16" s="198"/>
+      <c r="Q16" s="193"/>
+      <c r="R16" s="194"/>
+      <c r="S16" s="194"/>
+      <c r="T16" s="194"/>
+      <c r="U16" s="194"/>
+      <c r="V16" s="194"/>
+      <c r="W16" s="194"/>
+      <c r="X16" s="194"/>
+      <c r="Y16" s="194"/>
+      <c r="Z16" s="194"/>
+      <c r="AA16" s="194"/>
+      <c r="AB16" s="194"/>
+      <c r="AC16" s="194"/>
+      <c r="AD16" s="194"/>
+      <c r="AE16" s="195"/>
+      <c r="AF16" s="196"/>
+      <c r="AG16" s="197"/>
+      <c r="AH16" s="197"/>
+      <c r="AI16" s="198"/>
+    </row>
+    <row r="17" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="30"/>
-      <c r="B17" s="192"/>
-      <c r="C17" s="193"/>
-      <c r="D17" s="194"/>
-      <c r="E17" s="195"/>
-      <c r="F17" s="196"/>
-      <c r="G17" s="192"/>
-      <c r="H17" s="197"/>
-      <c r="I17" s="193"/>
-      <c r="J17" s="189"/>
-      <c r="K17" s="190"/>
-      <c r="L17" s="190"/>
-      <c r="M17" s="190"/>
-      <c r="N17" s="190"/>
-      <c r="O17" s="190"/>
-      <c r="P17" s="191"/>
-      <c r="Q17" s="186"/>
-      <c r="R17" s="187"/>
-      <c r="S17" s="187"/>
-      <c r="T17" s="187"/>
-      <c r="U17" s="187"/>
-      <c r="V17" s="187"/>
-      <c r="W17" s="187"/>
-      <c r="X17" s="187"/>
-      <c r="Y17" s="187"/>
-      <c r="Z17" s="187"/>
-      <c r="AA17" s="187"/>
-      <c r="AB17" s="187"/>
-      <c r="AC17" s="187"/>
-      <c r="AD17" s="187"/>
-      <c r="AE17" s="188"/>
-      <c r="AF17" s="189"/>
-      <c r="AG17" s="190"/>
-      <c r="AH17" s="190"/>
-      <c r="AI17" s="191"/>
-    </row>
-    <row r="18" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1">
+      <c r="B17" s="184"/>
+      <c r="C17" s="186"/>
+      <c r="D17" s="211"/>
+      <c r="E17" s="212"/>
+      <c r="F17" s="213"/>
+      <c r="G17" s="184"/>
+      <c r="H17" s="185"/>
+      <c r="I17" s="186"/>
+      <c r="J17" s="196"/>
+      <c r="K17" s="197"/>
+      <c r="L17" s="197"/>
+      <c r="M17" s="197"/>
+      <c r="N17" s="197"/>
+      <c r="O17" s="197"/>
+      <c r="P17" s="198"/>
+      <c r="Q17" s="193"/>
+      <c r="R17" s="194"/>
+      <c r="S17" s="194"/>
+      <c r="T17" s="194"/>
+      <c r="U17" s="194"/>
+      <c r="V17" s="194"/>
+      <c r="W17" s="194"/>
+      <c r="X17" s="194"/>
+      <c r="Y17" s="194"/>
+      <c r="Z17" s="194"/>
+      <c r="AA17" s="194"/>
+      <c r="AB17" s="194"/>
+      <c r="AC17" s="194"/>
+      <c r="AD17" s="194"/>
+      <c r="AE17" s="195"/>
+      <c r="AF17" s="196"/>
+      <c r="AG17" s="197"/>
+      <c r="AH17" s="197"/>
+      <c r="AI17" s="198"/>
+    </row>
+    <row r="18" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="30"/>
-      <c r="B18" s="192"/>
-      <c r="C18" s="193"/>
-      <c r="D18" s="194"/>
-      <c r="E18" s="195"/>
-      <c r="F18" s="196"/>
-      <c r="G18" s="192"/>
-      <c r="H18" s="197"/>
-      <c r="I18" s="193"/>
-      <c r="J18" s="189"/>
-      <c r="K18" s="190"/>
-      <c r="L18" s="190"/>
-      <c r="M18" s="190"/>
-      <c r="N18" s="190"/>
-      <c r="O18" s="190"/>
-      <c r="P18" s="191"/>
-      <c r="Q18" s="186"/>
-      <c r="R18" s="187"/>
-      <c r="S18" s="187"/>
-      <c r="T18" s="187"/>
-      <c r="U18" s="187"/>
-      <c r="V18" s="187"/>
-      <c r="W18" s="187"/>
-      <c r="X18" s="187"/>
-      <c r="Y18" s="187"/>
-      <c r="Z18" s="187"/>
-      <c r="AA18" s="187"/>
-      <c r="AB18" s="187"/>
-      <c r="AC18" s="187"/>
-      <c r="AD18" s="187"/>
-      <c r="AE18" s="188"/>
-      <c r="AF18" s="189"/>
-      <c r="AG18" s="190"/>
-      <c r="AH18" s="190"/>
-      <c r="AI18" s="191"/>
-    </row>
-    <row r="19" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1">
+      <c r="B18" s="184"/>
+      <c r="C18" s="186"/>
+      <c r="D18" s="211"/>
+      <c r="E18" s="212"/>
+      <c r="F18" s="213"/>
+      <c r="G18" s="184"/>
+      <c r="H18" s="185"/>
+      <c r="I18" s="186"/>
+      <c r="J18" s="196"/>
+      <c r="K18" s="197"/>
+      <c r="L18" s="197"/>
+      <c r="M18" s="197"/>
+      <c r="N18" s="197"/>
+      <c r="O18" s="197"/>
+      <c r="P18" s="198"/>
+      <c r="Q18" s="193"/>
+      <c r="R18" s="194"/>
+      <c r="S18" s="194"/>
+      <c r="T18" s="194"/>
+      <c r="U18" s="194"/>
+      <c r="V18" s="194"/>
+      <c r="W18" s="194"/>
+      <c r="X18" s="194"/>
+      <c r="Y18" s="194"/>
+      <c r="Z18" s="194"/>
+      <c r="AA18" s="194"/>
+      <c r="AB18" s="194"/>
+      <c r="AC18" s="194"/>
+      <c r="AD18" s="194"/>
+      <c r="AE18" s="195"/>
+      <c r="AF18" s="196"/>
+      <c r="AG18" s="197"/>
+      <c r="AH18" s="197"/>
+      <c r="AI18" s="198"/>
+    </row>
+    <row r="19" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="30"/>
-      <c r="B19" s="192"/>
-      <c r="C19" s="193"/>
-      <c r="D19" s="194"/>
-      <c r="E19" s="195"/>
-      <c r="F19" s="196"/>
-      <c r="G19" s="192"/>
-      <c r="H19" s="197"/>
-      <c r="I19" s="193"/>
-      <c r="J19" s="189"/>
-      <c r="K19" s="190"/>
-      <c r="L19" s="190"/>
-      <c r="M19" s="190"/>
-      <c r="N19" s="190"/>
-      <c r="O19" s="190"/>
-      <c r="P19" s="191"/>
-      <c r="Q19" s="186"/>
-      <c r="R19" s="187"/>
-      <c r="S19" s="187"/>
-      <c r="T19" s="187"/>
-      <c r="U19" s="187"/>
-      <c r="V19" s="187"/>
-      <c r="W19" s="187"/>
-      <c r="X19" s="187"/>
-      <c r="Y19" s="187"/>
-      <c r="Z19" s="187"/>
-      <c r="AA19" s="187"/>
-      <c r="AB19" s="187"/>
-      <c r="AC19" s="187"/>
-      <c r="AD19" s="187"/>
-      <c r="AE19" s="188"/>
-      <c r="AF19" s="189"/>
-      <c r="AG19" s="190"/>
-      <c r="AH19" s="190"/>
-      <c r="AI19" s="191"/>
-    </row>
-    <row r="20" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1">
+      <c r="B19" s="184"/>
+      <c r="C19" s="186"/>
+      <c r="D19" s="211"/>
+      <c r="E19" s="212"/>
+      <c r="F19" s="213"/>
+      <c r="G19" s="184"/>
+      <c r="H19" s="185"/>
+      <c r="I19" s="186"/>
+      <c r="J19" s="196"/>
+      <c r="K19" s="197"/>
+      <c r="L19" s="197"/>
+      <c r="M19" s="197"/>
+      <c r="N19" s="197"/>
+      <c r="O19" s="197"/>
+      <c r="P19" s="198"/>
+      <c r="Q19" s="193"/>
+      <c r="R19" s="194"/>
+      <c r="S19" s="194"/>
+      <c r="T19" s="194"/>
+      <c r="U19" s="194"/>
+      <c r="V19" s="194"/>
+      <c r="W19" s="194"/>
+      <c r="X19" s="194"/>
+      <c r="Y19" s="194"/>
+      <c r="Z19" s="194"/>
+      <c r="AA19" s="194"/>
+      <c r="AB19" s="194"/>
+      <c r="AC19" s="194"/>
+      <c r="AD19" s="194"/>
+      <c r="AE19" s="195"/>
+      <c r="AF19" s="196"/>
+      <c r="AG19" s="197"/>
+      <c r="AH19" s="197"/>
+      <c r="AI19" s="198"/>
+    </row>
+    <row r="20" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="30"/>
-      <c r="B20" s="192"/>
-      <c r="C20" s="193"/>
-      <c r="D20" s="194"/>
-      <c r="E20" s="195"/>
-      <c r="F20" s="196"/>
-      <c r="G20" s="192"/>
-      <c r="H20" s="197"/>
-      <c r="I20" s="193"/>
-      <c r="J20" s="189"/>
-      <c r="K20" s="190"/>
-      <c r="L20" s="190"/>
-      <c r="M20" s="190"/>
-      <c r="N20" s="190"/>
-      <c r="O20" s="190"/>
-      <c r="P20" s="191"/>
-      <c r="Q20" s="186"/>
-      <c r="R20" s="187"/>
-      <c r="S20" s="187"/>
-      <c r="T20" s="187"/>
-      <c r="U20" s="187"/>
-      <c r="V20" s="187"/>
-      <c r="W20" s="187"/>
-      <c r="X20" s="187"/>
-      <c r="Y20" s="187"/>
-      <c r="Z20" s="187"/>
-      <c r="AA20" s="187"/>
-      <c r="AB20" s="187"/>
-      <c r="AC20" s="187"/>
-      <c r="AD20" s="187"/>
-      <c r="AE20" s="188"/>
-      <c r="AF20" s="189"/>
-      <c r="AG20" s="190"/>
-      <c r="AH20" s="190"/>
-      <c r="AI20" s="191"/>
-    </row>
-    <row r="21" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1">
+      <c r="B20" s="184"/>
+      <c r="C20" s="186"/>
+      <c r="D20" s="211"/>
+      <c r="E20" s="212"/>
+      <c r="F20" s="213"/>
+      <c r="G20" s="184"/>
+      <c r="H20" s="185"/>
+      <c r="I20" s="186"/>
+      <c r="J20" s="196"/>
+      <c r="K20" s="197"/>
+      <c r="L20" s="197"/>
+      <c r="M20" s="197"/>
+      <c r="N20" s="197"/>
+      <c r="O20" s="197"/>
+      <c r="P20" s="198"/>
+      <c r="Q20" s="193"/>
+      <c r="R20" s="194"/>
+      <c r="S20" s="194"/>
+      <c r="T20" s="194"/>
+      <c r="U20" s="194"/>
+      <c r="V20" s="194"/>
+      <c r="W20" s="194"/>
+      <c r="X20" s="194"/>
+      <c r="Y20" s="194"/>
+      <c r="Z20" s="194"/>
+      <c r="AA20" s="194"/>
+      <c r="AB20" s="194"/>
+      <c r="AC20" s="194"/>
+      <c r="AD20" s="194"/>
+      <c r="AE20" s="195"/>
+      <c r="AF20" s="196"/>
+      <c r="AG20" s="197"/>
+      <c r="AH20" s="197"/>
+      <c r="AI20" s="198"/>
+    </row>
+    <row r="21" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="30"/>
-      <c r="B21" s="192"/>
-      <c r="C21" s="193"/>
-      <c r="D21" s="194"/>
-      <c r="E21" s="195"/>
-      <c r="F21" s="196"/>
-      <c r="G21" s="192"/>
-      <c r="H21" s="197"/>
-      <c r="I21" s="193"/>
-      <c r="J21" s="189"/>
-      <c r="K21" s="190"/>
-      <c r="L21" s="190"/>
-      <c r="M21" s="190"/>
-      <c r="N21" s="190"/>
-      <c r="O21" s="190"/>
-      <c r="P21" s="191"/>
-      <c r="Q21" s="186"/>
-      <c r="R21" s="187"/>
-      <c r="S21" s="187"/>
-      <c r="T21" s="187"/>
-      <c r="U21" s="187"/>
-      <c r="V21" s="187"/>
-      <c r="W21" s="187"/>
-      <c r="X21" s="187"/>
-      <c r="Y21" s="187"/>
-      <c r="Z21" s="187"/>
-      <c r="AA21" s="187"/>
-      <c r="AB21" s="187"/>
-      <c r="AC21" s="187"/>
-      <c r="AD21" s="187"/>
-      <c r="AE21" s="188"/>
-      <c r="AF21" s="189"/>
-      <c r="AG21" s="190"/>
-      <c r="AH21" s="190"/>
-      <c r="AI21" s="191"/>
-    </row>
-    <row r="22" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1">
+      <c r="B21" s="184"/>
+      <c r="C21" s="186"/>
+      <c r="D21" s="211"/>
+      <c r="E21" s="212"/>
+      <c r="F21" s="213"/>
+      <c r="G21" s="184"/>
+      <c r="H21" s="185"/>
+      <c r="I21" s="186"/>
+      <c r="J21" s="196"/>
+      <c r="K21" s="197"/>
+      <c r="L21" s="197"/>
+      <c r="M21" s="197"/>
+      <c r="N21" s="197"/>
+      <c r="O21" s="197"/>
+      <c r="P21" s="198"/>
+      <c r="Q21" s="193"/>
+      <c r="R21" s="194"/>
+      <c r="S21" s="194"/>
+      <c r="T21" s="194"/>
+      <c r="U21" s="194"/>
+      <c r="V21" s="194"/>
+      <c r="W21" s="194"/>
+      <c r="X21" s="194"/>
+      <c r="Y21" s="194"/>
+      <c r="Z21" s="194"/>
+      <c r="AA21" s="194"/>
+      <c r="AB21" s="194"/>
+      <c r="AC21" s="194"/>
+      <c r="AD21" s="194"/>
+      <c r="AE21" s="195"/>
+      <c r="AF21" s="196"/>
+      <c r="AG21" s="197"/>
+      <c r="AH21" s="197"/>
+      <c r="AI21" s="198"/>
+    </row>
+    <row r="22" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="30"/>
-      <c r="B22" s="192"/>
-      <c r="C22" s="193"/>
-      <c r="D22" s="194"/>
-      <c r="E22" s="195"/>
-      <c r="F22" s="196"/>
-      <c r="G22" s="192"/>
-      <c r="H22" s="197"/>
-      <c r="I22" s="193"/>
-      <c r="J22" s="189"/>
-      <c r="K22" s="190"/>
-      <c r="L22" s="190"/>
-      <c r="M22" s="190"/>
-      <c r="N22" s="190"/>
-      <c r="O22" s="190"/>
-      <c r="P22" s="191"/>
-      <c r="Q22" s="186"/>
-      <c r="R22" s="187"/>
-      <c r="S22" s="187"/>
-      <c r="T22" s="187"/>
-      <c r="U22" s="187"/>
-      <c r="V22" s="187"/>
-      <c r="W22" s="187"/>
-      <c r="X22" s="187"/>
-      <c r="Y22" s="187"/>
-      <c r="Z22" s="187"/>
-      <c r="AA22" s="187"/>
-      <c r="AB22" s="187"/>
-      <c r="AC22" s="187"/>
-      <c r="AD22" s="187"/>
-      <c r="AE22" s="188"/>
-      <c r="AF22" s="189"/>
-      <c r="AG22" s="190"/>
-      <c r="AH22" s="190"/>
-      <c r="AI22" s="191"/>
-    </row>
-    <row r="23" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1">
+      <c r="B22" s="184"/>
+      <c r="C22" s="186"/>
+      <c r="D22" s="211"/>
+      <c r="E22" s="212"/>
+      <c r="F22" s="213"/>
+      <c r="G22" s="184"/>
+      <c r="H22" s="185"/>
+      <c r="I22" s="186"/>
+      <c r="J22" s="196"/>
+      <c r="K22" s="197"/>
+      <c r="L22" s="197"/>
+      <c r="M22" s="197"/>
+      <c r="N22" s="197"/>
+      <c r="O22" s="197"/>
+      <c r="P22" s="198"/>
+      <c r="Q22" s="193"/>
+      <c r="R22" s="194"/>
+      <c r="S22" s="194"/>
+      <c r="T22" s="194"/>
+      <c r="U22" s="194"/>
+      <c r="V22" s="194"/>
+      <c r="W22" s="194"/>
+      <c r="X22" s="194"/>
+      <c r="Y22" s="194"/>
+      <c r="Z22" s="194"/>
+      <c r="AA22" s="194"/>
+      <c r="AB22" s="194"/>
+      <c r="AC22" s="194"/>
+      <c r="AD22" s="194"/>
+      <c r="AE22" s="195"/>
+      <c r="AF22" s="196"/>
+      <c r="AG22" s="197"/>
+      <c r="AH22" s="197"/>
+      <c r="AI22" s="198"/>
+    </row>
+    <row r="23" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="30"/>
-      <c r="B23" s="192"/>
-      <c r="C23" s="193"/>
-      <c r="D23" s="194"/>
-      <c r="E23" s="195"/>
-      <c r="F23" s="196"/>
-      <c r="G23" s="192"/>
-      <c r="H23" s="197"/>
-      <c r="I23" s="193"/>
-      <c r="J23" s="189"/>
-      <c r="K23" s="190"/>
-      <c r="L23" s="190"/>
-      <c r="M23" s="190"/>
-      <c r="N23" s="190"/>
-      <c r="O23" s="190"/>
-      <c r="P23" s="191"/>
-      <c r="Q23" s="186"/>
-      <c r="R23" s="187"/>
-      <c r="S23" s="187"/>
-      <c r="T23" s="187"/>
-      <c r="U23" s="187"/>
-      <c r="V23" s="187"/>
-      <c r="W23" s="187"/>
-      <c r="X23" s="187"/>
-      <c r="Y23" s="187"/>
-      <c r="Z23" s="187"/>
-      <c r="AA23" s="187"/>
-      <c r="AB23" s="187"/>
-      <c r="AC23" s="187"/>
-      <c r="AD23" s="187"/>
-      <c r="AE23" s="188"/>
-      <c r="AF23" s="189"/>
-      <c r="AG23" s="190"/>
-      <c r="AH23" s="190"/>
-      <c r="AI23" s="191"/>
-    </row>
-    <row r="24" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1">
+      <c r="B23" s="184"/>
+      <c r="C23" s="186"/>
+      <c r="D23" s="211"/>
+      <c r="E23" s="212"/>
+      <c r="F23" s="213"/>
+      <c r="G23" s="184"/>
+      <c r="H23" s="185"/>
+      <c r="I23" s="186"/>
+      <c r="J23" s="196"/>
+      <c r="K23" s="197"/>
+      <c r="L23" s="197"/>
+      <c r="M23" s="197"/>
+      <c r="N23" s="197"/>
+      <c r="O23" s="197"/>
+      <c r="P23" s="198"/>
+      <c r="Q23" s="193"/>
+      <c r="R23" s="194"/>
+      <c r="S23" s="194"/>
+      <c r="T23" s="194"/>
+      <c r="U23" s="194"/>
+      <c r="V23" s="194"/>
+      <c r="W23" s="194"/>
+      <c r="X23" s="194"/>
+      <c r="Y23" s="194"/>
+      <c r="Z23" s="194"/>
+      <c r="AA23" s="194"/>
+      <c r="AB23" s="194"/>
+      <c r="AC23" s="194"/>
+      <c r="AD23" s="194"/>
+      <c r="AE23" s="195"/>
+      <c r="AF23" s="196"/>
+      <c r="AG23" s="197"/>
+      <c r="AH23" s="197"/>
+      <c r="AI23" s="198"/>
+    </row>
+    <row r="24" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="30"/>
-      <c r="B24" s="192"/>
-      <c r="C24" s="193"/>
-      <c r="D24" s="194"/>
-      <c r="E24" s="195"/>
-      <c r="F24" s="196"/>
-      <c r="G24" s="192"/>
-      <c r="H24" s="197"/>
-      <c r="I24" s="193"/>
-      <c r="J24" s="189"/>
-      <c r="K24" s="190"/>
-      <c r="L24" s="190"/>
-      <c r="M24" s="190"/>
-      <c r="N24" s="190"/>
-      <c r="O24" s="190"/>
-      <c r="P24" s="191"/>
-      <c r="Q24" s="186"/>
-      <c r="R24" s="187"/>
-      <c r="S24" s="187"/>
-      <c r="T24" s="187"/>
-      <c r="U24" s="187"/>
-      <c r="V24" s="187"/>
-      <c r="W24" s="187"/>
-      <c r="X24" s="187"/>
-      <c r="Y24" s="187"/>
-      <c r="Z24" s="187"/>
-      <c r="AA24" s="187"/>
-      <c r="AB24" s="187"/>
-      <c r="AC24" s="187"/>
-      <c r="AD24" s="187"/>
-      <c r="AE24" s="188"/>
-      <c r="AF24" s="189"/>
-      <c r="AG24" s="190"/>
-      <c r="AH24" s="190"/>
-      <c r="AI24" s="191"/>
-    </row>
-    <row r="25" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1">
+      <c r="B24" s="184"/>
+      <c r="C24" s="186"/>
+      <c r="D24" s="211"/>
+      <c r="E24" s="212"/>
+      <c r="F24" s="213"/>
+      <c r="G24" s="184"/>
+      <c r="H24" s="185"/>
+      <c r="I24" s="186"/>
+      <c r="J24" s="196"/>
+      <c r="K24" s="197"/>
+      <c r="L24" s="197"/>
+      <c r="M24" s="197"/>
+      <c r="N24" s="197"/>
+      <c r="O24" s="197"/>
+      <c r="P24" s="198"/>
+      <c r="Q24" s="193"/>
+      <c r="R24" s="194"/>
+      <c r="S24" s="194"/>
+      <c r="T24" s="194"/>
+      <c r="U24" s="194"/>
+      <c r="V24" s="194"/>
+      <c r="W24" s="194"/>
+      <c r="X24" s="194"/>
+      <c r="Y24" s="194"/>
+      <c r="Z24" s="194"/>
+      <c r="AA24" s="194"/>
+      <c r="AB24" s="194"/>
+      <c r="AC24" s="194"/>
+      <c r="AD24" s="194"/>
+      <c r="AE24" s="195"/>
+      <c r="AF24" s="196"/>
+      <c r="AG24" s="197"/>
+      <c r="AH24" s="197"/>
+      <c r="AI24" s="198"/>
+    </row>
+    <row r="25" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="30"/>
-      <c r="B25" s="192"/>
-      <c r="C25" s="193"/>
-      <c r="D25" s="194"/>
-      <c r="E25" s="195"/>
-      <c r="F25" s="196"/>
-      <c r="G25" s="192"/>
-      <c r="H25" s="197"/>
-      <c r="I25" s="193"/>
-      <c r="J25" s="189"/>
-      <c r="K25" s="190"/>
-      <c r="L25" s="190"/>
-      <c r="M25" s="190"/>
-      <c r="N25" s="190"/>
-      <c r="O25" s="190"/>
-      <c r="P25" s="191"/>
-      <c r="Q25" s="186"/>
-      <c r="R25" s="187"/>
-      <c r="S25" s="187"/>
-      <c r="T25" s="187"/>
-      <c r="U25" s="187"/>
-      <c r="V25" s="187"/>
-      <c r="W25" s="187"/>
-      <c r="X25" s="187"/>
-      <c r="Y25" s="187"/>
-      <c r="Z25" s="187"/>
-      <c r="AA25" s="187"/>
-      <c r="AB25" s="187"/>
-      <c r="AC25" s="187"/>
-      <c r="AD25" s="187"/>
-      <c r="AE25" s="188"/>
-      <c r="AF25" s="189"/>
-      <c r="AG25" s="190"/>
-      <c r="AH25" s="190"/>
-      <c r="AI25" s="191"/>
-    </row>
-    <row r="26" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1">
+      <c r="B25" s="184"/>
+      <c r="C25" s="186"/>
+      <c r="D25" s="211"/>
+      <c r="E25" s="212"/>
+      <c r="F25" s="213"/>
+      <c r="G25" s="184"/>
+      <c r="H25" s="185"/>
+      <c r="I25" s="186"/>
+      <c r="J25" s="196"/>
+      <c r="K25" s="197"/>
+      <c r="L25" s="197"/>
+      <c r="M25" s="197"/>
+      <c r="N25" s="197"/>
+      <c r="O25" s="197"/>
+      <c r="P25" s="198"/>
+      <c r="Q25" s="193"/>
+      <c r="R25" s="194"/>
+      <c r="S25" s="194"/>
+      <c r="T25" s="194"/>
+      <c r="U25" s="194"/>
+      <c r="V25" s="194"/>
+      <c r="W25" s="194"/>
+      <c r="X25" s="194"/>
+      <c r="Y25" s="194"/>
+      <c r="Z25" s="194"/>
+      <c r="AA25" s="194"/>
+      <c r="AB25" s="194"/>
+      <c r="AC25" s="194"/>
+      <c r="AD25" s="194"/>
+      <c r="AE25" s="195"/>
+      <c r="AF25" s="196"/>
+      <c r="AG25" s="197"/>
+      <c r="AH25" s="197"/>
+      <c r="AI25" s="198"/>
+    </row>
+    <row r="26" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="30"/>
-      <c r="B26" s="192"/>
-      <c r="C26" s="193"/>
-      <c r="D26" s="194"/>
-      <c r="E26" s="195"/>
-      <c r="F26" s="196"/>
-      <c r="G26" s="192"/>
-      <c r="H26" s="197"/>
-      <c r="I26" s="193"/>
-      <c r="J26" s="189"/>
-      <c r="K26" s="190"/>
-      <c r="L26" s="190"/>
-      <c r="M26" s="190"/>
-      <c r="N26" s="190"/>
-      <c r="O26" s="190"/>
-      <c r="P26" s="191"/>
-      <c r="Q26" s="186"/>
-      <c r="R26" s="187"/>
-      <c r="S26" s="187"/>
-      <c r="T26" s="187"/>
-      <c r="U26" s="187"/>
-      <c r="V26" s="187"/>
-      <c r="W26" s="187"/>
-      <c r="X26" s="187"/>
-      <c r="Y26" s="187"/>
-      <c r="Z26" s="187"/>
-      <c r="AA26" s="187"/>
-      <c r="AB26" s="187"/>
-      <c r="AC26" s="187"/>
-      <c r="AD26" s="187"/>
-      <c r="AE26" s="188"/>
-      <c r="AF26" s="189"/>
-      <c r="AG26" s="190"/>
-      <c r="AH26" s="190"/>
-      <c r="AI26" s="191"/>
-    </row>
-    <row r="27" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1">
+      <c r="B26" s="184"/>
+      <c r="C26" s="186"/>
+      <c r="D26" s="211"/>
+      <c r="E26" s="212"/>
+      <c r="F26" s="213"/>
+      <c r="G26" s="184"/>
+      <c r="H26" s="185"/>
+      <c r="I26" s="186"/>
+      <c r="J26" s="196"/>
+      <c r="K26" s="197"/>
+      <c r="L26" s="197"/>
+      <c r="M26" s="197"/>
+      <c r="N26" s="197"/>
+      <c r="O26" s="197"/>
+      <c r="P26" s="198"/>
+      <c r="Q26" s="193"/>
+      <c r="R26" s="194"/>
+      <c r="S26" s="194"/>
+      <c r="T26" s="194"/>
+      <c r="U26" s="194"/>
+      <c r="V26" s="194"/>
+      <c r="W26" s="194"/>
+      <c r="X26" s="194"/>
+      <c r="Y26" s="194"/>
+      <c r="Z26" s="194"/>
+      <c r="AA26" s="194"/>
+      <c r="AB26" s="194"/>
+      <c r="AC26" s="194"/>
+      <c r="AD26" s="194"/>
+      <c r="AE26" s="195"/>
+      <c r="AF26" s="196"/>
+      <c r="AG26" s="197"/>
+      <c r="AH26" s="197"/>
+      <c r="AI26" s="198"/>
+    </row>
+    <row r="27" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="30"/>
-      <c r="B27" s="192"/>
-      <c r="C27" s="193"/>
-      <c r="D27" s="194"/>
-      <c r="E27" s="195"/>
-      <c r="F27" s="196"/>
-      <c r="G27" s="192"/>
-      <c r="H27" s="197"/>
-      <c r="I27" s="193"/>
-      <c r="J27" s="189"/>
-      <c r="K27" s="190"/>
-      <c r="L27" s="190"/>
-      <c r="M27" s="190"/>
-      <c r="N27" s="190"/>
-      <c r="O27" s="190"/>
-      <c r="P27" s="191"/>
-      <c r="Q27" s="186"/>
-      <c r="R27" s="187"/>
-      <c r="S27" s="187"/>
-      <c r="T27" s="187"/>
-      <c r="U27" s="187"/>
-      <c r="V27" s="187"/>
-      <c r="W27" s="187"/>
-      <c r="X27" s="187"/>
-      <c r="Y27" s="187"/>
-      <c r="Z27" s="187"/>
-      <c r="AA27" s="187"/>
-      <c r="AB27" s="187"/>
-      <c r="AC27" s="187"/>
-      <c r="AD27" s="187"/>
-      <c r="AE27" s="188"/>
-      <c r="AF27" s="189"/>
-      <c r="AG27" s="190"/>
-      <c r="AH27" s="190"/>
-      <c r="AI27" s="191"/>
-    </row>
-    <row r="28" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1">
+      <c r="B27" s="184"/>
+      <c r="C27" s="186"/>
+      <c r="D27" s="211"/>
+      <c r="E27" s="212"/>
+      <c r="F27" s="213"/>
+      <c r="G27" s="184"/>
+      <c r="H27" s="185"/>
+      <c r="I27" s="186"/>
+      <c r="J27" s="196"/>
+      <c r="K27" s="197"/>
+      <c r="L27" s="197"/>
+      <c r="M27" s="197"/>
+      <c r="N27" s="197"/>
+      <c r="O27" s="197"/>
+      <c r="P27" s="198"/>
+      <c r="Q27" s="193"/>
+      <c r="R27" s="194"/>
+      <c r="S27" s="194"/>
+      <c r="T27" s="194"/>
+      <c r="U27" s="194"/>
+      <c r="V27" s="194"/>
+      <c r="W27" s="194"/>
+      <c r="X27" s="194"/>
+      <c r="Y27" s="194"/>
+      <c r="Z27" s="194"/>
+      <c r="AA27" s="194"/>
+      <c r="AB27" s="194"/>
+      <c r="AC27" s="194"/>
+      <c r="AD27" s="194"/>
+      <c r="AE27" s="195"/>
+      <c r="AF27" s="196"/>
+      <c r="AG27" s="197"/>
+      <c r="AH27" s="197"/>
+      <c r="AI27" s="198"/>
+    </row>
+    <row r="28" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="30"/>
-      <c r="B28" s="192"/>
-      <c r="C28" s="193"/>
-      <c r="D28" s="194"/>
-      <c r="E28" s="195"/>
-      <c r="F28" s="196"/>
-      <c r="G28" s="192"/>
-      <c r="H28" s="197"/>
-      <c r="I28" s="193"/>
-      <c r="J28" s="189"/>
-      <c r="K28" s="190"/>
-      <c r="L28" s="190"/>
-      <c r="M28" s="190"/>
-      <c r="N28" s="190"/>
-      <c r="O28" s="190"/>
-      <c r="P28" s="191"/>
-      <c r="Q28" s="186"/>
-      <c r="R28" s="187"/>
-      <c r="S28" s="187"/>
-      <c r="T28" s="187"/>
-      <c r="U28" s="187"/>
-      <c r="V28" s="187"/>
-      <c r="W28" s="187"/>
-      <c r="X28" s="187"/>
-      <c r="Y28" s="187"/>
-      <c r="Z28" s="187"/>
-      <c r="AA28" s="187"/>
-      <c r="AB28" s="187"/>
-      <c r="AC28" s="187"/>
-      <c r="AD28" s="187"/>
-      <c r="AE28" s="188"/>
-      <c r="AF28" s="189"/>
-      <c r="AG28" s="190"/>
-      <c r="AH28" s="190"/>
-      <c r="AI28" s="191"/>
-    </row>
-    <row r="29" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1">
+      <c r="B28" s="184"/>
+      <c r="C28" s="186"/>
+      <c r="D28" s="211"/>
+      <c r="E28" s="212"/>
+      <c r="F28" s="213"/>
+      <c r="G28" s="184"/>
+      <c r="H28" s="185"/>
+      <c r="I28" s="186"/>
+      <c r="J28" s="196"/>
+      <c r="K28" s="197"/>
+      <c r="L28" s="197"/>
+      <c r="M28" s="197"/>
+      <c r="N28" s="197"/>
+      <c r="O28" s="197"/>
+      <c r="P28" s="198"/>
+      <c r="Q28" s="193"/>
+      <c r="R28" s="194"/>
+      <c r="S28" s="194"/>
+      <c r="T28" s="194"/>
+      <c r="U28" s="194"/>
+      <c r="V28" s="194"/>
+      <c r="W28" s="194"/>
+      <c r="X28" s="194"/>
+      <c r="Y28" s="194"/>
+      <c r="Z28" s="194"/>
+      <c r="AA28" s="194"/>
+      <c r="AB28" s="194"/>
+      <c r="AC28" s="194"/>
+      <c r="AD28" s="194"/>
+      <c r="AE28" s="195"/>
+      <c r="AF28" s="196"/>
+      <c r="AG28" s="197"/>
+      <c r="AH28" s="197"/>
+      <c r="AI28" s="198"/>
+    </row>
+    <row r="29" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="30"/>
-      <c r="B29" s="192"/>
-      <c r="C29" s="193"/>
-      <c r="D29" s="194"/>
-      <c r="E29" s="195"/>
-      <c r="F29" s="196"/>
-      <c r="G29" s="192"/>
-      <c r="H29" s="197"/>
-      <c r="I29" s="193"/>
-      <c r="J29" s="189"/>
-      <c r="K29" s="190"/>
-      <c r="L29" s="190"/>
-      <c r="M29" s="190"/>
-      <c r="N29" s="190"/>
-      <c r="O29" s="190"/>
-      <c r="P29" s="191"/>
-      <c r="Q29" s="186"/>
-      <c r="R29" s="187"/>
-      <c r="S29" s="187"/>
-      <c r="T29" s="187"/>
-      <c r="U29" s="187"/>
-      <c r="V29" s="187"/>
-      <c r="W29" s="187"/>
-      <c r="X29" s="187"/>
-      <c r="Y29" s="187"/>
-      <c r="Z29" s="187"/>
-      <c r="AA29" s="187"/>
-      <c r="AB29" s="187"/>
-      <c r="AC29" s="187"/>
-      <c r="AD29" s="187"/>
-      <c r="AE29" s="188"/>
-      <c r="AF29" s="189"/>
-      <c r="AG29" s="190"/>
-      <c r="AH29" s="190"/>
-      <c r="AI29" s="191"/>
-    </row>
-    <row r="30" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1">
+      <c r="B29" s="184"/>
+      <c r="C29" s="186"/>
+      <c r="D29" s="211"/>
+      <c r="E29" s="212"/>
+      <c r="F29" s="213"/>
+      <c r="G29" s="184"/>
+      <c r="H29" s="185"/>
+      <c r="I29" s="186"/>
+      <c r="J29" s="196"/>
+      <c r="K29" s="197"/>
+      <c r="L29" s="197"/>
+      <c r="M29" s="197"/>
+      <c r="N29" s="197"/>
+      <c r="O29" s="197"/>
+      <c r="P29" s="198"/>
+      <c r="Q29" s="193"/>
+      <c r="R29" s="194"/>
+      <c r="S29" s="194"/>
+      <c r="T29" s="194"/>
+      <c r="U29" s="194"/>
+      <c r="V29" s="194"/>
+      <c r="W29" s="194"/>
+      <c r="X29" s="194"/>
+      <c r="Y29" s="194"/>
+      <c r="Z29" s="194"/>
+      <c r="AA29" s="194"/>
+      <c r="AB29" s="194"/>
+      <c r="AC29" s="194"/>
+      <c r="AD29" s="194"/>
+      <c r="AE29" s="195"/>
+      <c r="AF29" s="196"/>
+      <c r="AG29" s="197"/>
+      <c r="AH29" s="197"/>
+      <c r="AI29" s="198"/>
+    </row>
+    <row r="30" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="30"/>
-      <c r="B30" s="192"/>
-      <c r="C30" s="193"/>
-      <c r="D30" s="194"/>
-      <c r="E30" s="195"/>
-      <c r="F30" s="196"/>
-      <c r="G30" s="192"/>
-      <c r="H30" s="197"/>
-      <c r="I30" s="193"/>
-      <c r="J30" s="189"/>
-      <c r="K30" s="190"/>
-      <c r="L30" s="190"/>
-      <c r="M30" s="190"/>
-      <c r="N30" s="190"/>
-      <c r="O30" s="190"/>
-      <c r="P30" s="191"/>
-      <c r="Q30" s="186"/>
-      <c r="R30" s="187"/>
-      <c r="S30" s="187"/>
-      <c r="T30" s="187"/>
-      <c r="U30" s="187"/>
-      <c r="V30" s="187"/>
-      <c r="W30" s="187"/>
-      <c r="X30" s="187"/>
-      <c r="Y30" s="187"/>
-      <c r="Z30" s="187"/>
-      <c r="AA30" s="187"/>
-      <c r="AB30" s="187"/>
-      <c r="AC30" s="187"/>
-      <c r="AD30" s="187"/>
-      <c r="AE30" s="188"/>
-      <c r="AF30" s="189"/>
-      <c r="AG30" s="190"/>
-      <c r="AH30" s="190"/>
-      <c r="AI30" s="191"/>
-    </row>
-    <row r="31" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1">
+      <c r="B30" s="184"/>
+      <c r="C30" s="186"/>
+      <c r="D30" s="211"/>
+      <c r="E30" s="212"/>
+      <c r="F30" s="213"/>
+      <c r="G30" s="184"/>
+      <c r="H30" s="185"/>
+      <c r="I30" s="186"/>
+      <c r="J30" s="196"/>
+      <c r="K30" s="197"/>
+      <c r="L30" s="197"/>
+      <c r="M30" s="197"/>
+      <c r="N30" s="197"/>
+      <c r="O30" s="197"/>
+      <c r="P30" s="198"/>
+      <c r="Q30" s="193"/>
+      <c r="R30" s="194"/>
+      <c r="S30" s="194"/>
+      <c r="T30" s="194"/>
+      <c r="U30" s="194"/>
+      <c r="V30" s="194"/>
+      <c r="W30" s="194"/>
+      <c r="X30" s="194"/>
+      <c r="Y30" s="194"/>
+      <c r="Z30" s="194"/>
+      <c r="AA30" s="194"/>
+      <c r="AB30" s="194"/>
+      <c r="AC30" s="194"/>
+      <c r="AD30" s="194"/>
+      <c r="AE30" s="195"/>
+      <c r="AF30" s="196"/>
+      <c r="AG30" s="197"/>
+      <c r="AH30" s="197"/>
+      <c r="AI30" s="198"/>
+    </row>
+    <row r="31" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="30"/>
-      <c r="B31" s="192"/>
-      <c r="C31" s="193"/>
-      <c r="D31" s="194"/>
-      <c r="E31" s="195"/>
-      <c r="F31" s="196"/>
-      <c r="G31" s="192"/>
-      <c r="H31" s="197"/>
-      <c r="I31" s="193"/>
-      <c r="J31" s="189"/>
-      <c r="K31" s="190"/>
-      <c r="L31" s="190"/>
-      <c r="M31" s="190"/>
-      <c r="N31" s="190"/>
-      <c r="O31" s="190"/>
-      <c r="P31" s="191"/>
-      <c r="Q31" s="186"/>
-      <c r="R31" s="187"/>
-      <c r="S31" s="187"/>
-      <c r="T31" s="187"/>
-      <c r="U31" s="187"/>
-      <c r="V31" s="187"/>
-      <c r="W31" s="187"/>
-      <c r="X31" s="187"/>
-      <c r="Y31" s="187"/>
-      <c r="Z31" s="187"/>
-      <c r="AA31" s="187"/>
-      <c r="AB31" s="187"/>
-      <c r="AC31" s="187"/>
-      <c r="AD31" s="187"/>
-      <c r="AE31" s="188"/>
-      <c r="AF31" s="189"/>
-      <c r="AG31" s="190"/>
-      <c r="AH31" s="190"/>
-      <c r="AI31" s="191"/>
-    </row>
-    <row r="32" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1">
+      <c r="B31" s="184"/>
+      <c r="C31" s="186"/>
+      <c r="D31" s="211"/>
+      <c r="E31" s="212"/>
+      <c r="F31" s="213"/>
+      <c r="G31" s="184"/>
+      <c r="H31" s="185"/>
+      <c r="I31" s="186"/>
+      <c r="J31" s="196"/>
+      <c r="K31" s="197"/>
+      <c r="L31" s="197"/>
+      <c r="M31" s="197"/>
+      <c r="N31" s="197"/>
+      <c r="O31" s="197"/>
+      <c r="P31" s="198"/>
+      <c r="Q31" s="193"/>
+      <c r="R31" s="194"/>
+      <c r="S31" s="194"/>
+      <c r="T31" s="194"/>
+      <c r="U31" s="194"/>
+      <c r="V31" s="194"/>
+      <c r="W31" s="194"/>
+      <c r="X31" s="194"/>
+      <c r="Y31" s="194"/>
+      <c r="Z31" s="194"/>
+      <c r="AA31" s="194"/>
+      <c r="AB31" s="194"/>
+      <c r="AC31" s="194"/>
+      <c r="AD31" s="194"/>
+      <c r="AE31" s="195"/>
+      <c r="AF31" s="196"/>
+      <c r="AG31" s="197"/>
+      <c r="AH31" s="197"/>
+      <c r="AI31" s="198"/>
+    </row>
+    <row r="32" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="30"/>
-      <c r="B32" s="192"/>
-      <c r="C32" s="193"/>
-      <c r="D32" s="194"/>
-      <c r="E32" s="195"/>
-      <c r="F32" s="196"/>
-      <c r="G32" s="192"/>
-      <c r="H32" s="197"/>
-      <c r="I32" s="193"/>
-      <c r="J32" s="189"/>
-      <c r="K32" s="190"/>
-      <c r="L32" s="190"/>
-      <c r="M32" s="190"/>
-      <c r="N32" s="190"/>
-      <c r="O32" s="190"/>
-      <c r="P32" s="191"/>
-      <c r="Q32" s="186"/>
-      <c r="R32" s="187"/>
-      <c r="S32" s="187"/>
-      <c r="T32" s="187"/>
-      <c r="U32" s="187"/>
-      <c r="V32" s="187"/>
-      <c r="W32" s="187"/>
-      <c r="X32" s="187"/>
-      <c r="Y32" s="187"/>
-      <c r="Z32" s="187"/>
-      <c r="AA32" s="187"/>
-      <c r="AB32" s="187"/>
-      <c r="AC32" s="187"/>
-      <c r="AD32" s="187"/>
-      <c r="AE32" s="188"/>
-      <c r="AF32" s="189"/>
-      <c r="AG32" s="190"/>
-      <c r="AH32" s="190"/>
-      <c r="AI32" s="191"/>
-    </row>
-    <row r="33" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1">
+      <c r="B32" s="184"/>
+      <c r="C32" s="186"/>
+      <c r="D32" s="211"/>
+      <c r="E32" s="212"/>
+      <c r="F32" s="213"/>
+      <c r="G32" s="184"/>
+      <c r="H32" s="185"/>
+      <c r="I32" s="186"/>
+      <c r="J32" s="196"/>
+      <c r="K32" s="197"/>
+      <c r="L32" s="197"/>
+      <c r="M32" s="197"/>
+      <c r="N32" s="197"/>
+      <c r="O32" s="197"/>
+      <c r="P32" s="198"/>
+      <c r="Q32" s="193"/>
+      <c r="R32" s="194"/>
+      <c r="S32" s="194"/>
+      <c r="T32" s="194"/>
+      <c r="U32" s="194"/>
+      <c r="V32" s="194"/>
+      <c r="W32" s="194"/>
+      <c r="X32" s="194"/>
+      <c r="Y32" s="194"/>
+      <c r="Z32" s="194"/>
+      <c r="AA32" s="194"/>
+      <c r="AB32" s="194"/>
+      <c r="AC32" s="194"/>
+      <c r="AD32" s="194"/>
+      <c r="AE32" s="195"/>
+      <c r="AF32" s="196"/>
+      <c r="AG32" s="197"/>
+      <c r="AH32" s="197"/>
+      <c r="AI32" s="198"/>
+    </row>
+    <row r="33" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="30"/>
-      <c r="B33" s="192"/>
-      <c r="C33" s="193"/>
-      <c r="D33" s="194"/>
-      <c r="E33" s="195"/>
-      <c r="F33" s="196"/>
-      <c r="G33" s="192"/>
-      <c r="H33" s="197"/>
-      <c r="I33" s="193"/>
-      <c r="J33" s="189"/>
-      <c r="K33" s="190"/>
-      <c r="L33" s="190"/>
-      <c r="M33" s="190"/>
-      <c r="N33" s="190"/>
-      <c r="O33" s="190"/>
-      <c r="P33" s="191"/>
-      <c r="Q33" s="186"/>
-      <c r="R33" s="187"/>
-      <c r="S33" s="187"/>
-      <c r="T33" s="187"/>
-      <c r="U33" s="187"/>
-      <c r="V33" s="187"/>
-      <c r="W33" s="187"/>
-      <c r="X33" s="187"/>
-      <c r="Y33" s="187"/>
-      <c r="Z33" s="187"/>
-      <c r="AA33" s="187"/>
-      <c r="AB33" s="187"/>
-      <c r="AC33" s="187"/>
-      <c r="AD33" s="187"/>
-      <c r="AE33" s="188"/>
-      <c r="AF33" s="189"/>
-      <c r="AG33" s="190"/>
-      <c r="AH33" s="190"/>
-      <c r="AI33" s="191"/>
-    </row>
-    <row r="34" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1">
+      <c r="B33" s="184"/>
+      <c r="C33" s="186"/>
+      <c r="D33" s="211"/>
+      <c r="E33" s="212"/>
+      <c r="F33" s="213"/>
+      <c r="G33" s="184"/>
+      <c r="H33" s="185"/>
+      <c r="I33" s="186"/>
+      <c r="J33" s="196"/>
+      <c r="K33" s="197"/>
+      <c r="L33" s="197"/>
+      <c r="M33" s="197"/>
+      <c r="N33" s="197"/>
+      <c r="O33" s="197"/>
+      <c r="P33" s="198"/>
+      <c r="Q33" s="193"/>
+      <c r="R33" s="194"/>
+      <c r="S33" s="194"/>
+      <c r="T33" s="194"/>
+      <c r="U33" s="194"/>
+      <c r="V33" s="194"/>
+      <c r="W33" s="194"/>
+      <c r="X33" s="194"/>
+      <c r="Y33" s="194"/>
+      <c r="Z33" s="194"/>
+      <c r="AA33" s="194"/>
+      <c r="AB33" s="194"/>
+      <c r="AC33" s="194"/>
+      <c r="AD33" s="194"/>
+      <c r="AE33" s="195"/>
+      <c r="AF33" s="196"/>
+      <c r="AG33" s="197"/>
+      <c r="AH33" s="197"/>
+      <c r="AI33" s="198"/>
+    </row>
+    <row r="34" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="26"/>
       <c r="B34" s="26"/>
       <c r="C34" s="26"/>
@@ -5443,161 +5335,6 @@
     </row>
   </sheetData>
   <mergeCells count="179">
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="Q7:AE7"/>
-    <mergeCell ref="AF7:AI7"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="J7:P7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A3:D3"/>
@@ -5622,6 +5359,161 @@
     <mergeCell ref="AF22:AI22"/>
     <mergeCell ref="J23:P23"/>
     <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="J7:P7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="Q7:AE7"/>
+    <mergeCell ref="AF7:AI7"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="S1:Z3"/>
   </mergeCells>
   <phoneticPr fontId="14"/>
   <printOptions horizontalCentered="1"/>
@@ -5631,7 +5523,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet4">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -5641,7 +5533,7 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16" width="4.83203125" style="49" customWidth="1"/>
     <col min="17" max="17" width="4.83203125" style="57" customWidth="1"/>
@@ -5776,161 +5668,161 @@
     <col min="16163" max="16384" width="4.83203125" style="49"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="37" customFormat="1" ht="12" hidden="1">
-      <c r="A1" s="234" t="s">
+    <row r="1" spans="1:35" s="37" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="243" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="235"/>
-      <c r="C1" s="235"/>
-      <c r="D1" s="236"/>
-      <c r="E1" s="255" t="str">
+      <c r="B1" s="244"/>
+      <c r="C1" s="244"/>
+      <c r="D1" s="245"/>
+      <c r="E1" s="240" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="256"/>
-      <c r="G1" s="256"/>
-      <c r="H1" s="256"/>
-      <c r="I1" s="256"/>
-      <c r="J1" s="256"/>
-      <c r="K1" s="256"/>
-      <c r="L1" s="256"/>
-      <c r="M1" s="256"/>
-      <c r="N1" s="257"/>
-      <c r="O1" s="237" t="s">
+      <c r="F1" s="241"/>
+      <c r="G1" s="241"/>
+      <c r="H1" s="241"/>
+      <c r="I1" s="241"/>
+      <c r="J1" s="241"/>
+      <c r="K1" s="241"/>
+      <c r="L1" s="241"/>
+      <c r="M1" s="241"/>
+      <c r="N1" s="242"/>
+      <c r="O1" s="246" t="s">
         <v>1</v>
       </c>
-      <c r="P1" s="238"/>
-      <c r="Q1" s="238"/>
-      <c r="R1" s="239"/>
-      <c r="S1" s="246" t="str">
+      <c r="P1" s="247"/>
+      <c r="Q1" s="247"/>
+      <c r="R1" s="248"/>
+      <c r="S1" s="255" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>システム機能設計書（画面）
 WA10101/ログイン</v>
       </c>
-      <c r="T1" s="247"/>
-      <c r="U1" s="247"/>
-      <c r="V1" s="247"/>
-      <c r="W1" s="247"/>
-      <c r="X1" s="247"/>
-      <c r="Y1" s="247"/>
-      <c r="Z1" s="248"/>
-      <c r="AA1" s="234" t="s">
+      <c r="T1" s="256"/>
+      <c r="U1" s="256"/>
+      <c r="V1" s="256"/>
+      <c r="W1" s="256"/>
+      <c r="X1" s="256"/>
+      <c r="Y1" s="256"/>
+      <c r="Z1" s="257"/>
+      <c r="AA1" s="243" t="s">
         <v>2</v>
       </c>
-      <c r="AB1" s="236"/>
-      <c r="AC1" s="258" t="str">
+      <c r="AB1" s="245"/>
+      <c r="AC1" s="234" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="259"/>
-      <c r="AE1" s="259"/>
-      <c r="AF1" s="260"/>
-      <c r="AG1" s="261">
+      <c r="AD1" s="235"/>
+      <c r="AE1" s="235"/>
+      <c r="AF1" s="236"/>
+      <c r="AG1" s="237">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43656</v>
       </c>
-      <c r="AH1" s="262"/>
-      <c r="AI1" s="263"/>
-    </row>
-    <row r="2" spans="1:35" s="37" customFormat="1" ht="12" hidden="1">
-      <c r="A2" s="234" t="s">
+      <c r="AH1" s="238"/>
+      <c r="AI1" s="239"/>
+    </row>
+    <row r="2" spans="1:35" s="37" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="243" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="235"/>
-      <c r="C2" s="235"/>
-      <c r="D2" s="236"/>
-      <c r="E2" s="255" t="str">
+      <c r="B2" s="244"/>
+      <c r="C2" s="244"/>
+      <c r="D2" s="245"/>
+      <c r="E2" s="240" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="256"/>
-      <c r="G2" s="256"/>
-      <c r="H2" s="256"/>
-      <c r="I2" s="256"/>
-      <c r="J2" s="256"/>
-      <c r="K2" s="256"/>
-      <c r="L2" s="256"/>
-      <c r="M2" s="256"/>
-      <c r="N2" s="257"/>
-      <c r="O2" s="240"/>
-      <c r="P2" s="241"/>
-      <c r="Q2" s="241"/>
-      <c r="R2" s="242"/>
-      <c r="S2" s="249"/>
-      <c r="T2" s="250"/>
-      <c r="U2" s="250"/>
-      <c r="V2" s="250"/>
-      <c r="W2" s="250"/>
-      <c r="X2" s="250"/>
-      <c r="Y2" s="250"/>
-      <c r="Z2" s="251"/>
-      <c r="AA2" s="234" t="s">
+      <c r="F2" s="241"/>
+      <c r="G2" s="241"/>
+      <c r="H2" s="241"/>
+      <c r="I2" s="241"/>
+      <c r="J2" s="241"/>
+      <c r="K2" s="241"/>
+      <c r="L2" s="241"/>
+      <c r="M2" s="241"/>
+      <c r="N2" s="242"/>
+      <c r="O2" s="249"/>
+      <c r="P2" s="250"/>
+      <c r="Q2" s="250"/>
+      <c r="R2" s="251"/>
+      <c r="S2" s="258"/>
+      <c r="T2" s="259"/>
+      <c r="U2" s="259"/>
+      <c r="V2" s="259"/>
+      <c r="W2" s="259"/>
+      <c r="X2" s="259"/>
+      <c r="Y2" s="259"/>
+      <c r="Z2" s="260"/>
+      <c r="AA2" s="243" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="236"/>
-      <c r="AC2" s="258" t="str">
+      <c r="AB2" s="245"/>
+      <c r="AC2" s="234" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="259"/>
-      <c r="AE2" s="259"/>
-      <c r="AF2" s="260"/>
-      <c r="AG2" s="261" t="str">
+      <c r="AD2" s="235"/>
+      <c r="AE2" s="235"/>
+      <c r="AF2" s="236"/>
+      <c r="AG2" s="237" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="262"/>
-      <c r="AI2" s="263"/>
-    </row>
-    <row r="3" spans="1:35" s="37" customFormat="1" ht="12" hidden="1">
-      <c r="A3" s="234" t="s">
+      <c r="AH2" s="238"/>
+      <c r="AI2" s="239"/>
+    </row>
+    <row r="3" spans="1:35" s="37" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="243" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="235"/>
-      <c r="C3" s="235"/>
-      <c r="D3" s="236"/>
-      <c r="E3" s="255" t="str">
+      <c r="B3" s="244"/>
+      <c r="C3" s="244"/>
+      <c r="D3" s="245"/>
+      <c r="E3" s="240" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="256"/>
-      <c r="G3" s="256"/>
-      <c r="H3" s="256"/>
-      <c r="I3" s="256"/>
-      <c r="J3" s="256"/>
-      <c r="K3" s="256"/>
-      <c r="L3" s="256"/>
-      <c r="M3" s="256"/>
-      <c r="N3" s="257"/>
-      <c r="O3" s="243"/>
-      <c r="P3" s="244"/>
-      <c r="Q3" s="244"/>
-      <c r="R3" s="245"/>
-      <c r="S3" s="252"/>
-      <c r="T3" s="253"/>
-      <c r="U3" s="253"/>
-      <c r="V3" s="253"/>
-      <c r="W3" s="253"/>
-      <c r="X3" s="253"/>
-      <c r="Y3" s="253"/>
-      <c r="Z3" s="254"/>
-      <c r="AA3" s="234"/>
-      <c r="AB3" s="236"/>
-      <c r="AC3" s="258" t="str">
+      <c r="F3" s="241"/>
+      <c r="G3" s="241"/>
+      <c r="H3" s="241"/>
+      <c r="I3" s="241"/>
+      <c r="J3" s="241"/>
+      <c r="K3" s="241"/>
+      <c r="L3" s="241"/>
+      <c r="M3" s="241"/>
+      <c r="N3" s="242"/>
+      <c r="O3" s="252"/>
+      <c r="P3" s="253"/>
+      <c r="Q3" s="253"/>
+      <c r="R3" s="254"/>
+      <c r="S3" s="261"/>
+      <c r="T3" s="262"/>
+      <c r="U3" s="262"/>
+      <c r="V3" s="262"/>
+      <c r="W3" s="262"/>
+      <c r="X3" s="262"/>
+      <c r="Y3" s="262"/>
+      <c r="Z3" s="263"/>
+      <c r="AA3" s="243"/>
+      <c r="AB3" s="245"/>
+      <c r="AC3" s="234" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="259"/>
-      <c r="AE3" s="259"/>
-      <c r="AF3" s="260"/>
-      <c r="AG3" s="261" t="str">
+      <c r="AD3" s="235"/>
+      <c r="AE3" s="235"/>
+      <c r="AF3" s="236"/>
+      <c r="AG3" s="237" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="262"/>
-      <c r="AI3" s="263"/>
-    </row>
-    <row r="4" spans="1:35" s="40" customFormat="1" ht="19.5" customHeight="1">
+      <c r="AH3" s="238"/>
+      <c r="AI3" s="239"/>
+    </row>
+    <row r="4" spans="1:35" s="40" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="38"/>
       <c r="B4" s="38"/>
       <c r="C4" s="38"/>
@@ -5967,7 +5859,7 @@
       <c r="AH4" s="38"/>
       <c r="AI4" s="38"/>
     </row>
-    <row r="5" spans="1:35" s="40" customFormat="1" ht="15" customHeight="1">
+    <row r="5" spans="1:35" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="38"/>
       <c r="B5" s="38"/>
       <c r="C5" s="38"/>
@@ -6006,7 +5898,7 @@
       <c r="AH5" s="38"/>
       <c r="AI5" s="38"/>
     </row>
-    <row r="6" spans="1:35" s="40" customFormat="1" ht="15" customHeight="1">
+    <row r="6" spans="1:35" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="38"/>
       <c r="B6" s="38"/>
       <c r="C6" s="38"/>
@@ -6043,7 +5935,7 @@
       <c r="AH6" s="38"/>
       <c r="AI6" s="38"/>
     </row>
-    <row r="7" spans="1:35" ht="15" customHeight="1">
+    <row r="7" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="42"/>
       <c r="B7" s="43" t="s">
         <v>170</v>
@@ -6082,7 +5974,7 @@
       <c r="AH7" s="47"/>
       <c r="AI7" s="48"/>
     </row>
-    <row r="8" spans="1:35" ht="15" customHeight="1">
+    <row r="8" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="42"/>
       <c r="B8" s="43"/>
       <c r="C8" s="43" t="s">
@@ -6121,7 +6013,7 @@
       <c r="AH8" s="51"/>
       <c r="AI8" s="48"/>
     </row>
-    <row r="9" spans="1:35" ht="15" customHeight="1">
+    <row r="9" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="42"/>
       <c r="B9" s="44"/>
       <c r="C9" s="43"/>
@@ -6158,7 +6050,7 @@
       <c r="AH9" s="52"/>
       <c r="AI9" s="42"/>
     </row>
-    <row r="10" spans="1:35" ht="15" customHeight="1">
+    <row r="10" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="42"/>
       <c r="B10" s="53" t="s">
         <v>43</v>
@@ -6197,7 +6089,7 @@
       <c r="AH10" s="47"/>
       <c r="AI10" s="48"/>
     </row>
-    <row r="11" spans="1:35" ht="15" customHeight="1">
+    <row r="11" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="42"/>
       <c r="B11" s="44"/>
       <c r="C11" s="53" t="s">
@@ -6236,7 +6128,7 @@
       <c r="AH11" s="47"/>
       <c r="AI11" s="48"/>
     </row>
-    <row r="12" spans="1:35" ht="15" customHeight="1">
+    <row r="12" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="42"/>
       <c r="B12" s="44"/>
       <c r="C12" s="42" t="s">
@@ -6270,7 +6162,7 @@
       <c r="AH12" s="47"/>
       <c r="AI12" s="48"/>
     </row>
-    <row r="13" spans="1:35" ht="15" customHeight="1">
+    <row r="13" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="42"/>
       <c r="B13" s="48"/>
       <c r="C13" s="54" t="s">
@@ -6309,7 +6201,7 @@
       <c r="AH13" s="47"/>
       <c r="AI13" s="48"/>
     </row>
-    <row r="14" spans="1:35" ht="15" customHeight="1">
+    <row r="14" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="42"/>
       <c r="B14" s="53"/>
       <c r="C14" s="54" t="s">
@@ -6348,7 +6240,7 @@
       <c r="AH14" s="47"/>
       <c r="AI14" s="48"/>
     </row>
-    <row r="15" spans="1:35" ht="15" customHeight="1">
+    <row r="15" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="42"/>
       <c r="B15" s="53"/>
       <c r="C15" s="54" t="s">
@@ -6383,7 +6275,7 @@
       <c r="AH15" s="47"/>
       <c r="AI15" s="48"/>
     </row>
-    <row r="16" spans="1:35" ht="15" customHeight="1">
+    <row r="16" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="42"/>
       <c r="B16" s="38"/>
       <c r="C16" s="42" t="s">
@@ -6422,7 +6314,7 @@
       <c r="AH16" s="47"/>
       <c r="AI16" s="48"/>
     </row>
-    <row r="17" spans="1:35" ht="15" customHeight="1">
+    <row r="17" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="42"/>
       <c r="B17" s="38"/>
       <c r="C17" s="56"/>
@@ -6458,7 +6350,7 @@
       <c r="AH17" s="47"/>
       <c r="AI17" s="48"/>
     </row>
-    <row r="18" spans="1:35" ht="15" customHeight="1">
+    <row r="18" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="58"/>
       <c r="B18" s="58"/>
       <c r="C18" s="58"/>
@@ -6495,7 +6387,7 @@
       <c r="AH18" s="64"/>
       <c r="AI18" s="65"/>
     </row>
-    <row r="19" spans="1:35" ht="15" customHeight="1">
+    <row r="19" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="66"/>
       <c r="E19" s="66"/>
       <c r="F19" s="66"/>
@@ -6529,7 +6421,7 @@
       <c r="AH19" s="64"/>
       <c r="AI19" s="65"/>
     </row>
-    <row r="20" spans="1:35" ht="15" customHeight="1">
+    <row r="20" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J20" s="66"/>
       <c r="K20" s="59"/>
       <c r="L20" s="59"/>
@@ -6557,7 +6449,7 @@
       <c r="AH20" s="64"/>
       <c r="AI20" s="65"/>
     </row>
-    <row r="21" spans="1:35" ht="15" customHeight="1">
+    <row r="21" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K21" s="58"/>
       <c r="L21" s="58"/>
       <c r="M21" s="58"/>
@@ -6584,7 +6476,7 @@
       <c r="AH21" s="69"/>
       <c r="AI21" s="58"/>
     </row>
-    <row r="22" spans="1:35" ht="15" customHeight="1">
+    <row r="22" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K22" s="66"/>
       <c r="L22" s="66"/>
       <c r="M22" s="66"/>
@@ -6609,7 +6501,7 @@
       <c r="AH22" s="75"/>
       <c r="AI22" s="71"/>
     </row>
-    <row r="23" spans="1:35" ht="15" customHeight="1">
+    <row r="23" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="S23" s="71"/>
       <c r="T23" s="71"/>
       <c r="U23" s="72"/>
@@ -6628,7 +6520,7 @@
       <c r="AH23" s="78"/>
       <c r="AI23" s="71"/>
     </row>
-    <row r="24" spans="1:35" ht="15" customHeight="1">
+    <row r="24" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="J24" s="66"/>
       <c r="Q24" s="79"/>
       <c r="S24" s="71"/>
@@ -6649,7 +6541,7 @@
       <c r="AH24" s="78"/>
       <c r="AI24" s="71"/>
     </row>
-    <row r="25" spans="1:35" ht="15" customHeight="1">
+    <row r="25" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="S25" s="71"/>
       <c r="T25" s="71"/>
       <c r="U25" s="71"/>
@@ -6668,7 +6560,7 @@
       <c r="AH25" s="78"/>
       <c r="AI25" s="71"/>
     </row>
-    <row r="26" spans="1:35" ht="15" customHeight="1">
+    <row r="26" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="66"/>
       <c r="K26" s="66"/>
       <c r="L26" s="66"/>
@@ -6682,7 +6574,7 @@
       <c r="AH26" s="78"/>
       <c r="AI26" s="71"/>
     </row>
-    <row r="27" spans="1:35" ht="15" customHeight="1">
+    <row r="27" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="66"/>
       <c r="AE27" s="71"/>
       <c r="AF27" s="76"/>
@@ -6690,28 +6582,28 @@
       <c r="AH27" s="78"/>
       <c r="AI27" s="71"/>
     </row>
-    <row r="28" spans="1:35" ht="15" customHeight="1">
+    <row r="28" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AE28" s="71"/>
       <c r="AF28" s="76"/>
       <c r="AG28" s="76"/>
       <c r="AH28" s="78"/>
       <c r="AI28" s="71"/>
     </row>
-    <row r="29" spans="1:35" ht="15" customHeight="1">
+    <row r="29" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AF29" s="80"/>
       <c r="AG29" s="80"/>
     </row>
-    <row r="30" spans="1:35" ht="15" customHeight="1">
+    <row r="30" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AG30" s="80"/>
     </row>
-    <row r="31" spans="1:35" ht="15" customHeight="1">
+    <row r="31" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AF31" s="80"/>
       <c r="AG31" s="80"/>
     </row>
-    <row r="32" spans="1:35" ht="15" customHeight="1">
+    <row r="32" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AG32" s="80"/>
     </row>
-    <row r="33" spans="1:34" ht="15" customHeight="1">
+    <row r="33" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="S33" s="66"/>
       <c r="T33" s="66"/>
       <c r="V33" s="66"/>
@@ -6724,7 +6616,7 @@
       <c r="AC33" s="66"/>
       <c r="AD33" s="66"/>
     </row>
-    <row r="34" spans="1:34" ht="15" customHeight="1">
+    <row r="34" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="R34" s="66"/>
       <c r="S34" s="66"/>
       <c r="T34" s="66"/>
@@ -6739,10 +6631,10 @@
       <c r="AD34" s="66"/>
       <c r="AG34" s="80"/>
     </row>
-    <row r="35" spans="1:34" ht="15" customHeight="1">
+    <row r="35" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="R35" s="66"/>
     </row>
-    <row r="36" spans="1:34" s="66" customFormat="1" ht="15" customHeight="1">
+    <row r="36" spans="1:34" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="49"/>
       <c r="B36" s="49"/>
       <c r="C36" s="49"/>
@@ -6775,7 +6667,7 @@
       <c r="AD36" s="49"/>
       <c r="AH36" s="79"/>
     </row>
-    <row r="37" spans="1:34" s="66" customFormat="1" ht="15" customHeight="1">
+    <row r="37" spans="1:34" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="49"/>
       <c r="B37" s="49"/>
       <c r="C37" s="49"/>
@@ -6810,14 +6702,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="O1:R3"/>
     <mergeCell ref="S1:Z3"/>
@@ -6827,198 +6711,205 @@
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet5">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AI52"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="16384" width="4.83203125" style="54"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="37" customFormat="1" hidden="1">
-      <c r="A1" s="234" t="s">
+    <row r="1" spans="1:35" s="37" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="243" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="235"/>
-      <c r="C1" s="235"/>
-      <c r="D1" s="236"/>
-      <c r="E1" s="255" t="str">
+      <c r="B1" s="244"/>
+      <c r="C1" s="244"/>
+      <c r="D1" s="245"/>
+      <c r="E1" s="240" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="256"/>
-      <c r="G1" s="256"/>
-      <c r="H1" s="256"/>
-      <c r="I1" s="256"/>
-      <c r="J1" s="256"/>
-      <c r="K1" s="256"/>
-      <c r="L1" s="256"/>
-      <c r="M1" s="256"/>
-      <c r="N1" s="257"/>
-      <c r="O1" s="237" t="s">
+      <c r="F1" s="241"/>
+      <c r="G1" s="241"/>
+      <c r="H1" s="241"/>
+      <c r="I1" s="241"/>
+      <c r="J1" s="241"/>
+      <c r="K1" s="241"/>
+      <c r="L1" s="241"/>
+      <c r="M1" s="241"/>
+      <c r="N1" s="242"/>
+      <c r="O1" s="246" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="238"/>
-      <c r="Q1" s="238"/>
-      <c r="R1" s="239"/>
-      <c r="S1" s="246" t="str">
+      <c r="P1" s="247"/>
+      <c r="Q1" s="247"/>
+      <c r="R1" s="248"/>
+      <c r="S1" s="255" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>システム機能設計書（画面）
 WA10101/ログイン</v>
       </c>
-      <c r="T1" s="247"/>
-      <c r="U1" s="247"/>
-      <c r="V1" s="247"/>
-      <c r="W1" s="247"/>
-      <c r="X1" s="247"/>
-      <c r="Y1" s="247"/>
-      <c r="Z1" s="248"/>
-      <c r="AA1" s="234" t="s">
+      <c r="T1" s="256"/>
+      <c r="U1" s="256"/>
+      <c r="V1" s="256"/>
+      <c r="W1" s="256"/>
+      <c r="X1" s="256"/>
+      <c r="Y1" s="256"/>
+      <c r="Z1" s="257"/>
+      <c r="AA1" s="243" t="s">
         <v>8</v>
       </c>
-      <c r="AB1" s="236"/>
-      <c r="AC1" s="258" t="str">
+      <c r="AB1" s="245"/>
+      <c r="AC1" s="234" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="259"/>
-      <c r="AE1" s="259"/>
-      <c r="AF1" s="260"/>
-      <c r="AG1" s="261">
+      <c r="AD1" s="235"/>
+      <c r="AE1" s="235"/>
+      <c r="AF1" s="236"/>
+      <c r="AG1" s="237">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43656</v>
       </c>
-      <c r="AH1" s="262"/>
-      <c r="AI1" s="263"/>
-    </row>
-    <row r="2" spans="1:35" s="37" customFormat="1" hidden="1">
-      <c r="A2" s="234" t="s">
+      <c r="AH1" s="238"/>
+      <c r="AI1" s="239"/>
+    </row>
+    <row r="2" spans="1:35" s="37" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="243" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="235"/>
-      <c r="C2" s="235"/>
-      <c r="D2" s="236"/>
-      <c r="E2" s="255" t="str">
+      <c r="B2" s="244"/>
+      <c r="C2" s="244"/>
+      <c r="D2" s="245"/>
+      <c r="E2" s="240" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="256"/>
-      <c r="G2" s="256"/>
-      <c r="H2" s="256"/>
-      <c r="I2" s="256"/>
-      <c r="J2" s="256"/>
-      <c r="K2" s="256"/>
-      <c r="L2" s="256"/>
-      <c r="M2" s="256"/>
-      <c r="N2" s="257"/>
-      <c r="O2" s="240"/>
-      <c r="P2" s="241"/>
-      <c r="Q2" s="241"/>
-      <c r="R2" s="242"/>
-      <c r="S2" s="249"/>
-      <c r="T2" s="250"/>
-      <c r="U2" s="250"/>
-      <c r="V2" s="250"/>
-      <c r="W2" s="250"/>
-      <c r="X2" s="250"/>
-      <c r="Y2" s="250"/>
-      <c r="Z2" s="251"/>
-      <c r="AA2" s="234" t="s">
+      <c r="F2" s="241"/>
+      <c r="G2" s="241"/>
+      <c r="H2" s="241"/>
+      <c r="I2" s="241"/>
+      <c r="J2" s="241"/>
+      <c r="K2" s="241"/>
+      <c r="L2" s="241"/>
+      <c r="M2" s="241"/>
+      <c r="N2" s="242"/>
+      <c r="O2" s="249"/>
+      <c r="P2" s="250"/>
+      <c r="Q2" s="250"/>
+      <c r="R2" s="251"/>
+      <c r="S2" s="258"/>
+      <c r="T2" s="259"/>
+      <c r="U2" s="259"/>
+      <c r="V2" s="259"/>
+      <c r="W2" s="259"/>
+      <c r="X2" s="259"/>
+      <c r="Y2" s="259"/>
+      <c r="Z2" s="260"/>
+      <c r="AA2" s="243" t="s">
         <v>10</v>
       </c>
-      <c r="AB2" s="236"/>
-      <c r="AC2" s="258" t="str">
+      <c r="AB2" s="245"/>
+      <c r="AC2" s="234" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="259"/>
-      <c r="AE2" s="259"/>
-      <c r="AF2" s="260"/>
-      <c r="AG2" s="261" t="str">
+      <c r="AD2" s="235"/>
+      <c r="AE2" s="235"/>
+      <c r="AF2" s="236"/>
+      <c r="AG2" s="237" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="262"/>
-      <c r="AI2" s="263"/>
-    </row>
-    <row r="3" spans="1:35" s="37" customFormat="1" hidden="1">
-      <c r="A3" s="234" t="s">
+      <c r="AH2" s="238"/>
+      <c r="AI2" s="239"/>
+    </row>
+    <row r="3" spans="1:35" s="37" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="243" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="235"/>
-      <c r="C3" s="235"/>
-      <c r="D3" s="236"/>
-      <c r="E3" s="255" t="str">
+      <c r="B3" s="244"/>
+      <c r="C3" s="244"/>
+      <c r="D3" s="245"/>
+      <c r="E3" s="240" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="256"/>
-      <c r="G3" s="256"/>
-      <c r="H3" s="256"/>
-      <c r="I3" s="256"/>
-      <c r="J3" s="256"/>
-      <c r="K3" s="256"/>
-      <c r="L3" s="256"/>
-      <c r="M3" s="256"/>
-      <c r="N3" s="257"/>
-      <c r="O3" s="243"/>
-      <c r="P3" s="244"/>
-      <c r="Q3" s="244"/>
-      <c r="R3" s="245"/>
-      <c r="S3" s="252"/>
-      <c r="T3" s="253"/>
-      <c r="U3" s="253"/>
-      <c r="V3" s="253"/>
-      <c r="W3" s="253"/>
-      <c r="X3" s="253"/>
-      <c r="Y3" s="253"/>
-      <c r="Z3" s="254"/>
-      <c r="AA3" s="234"/>
-      <c r="AB3" s="236"/>
-      <c r="AC3" s="258" t="str">
+      <c r="F3" s="241"/>
+      <c r="G3" s="241"/>
+      <c r="H3" s="241"/>
+      <c r="I3" s="241"/>
+      <c r="J3" s="241"/>
+      <c r="K3" s="241"/>
+      <c r="L3" s="241"/>
+      <c r="M3" s="241"/>
+      <c r="N3" s="242"/>
+      <c r="O3" s="252"/>
+      <c r="P3" s="253"/>
+      <c r="Q3" s="253"/>
+      <c r="R3" s="254"/>
+      <c r="S3" s="261"/>
+      <c r="T3" s="262"/>
+      <c r="U3" s="262"/>
+      <c r="V3" s="262"/>
+      <c r="W3" s="262"/>
+      <c r="X3" s="262"/>
+      <c r="Y3" s="262"/>
+      <c r="Z3" s="263"/>
+      <c r="AA3" s="243"/>
+      <c r="AB3" s="245"/>
+      <c r="AC3" s="234" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="259"/>
-      <c r="AE3" s="259"/>
-      <c r="AF3" s="260"/>
-      <c r="AG3" s="261" t="str">
+      <c r="AD3" s="235"/>
+      <c r="AE3" s="235"/>
+      <c r="AF3" s="236"/>
+      <c r="AG3" s="237" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="262"/>
-      <c r="AI3" s="263"/>
-    </row>
-    <row r="4" spans="1:35" ht="12" customHeight="1"/>
-    <row r="5" spans="1:35" s="58" customFormat="1" ht="12" customHeight="1">
+      <c r="AH3" s="238"/>
+      <c r="AI3" s="239"/>
+    </row>
+    <row r="4" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:35" s="58" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="58" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="6" spans="1:35" s="58" customFormat="1" ht="12" customHeight="1">
+    <row r="6" spans="1:35" s="58" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C6" s="58" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="7" spans="1:35" s="58" customFormat="1" ht="12" customHeight="1"/>
-    <row r="8" spans="1:35" s="58" customFormat="1" ht="12" customHeight="1">
+    <row r="7" spans="1:35" s="58" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:35" s="58" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="81"/>
       <c r="C8" s="274" t="s">
         <v>173</v>
@@ -7056,7 +6947,7 @@
       <c r="AF8" s="275"/>
       <c r="AG8" s="276"/>
     </row>
-    <row r="9" spans="1:35" s="58" customFormat="1" ht="12" customHeight="1">
+    <row r="9" spans="1:35" s="58" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="81"/>
       <c r="C9" s="279" t="s">
         <v>174</v>
@@ -7094,7 +6985,7 @@
       <c r="AF9" s="275"/>
       <c r="AG9" s="276"/>
     </row>
-    <row r="10" spans="1:35" s="58" customFormat="1" ht="12" customHeight="1">
+    <row r="10" spans="1:35" s="58" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="81"/>
       <c r="C10" s="265" t="s">
         <v>175</v>
@@ -7132,7 +7023,7 @@
       <c r="AF10" s="83"/>
       <c r="AG10" s="84"/>
     </row>
-    <row r="11" spans="1:35" s="58" customFormat="1" ht="12" customHeight="1">
+    <row r="11" spans="1:35" s="58" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="81"/>
       <c r="C11" s="268"/>
       <c r="D11" s="269"/>
@@ -7166,7 +7057,7 @@
       <c r="AF11" s="40"/>
       <c r="AG11" s="86"/>
     </row>
-    <row r="12" spans="1:35" s="58" customFormat="1" ht="12" customHeight="1">
+    <row r="12" spans="1:35" s="58" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="81"/>
       <c r="C12" s="268"/>
       <c r="D12" s="269"/>
@@ -7200,7 +7091,7 @@
       <c r="AF12" s="40"/>
       <c r="AG12" s="86"/>
     </row>
-    <row r="13" spans="1:35" s="58" customFormat="1" ht="12" customHeight="1">
+    <row r="13" spans="1:35" s="58" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="81"/>
       <c r="C13" s="271"/>
       <c r="D13" s="272"/>
@@ -7234,7 +7125,7 @@
       <c r="AF13" s="89"/>
       <c r="AG13" s="90"/>
     </row>
-    <row r="14" spans="1:35" s="58" customFormat="1" ht="12" customHeight="1">
+    <row r="14" spans="1:35" s="58" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="81"/>
       <c r="C14" s="264" t="s">
         <v>53</v>
@@ -7272,58 +7163,46 @@
       <c r="AF14" s="92"/>
       <c r="AG14" s="93"/>
     </row>
-    <row r="15" spans="1:35" ht="12" customHeight="1"/>
-    <row r="16" spans="1:35" ht="12" customHeight="1"/>
-    <row r="17" ht="12" customHeight="1"/>
-    <row r="18" ht="12" customHeight="1"/>
-    <row r="19" ht="12" customHeight="1"/>
-    <row r="20" ht="12" customHeight="1"/>
-    <row r="21" ht="12" customHeight="1"/>
-    <row r="22" ht="12" customHeight="1"/>
-    <row r="23" ht="12" customHeight="1"/>
-    <row r="24" ht="12" customHeight="1"/>
-    <row r="25" ht="12" customHeight="1"/>
-    <row r="26" ht="12" customHeight="1"/>
-    <row r="27" ht="12" customHeight="1"/>
-    <row r="28" ht="12" customHeight="1"/>
-    <row r="29" ht="12" customHeight="1"/>
-    <row r="30" ht="12" customHeight="1"/>
-    <row r="31" ht="12" customHeight="1"/>
-    <row r="32" ht="12" customHeight="1"/>
-    <row r="33" ht="12" customHeight="1"/>
-    <row r="34" ht="12" customHeight="1"/>
-    <row r="35" ht="12" customHeight="1"/>
-    <row r="36" ht="12" customHeight="1"/>
-    <row r="37" ht="12" customHeight="1"/>
-    <row r="38" ht="12" customHeight="1"/>
-    <row r="39" ht="12" customHeight="1"/>
-    <row r="40" ht="12" customHeight="1"/>
-    <row r="41" ht="12" customHeight="1"/>
-    <row r="42" ht="12" customHeight="1"/>
-    <row r="43" ht="12" customHeight="1"/>
-    <row r="44" ht="12" customHeight="1"/>
-    <row r="45" ht="12" customHeight="1"/>
-    <row r="46" ht="12" customHeight="1"/>
-    <row r="47" ht="12" customHeight="1"/>
-    <row r="48" ht="12" customHeight="1"/>
-    <row r="49" ht="12" customHeight="1"/>
-    <row r="50" ht="12" customHeight="1"/>
-    <row r="51" ht="12" customHeight="1"/>
-    <row r="52" ht="12" customHeight="1"/>
+    <row r="15" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="17" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="19" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="23" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="33" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="34" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="35" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="36" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="37" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="39" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="42" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="44" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="45" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="46" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="47" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="48" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="49" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="50" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="51" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="52" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="C10:F13"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="G8:AG8"/>
-    <mergeCell ref="G9:AG9"/>
-    <mergeCell ref="C9:F9"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="O1:R3"/>
     <mergeCell ref="S1:Z3"/>
@@ -7335,6 +7214,18 @@
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="E3:N3"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="C10:F13"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="G8:AG8"/>
+    <mergeCell ref="G9:AG9"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AC1:AF1"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <printOptions horizontalCentered="1"/>
@@ -7343,7 +7234,6 @@
   <headerFooter>
     <oddFooter>&amp;C- &amp;P -</oddFooter>
   </headerFooter>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -7358,215 +7248,215 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="7" width="4.83203125" style="54"/>
     <col min="8" max="9" width="4.83203125" style="54" customWidth="1"/>
     <col min="10" max="16384" width="4.83203125" style="54"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" s="37" customFormat="1" hidden="1">
-      <c r="A1" s="371" t="s">
+    <row r="1" spans="1:36" s="37" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="319" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="372"/>
-      <c r="C1" s="372"/>
-      <c r="D1" s="373"/>
-      <c r="E1" s="255" t="str">
+      <c r="B1" s="320"/>
+      <c r="C1" s="320"/>
+      <c r="D1" s="321"/>
+      <c r="E1" s="240" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="256"/>
-      <c r="G1" s="256"/>
-      <c r="H1" s="256"/>
-      <c r="I1" s="256"/>
-      <c r="J1" s="256"/>
-      <c r="K1" s="256"/>
-      <c r="L1" s="256"/>
-      <c r="M1" s="256"/>
-      <c r="N1" s="257"/>
-      <c r="O1" s="237" t="s">
+      <c r="F1" s="241"/>
+      <c r="G1" s="241"/>
+      <c r="H1" s="241"/>
+      <c r="I1" s="241"/>
+      <c r="J1" s="241"/>
+      <c r="K1" s="241"/>
+      <c r="L1" s="241"/>
+      <c r="M1" s="241"/>
+      <c r="N1" s="242"/>
+      <c r="O1" s="246" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="238"/>
-      <c r="Q1" s="238"/>
-      <c r="R1" s="239"/>
-      <c r="S1" s="246" t="str">
+      <c r="P1" s="247"/>
+      <c r="Q1" s="247"/>
+      <c r="R1" s="248"/>
+      <c r="S1" s="255" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>システム機能設計書（画面）
 WA10101/ログイン</v>
       </c>
-      <c r="T1" s="247"/>
-      <c r="U1" s="247"/>
-      <c r="V1" s="247"/>
-      <c r="W1" s="247"/>
-      <c r="X1" s="247"/>
-      <c r="Y1" s="247"/>
-      <c r="Z1" s="248"/>
-      <c r="AA1" s="234" t="s">
+      <c r="T1" s="256"/>
+      <c r="U1" s="256"/>
+      <c r="V1" s="256"/>
+      <c r="W1" s="256"/>
+      <c r="X1" s="256"/>
+      <c r="Y1" s="256"/>
+      <c r="Z1" s="257"/>
+      <c r="AA1" s="243" t="s">
         <v>14</v>
       </c>
-      <c r="AB1" s="236"/>
-      <c r="AC1" s="258" t="str">
+      <c r="AB1" s="245"/>
+      <c r="AC1" s="234" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="259"/>
-      <c r="AE1" s="259"/>
-      <c r="AF1" s="260"/>
-      <c r="AG1" s="368">
+      <c r="AD1" s="235"/>
+      <c r="AE1" s="235"/>
+      <c r="AF1" s="236"/>
+      <c r="AG1" s="316">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43656</v>
       </c>
-      <c r="AH1" s="369"/>
-      <c r="AI1" s="370"/>
+      <c r="AH1" s="317"/>
+      <c r="AI1" s="318"/>
       <c r="AJ1" s="94"/>
     </row>
-    <row r="2" spans="1:36" s="37" customFormat="1" hidden="1">
-      <c r="A2" s="371" t="s">
+    <row r="2" spans="1:36" s="37" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="319" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="372"/>
-      <c r="C2" s="372"/>
-      <c r="D2" s="373"/>
-      <c r="E2" s="255" t="str">
+      <c r="B2" s="320"/>
+      <c r="C2" s="320"/>
+      <c r="D2" s="321"/>
+      <c r="E2" s="240" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="256"/>
-      <c r="G2" s="256"/>
-      <c r="H2" s="256"/>
-      <c r="I2" s="256"/>
-      <c r="J2" s="256"/>
-      <c r="K2" s="256"/>
-      <c r="L2" s="256"/>
-      <c r="M2" s="256"/>
-      <c r="N2" s="257"/>
-      <c r="O2" s="240"/>
-      <c r="P2" s="241"/>
-      <c r="Q2" s="241"/>
-      <c r="R2" s="242"/>
-      <c r="S2" s="249"/>
-      <c r="T2" s="250"/>
-      <c r="U2" s="250"/>
-      <c r="V2" s="250"/>
-      <c r="W2" s="250"/>
-      <c r="X2" s="250"/>
-      <c r="Y2" s="250"/>
-      <c r="Z2" s="251"/>
-      <c r="AA2" s="234" t="s">
+      <c r="F2" s="241"/>
+      <c r="G2" s="241"/>
+      <c r="H2" s="241"/>
+      <c r="I2" s="241"/>
+      <c r="J2" s="241"/>
+      <c r="K2" s="241"/>
+      <c r="L2" s="241"/>
+      <c r="M2" s="241"/>
+      <c r="N2" s="242"/>
+      <c r="O2" s="249"/>
+      <c r="P2" s="250"/>
+      <c r="Q2" s="250"/>
+      <c r="R2" s="251"/>
+      <c r="S2" s="258"/>
+      <c r="T2" s="259"/>
+      <c r="U2" s="259"/>
+      <c r="V2" s="259"/>
+      <c r="W2" s="259"/>
+      <c r="X2" s="259"/>
+      <c r="Y2" s="259"/>
+      <c r="Z2" s="260"/>
+      <c r="AA2" s="243" t="s">
         <v>16</v>
       </c>
-      <c r="AB2" s="236"/>
-      <c r="AC2" s="258" t="str">
+      <c r="AB2" s="245"/>
+      <c r="AC2" s="234" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="259"/>
-      <c r="AE2" s="259"/>
-      <c r="AF2" s="260"/>
-      <c r="AG2" s="368" t="str">
+      <c r="AD2" s="235"/>
+      <c r="AE2" s="235"/>
+      <c r="AF2" s="236"/>
+      <c r="AG2" s="316" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="369"/>
-      <c r="AI2" s="370"/>
+      <c r="AH2" s="317"/>
+      <c r="AI2" s="318"/>
       <c r="AJ2" s="94"/>
     </row>
-    <row r="3" spans="1:36" s="37" customFormat="1" hidden="1">
-      <c r="A3" s="371" t="s">
+    <row r="3" spans="1:36" s="37" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="319" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="372"/>
-      <c r="C3" s="372"/>
-      <c r="D3" s="373"/>
-      <c r="E3" s="255" t="str">
+      <c r="B3" s="320"/>
+      <c r="C3" s="320"/>
+      <c r="D3" s="321"/>
+      <c r="E3" s="240" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="256"/>
-      <c r="G3" s="256"/>
-      <c r="H3" s="256"/>
-      <c r="I3" s="256"/>
-      <c r="J3" s="256"/>
-      <c r="K3" s="256"/>
-      <c r="L3" s="256"/>
-      <c r="M3" s="256"/>
-      <c r="N3" s="257"/>
-      <c r="O3" s="243"/>
-      <c r="P3" s="244"/>
-      <c r="Q3" s="244"/>
-      <c r="R3" s="245"/>
-      <c r="S3" s="252"/>
-      <c r="T3" s="253"/>
-      <c r="U3" s="253"/>
-      <c r="V3" s="253"/>
-      <c r="W3" s="253"/>
-      <c r="X3" s="253"/>
-      <c r="Y3" s="253"/>
-      <c r="Z3" s="254"/>
-      <c r="AA3" s="234"/>
-      <c r="AB3" s="236"/>
-      <c r="AC3" s="258" t="str">
+      <c r="F3" s="241"/>
+      <c r="G3" s="241"/>
+      <c r="H3" s="241"/>
+      <c r="I3" s="241"/>
+      <c r="J3" s="241"/>
+      <c r="K3" s="241"/>
+      <c r="L3" s="241"/>
+      <c r="M3" s="241"/>
+      <c r="N3" s="242"/>
+      <c r="O3" s="252"/>
+      <c r="P3" s="253"/>
+      <c r="Q3" s="253"/>
+      <c r="R3" s="254"/>
+      <c r="S3" s="261"/>
+      <c r="T3" s="262"/>
+      <c r="U3" s="262"/>
+      <c r="V3" s="262"/>
+      <c r="W3" s="262"/>
+      <c r="X3" s="262"/>
+      <c r="Y3" s="262"/>
+      <c r="Z3" s="263"/>
+      <c r="AA3" s="243"/>
+      <c r="AB3" s="245"/>
+      <c r="AC3" s="234" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="259"/>
-      <c r="AE3" s="259"/>
-      <c r="AF3" s="260"/>
-      <c r="AG3" s="368" t="str">
+      <c r="AD3" s="235"/>
+      <c r="AE3" s="235"/>
+      <c r="AF3" s="236"/>
+      <c r="AG3" s="316" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="369"/>
-      <c r="AI3" s="370"/>
+      <c r="AH3" s="317"/>
+      <c r="AI3" s="318"/>
       <c r="AJ3" s="94"/>
     </row>
-    <row r="4" spans="1:36" ht="12" customHeight="1"/>
-    <row r="5" spans="1:36" ht="12" customHeight="1">
+    <row r="4" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="95" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:36" ht="12" customHeight="1">
+    <row r="6" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C6" s="54" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:36" ht="12" customHeight="1"/>
-    <row r="8" spans="1:36" ht="12" customHeight="1"/>
-    <row r="9" spans="1:36" ht="12" customHeight="1"/>
-    <row r="10" spans="1:36" ht="12" customHeight="1"/>
-    <row r="11" spans="1:36" ht="12" customHeight="1"/>
-    <row r="12" spans="1:36" ht="12" customHeight="1"/>
-    <row r="13" spans="1:36" ht="12" customHeight="1"/>
-    <row r="14" spans="1:36" ht="12" customHeight="1"/>
-    <row r="15" spans="1:36" ht="12" customHeight="1"/>
-    <row r="16" spans="1:36" ht="12" customHeight="1"/>
-    <row r="17" ht="12" customHeight="1"/>
-    <row r="18" ht="12" customHeight="1"/>
-    <row r="19" ht="12" customHeight="1"/>
-    <row r="20" ht="12" customHeight="1"/>
-    <row r="21" ht="12" customHeight="1"/>
-    <row r="22" ht="12" customHeight="1"/>
-    <row r="23" ht="12" customHeight="1"/>
-    <row r="24" ht="12" customHeight="1"/>
-    <row r="25" ht="12" customHeight="1"/>
-    <row r="26" ht="12" customHeight="1"/>
-    <row r="27" ht="12" customHeight="1"/>
-    <row r="28" ht="12" customHeight="1"/>
-    <row r="29" ht="12" customHeight="1"/>
-    <row r="30" ht="12" customHeight="1"/>
-    <row r="31" ht="12" customHeight="1"/>
-    <row r="32" ht="12" customHeight="1"/>
-    <row r="33" spans="3:53" ht="12" customHeight="1"/>
-    <row r="34" spans="3:53" ht="12" customHeight="1"/>
-    <row r="35" spans="3:53" ht="12" customHeight="1"/>
-    <row r="36" spans="3:53" ht="12" customHeight="1"/>
-    <row r="37" spans="3:53" ht="12" customHeight="1"/>
-    <row r="38" spans="3:53" ht="12" customHeight="1"/>
-    <row r="39" spans="3:53" ht="12" customHeight="1"/>
-    <row r="40" spans="3:53" ht="12" customHeight="1">
+    <row r="7" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="17" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="19" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="23" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="33" spans="3:53" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="34" spans="3:53" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="35" spans="3:53" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="36" spans="3:53" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="37" spans="3:53" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" spans="3:53" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="39" spans="3:53" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" spans="3:53" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D40" s="96"/>
       <c r="E40" s="96"/>
       <c r="F40" s="96"/>
@@ -7599,7 +7489,7 @@
       <c r="AG40" s="96"/>
       <c r="AH40" s="96"/>
     </row>
-    <row r="41" spans="3:53">
+    <row r="41" spans="3:53" x14ac:dyDescent="0.2">
       <c r="C41" s="40" t="s">
         <v>45</v>
       </c>
@@ -7634,7 +7524,7 @@
       <c r="AG41" s="96"/>
       <c r="AH41" s="96"/>
     </row>
-    <row r="42" spans="3:53">
+    <row r="42" spans="3:53" x14ac:dyDescent="0.2">
       <c r="C42" s="40"/>
       <c r="D42" s="96"/>
       <c r="E42" s="96"/>
@@ -7667,89 +7557,89 @@
       <c r="AG42" s="96"/>
       <c r="AH42" s="96"/>
     </row>
-    <row r="43" spans="3:53">
+    <row r="43" spans="3:53" x14ac:dyDescent="0.2">
       <c r="D43" s="97" t="s">
         <v>30</v>
       </c>
-      <c r="E43" s="374" t="s">
+      <c r="E43" s="282" t="s">
         <v>55</v>
       </c>
-      <c r="F43" s="374"/>
-      <c r="G43" s="374"/>
-      <c r="H43" s="374"/>
-      <c r="I43" s="374"/>
-      <c r="J43" s="374"/>
-      <c r="K43" s="374"/>
-      <c r="L43" s="374"/>
-      <c r="M43" s="374"/>
-      <c r="N43" s="374" t="s">
+      <c r="F43" s="282"/>
+      <c r="G43" s="282"/>
+      <c r="H43" s="282"/>
+      <c r="I43" s="282"/>
+      <c r="J43" s="282"/>
+      <c r="K43" s="282"/>
+      <c r="L43" s="282"/>
+      <c r="M43" s="282"/>
+      <c r="N43" s="282" t="s">
         <v>56</v>
       </c>
-      <c r="O43" s="374"/>
-      <c r="P43" s="374"/>
-      <c r="Q43" s="374" t="s">
+      <c r="O43" s="282"/>
+      <c r="P43" s="282"/>
+      <c r="Q43" s="282" t="s">
         <v>57</v>
       </c>
-      <c r="R43" s="374"/>
-      <c r="S43" s="374"/>
-      <c r="T43" s="374"/>
-      <c r="U43" s="374"/>
-      <c r="V43" s="374" t="s">
+      <c r="R43" s="282"/>
+      <c r="S43" s="282"/>
+      <c r="T43" s="282"/>
+      <c r="U43" s="282"/>
+      <c r="V43" s="282" t="s">
         <v>58</v>
       </c>
-      <c r="W43" s="374"/>
-      <c r="X43" s="374"/>
-      <c r="Y43" s="374"/>
-      <c r="Z43" s="374"/>
-      <c r="AA43" s="374"/>
-      <c r="AB43" s="374"/>
-      <c r="AC43" s="374"/>
+      <c r="W43" s="282"/>
+      <c r="X43" s="282"/>
+      <c r="Y43" s="282"/>
+      <c r="Z43" s="282"/>
+      <c r="AA43" s="282"/>
+      <c r="AB43" s="282"/>
+      <c r="AC43" s="282"/>
       <c r="AD43" s="96"/>
       <c r="AE43" s="96"/>
       <c r="AF43" s="96"/>
       <c r="AG43" s="96"/>
       <c r="AH43" s="96"/>
     </row>
-    <row r="44" spans="3:53" ht="11.25" customHeight="1">
+    <row r="44" spans="3:53" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D44" s="98">
         <v>1</v>
       </c>
-      <c r="E44" s="375" t="s">
+      <c r="E44" s="283" t="s">
         <v>39</v>
       </c>
-      <c r="F44" s="375"/>
-      <c r="G44" s="375"/>
-      <c r="H44" s="375"/>
-      <c r="I44" s="375"/>
-      <c r="J44" s="375"/>
-      <c r="K44" s="375"/>
-      <c r="L44" s="375"/>
-      <c r="M44" s="375"/>
-      <c r="N44" s="375" t="s">
+      <c r="F44" s="283"/>
+      <c r="G44" s="283"/>
+      <c r="H44" s="283"/>
+      <c r="I44" s="283"/>
+      <c r="J44" s="283"/>
+      <c r="K44" s="283"/>
+      <c r="L44" s="283"/>
+      <c r="M44" s="283"/>
+      <c r="N44" s="283" t="s">
         <v>39</v>
       </c>
-      <c r="O44" s="375"/>
-      <c r="P44" s="375"/>
-      <c r="Q44" s="332" t="s">
+      <c r="O44" s="283"/>
+      <c r="P44" s="283"/>
+      <c r="Q44" s="315" t="s">
         <v>39</v>
       </c>
-      <c r="R44" s="332"/>
-      <c r="S44" s="332"/>
-      <c r="T44" s="332"/>
-      <c r="U44" s="332"/>
-      <c r="V44" s="332" t="s">
+      <c r="R44" s="315"/>
+      <c r="S44" s="315"/>
+      <c r="T44" s="315"/>
+      <c r="U44" s="315"/>
+      <c r="V44" s="315" t="s">
         <v>39</v>
       </c>
-      <c r="W44" s="332"/>
-      <c r="X44" s="332"/>
-      <c r="Y44" s="332"/>
-      <c r="Z44" s="332"/>
-      <c r="AA44" s="332"/>
-      <c r="AB44" s="332"/>
-      <c r="AC44" s="332"/>
+      <c r="W44" s="315"/>
+      <c r="X44" s="315"/>
+      <c r="Y44" s="315"/>
+      <c r="Z44" s="315"/>
+      <c r="AA44" s="315"/>
+      <c r="AB44" s="315"/>
+      <c r="AC44" s="315"/>
       <c r="AM44" s="40"/>
     </row>
-    <row r="45" spans="3:53" ht="11.25" customHeight="1">
+    <row r="45" spans="3:53" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D45" s="99"/>
       <c r="E45" s="100"/>
       <c r="F45" s="100"/>
@@ -7778,10 +7668,10 @@
       <c r="AC45" s="96"/>
       <c r="AM45" s="40"/>
     </row>
-    <row r="46" spans="3:53" ht="11.25" customHeight="1">
+    <row r="46" spans="3:53" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="O46" s="100"/>
     </row>
-    <row r="47" spans="3:53">
+    <row r="47" spans="3:53" x14ac:dyDescent="0.2">
       <c r="C47" s="54" t="s">
         <v>46</v>
       </c>
@@ -7803,7 +7693,7 @@
       <c r="AZ47" s="81"/>
       <c r="BA47" s="81"/>
     </row>
-    <row r="48" spans="3:53" s="58" customFormat="1">
+    <row r="48" spans="3:53" s="58" customFormat="1" x14ac:dyDescent="0.2">
       <c r="AJ48" s="49"/>
       <c r="AK48" s="49"/>
       <c r="AL48" s="49"/>
@@ -7822,37 +7712,37 @@
       <c r="AY48" s="49"/>
       <c r="AZ48" s="49"/>
     </row>
-    <row r="49" spans="3:53" s="58" customFormat="1">
-      <c r="D49" s="289" t="s">
+    <row r="49" spans="3:53" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D49" s="309" t="s">
         <v>30</v>
       </c>
-      <c r="E49" s="363" t="s">
+      <c r="E49" s="306" t="s">
         <v>59</v>
       </c>
-      <c r="F49" s="364"/>
-      <c r="G49" s="364"/>
-      <c r="H49" s="364"/>
-      <c r="I49" s="364"/>
-      <c r="J49" s="364"/>
-      <c r="K49" s="364"/>
-      <c r="L49" s="364"/>
-      <c r="M49" s="364"/>
-      <c r="N49" s="364"/>
-      <c r="O49" s="364"/>
-      <c r="P49" s="364"/>
-      <c r="Q49" s="364"/>
-      <c r="R49" s="364"/>
-      <c r="S49" s="364"/>
-      <c r="T49" s="364"/>
-      <c r="U49" s="364"/>
-      <c r="V49" s="364"/>
-      <c r="W49" s="364"/>
-      <c r="X49" s="364"/>
-      <c r="Y49" s="364"/>
-      <c r="Z49" s="364"/>
-      <c r="AA49" s="364"/>
-      <c r="AB49" s="364"/>
-      <c r="AC49" s="365"/>
+      <c r="F49" s="307"/>
+      <c r="G49" s="307"/>
+      <c r="H49" s="307"/>
+      <c r="I49" s="307"/>
+      <c r="J49" s="307"/>
+      <c r="K49" s="307"/>
+      <c r="L49" s="307"/>
+      <c r="M49" s="307"/>
+      <c r="N49" s="307"/>
+      <c r="O49" s="307"/>
+      <c r="P49" s="307"/>
+      <c r="Q49" s="307"/>
+      <c r="R49" s="307"/>
+      <c r="S49" s="307"/>
+      <c r="T49" s="307"/>
+      <c r="U49" s="307"/>
+      <c r="V49" s="307"/>
+      <c r="W49" s="307"/>
+      <c r="X49" s="307"/>
+      <c r="Y49" s="307"/>
+      <c r="Z49" s="307"/>
+      <c r="AA49" s="307"/>
+      <c r="AB49" s="307"/>
+      <c r="AC49" s="308"/>
       <c r="AD49" s="265" t="s">
         <v>60</v>
       </c>
@@ -7869,30 +7759,30 @@
       <c r="AM49" s="49"/>
       <c r="AN49" s="49"/>
     </row>
-    <row r="50" spans="3:53" s="58" customFormat="1" ht="11.25" customHeight="1">
-      <c r="D50" s="333"/>
+    <row r="50" spans="3:53" s="58" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D50" s="331"/>
       <c r="E50" s="265" t="s">
         <v>62</v>
       </c>
       <c r="F50" s="266"/>
       <c r="G50" s="266"/>
       <c r="H50" s="267"/>
-      <c r="I50" s="334" t="s">
+      <c r="I50" s="300" t="s">
         <v>63</v>
       </c>
-      <c r="J50" s="335"/>
-      <c r="K50" s="335"/>
-      <c r="L50" s="336"/>
-      <c r="M50" s="334" t="s">
+      <c r="J50" s="301"/>
+      <c r="K50" s="301"/>
+      <c r="L50" s="302"/>
+      <c r="M50" s="300" t="s">
         <v>64</v>
       </c>
-      <c r="N50" s="335"/>
-      <c r="O50" s="335"/>
-      <c r="P50" s="335"/>
-      <c r="Q50" s="335"/>
-      <c r="R50" s="335"/>
-      <c r="S50" s="335"/>
-      <c r="T50" s="336"/>
+      <c r="N50" s="301"/>
+      <c r="O50" s="301"/>
+      <c r="P50" s="301"/>
+      <c r="Q50" s="301"/>
+      <c r="R50" s="301"/>
+      <c r="S50" s="301"/>
+      <c r="T50" s="302"/>
       <c r="U50" s="265" t="s">
         <v>65</v>
       </c>
@@ -7905,7 +7795,7 @@
       </c>
       <c r="AA50" s="266"/>
       <c r="AB50" s="267"/>
-      <c r="AC50" s="289" t="s">
+      <c r="AC50" s="309" t="s">
         <v>176</v>
       </c>
       <c r="AD50" s="268"/>
@@ -7926,24 +7816,24 @@
       <c r="AS50" s="49"/>
       <c r="AT50" s="49"/>
     </row>
-    <row r="51" spans="3:53" s="58" customFormat="1">
-      <c r="D51" s="290"/>
+    <row r="51" spans="3:53" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D51" s="310"/>
       <c r="E51" s="271"/>
       <c r="F51" s="272"/>
       <c r="G51" s="272"/>
       <c r="H51" s="273"/>
-      <c r="I51" s="337"/>
-      <c r="J51" s="338"/>
-      <c r="K51" s="338"/>
-      <c r="L51" s="339"/>
-      <c r="M51" s="337"/>
-      <c r="N51" s="338"/>
-      <c r="O51" s="338"/>
-      <c r="P51" s="338"/>
-      <c r="Q51" s="338"/>
-      <c r="R51" s="338"/>
-      <c r="S51" s="338"/>
-      <c r="T51" s="339"/>
+      <c r="I51" s="303"/>
+      <c r="J51" s="304"/>
+      <c r="K51" s="304"/>
+      <c r="L51" s="305"/>
+      <c r="M51" s="303"/>
+      <c r="N51" s="304"/>
+      <c r="O51" s="304"/>
+      <c r="P51" s="304"/>
+      <c r="Q51" s="304"/>
+      <c r="R51" s="304"/>
+      <c r="S51" s="304"/>
+      <c r="T51" s="305"/>
       <c r="U51" s="271"/>
       <c r="V51" s="272"/>
       <c r="W51" s="272"/>
@@ -7952,7 +7842,7 @@
       <c r="Z51" s="271"/>
       <c r="AA51" s="272"/>
       <c r="AB51" s="273"/>
-      <c r="AC51" s="290"/>
+      <c r="AC51" s="310"/>
       <c r="AD51" s="271"/>
       <c r="AE51" s="272"/>
       <c r="AF51" s="272"/>
@@ -7973,7 +7863,7 @@
       <c r="AS51" s="49"/>
       <c r="AT51" s="49"/>
     </row>
-    <row r="52" spans="3:53" s="58" customFormat="1" ht="11.25" customHeight="1">
+    <row r="52" spans="3:53" s="58" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D52" s="104">
         <v>1</v>
       </c>
@@ -7982,44 +7872,44 @@
       </c>
       <c r="F52" s="278"/>
       <c r="G52" s="278"/>
-      <c r="H52" s="366"/>
-      <c r="I52" s="367" t="s">
+      <c r="H52" s="299"/>
+      <c r="I52" s="298" t="s">
         <v>69</v>
       </c>
-      <c r="J52" s="367"/>
-      <c r="K52" s="367"/>
-      <c r="L52" s="367"/>
-      <c r="M52" s="380" t="s">
+      <c r="J52" s="298"/>
+      <c r="K52" s="298"/>
+      <c r="L52" s="298"/>
+      <c r="M52" s="314" t="s">
         <v>39</v>
       </c>
-      <c r="N52" s="380"/>
-      <c r="O52" s="380"/>
-      <c r="P52" s="380"/>
-      <c r="Q52" s="380"/>
-      <c r="R52" s="380"/>
-      <c r="S52" s="380"/>
-      <c r="T52" s="380"/>
-      <c r="U52" s="356" t="s">
+      <c r="N52" s="314"/>
+      <c r="O52" s="314"/>
+      <c r="P52" s="314"/>
+      <c r="Q52" s="314"/>
+      <c r="R52" s="314"/>
+      <c r="S52" s="314"/>
+      <c r="T52" s="314"/>
+      <c r="U52" s="294" t="s">
         <v>39</v>
       </c>
-      <c r="V52" s="356"/>
-      <c r="W52" s="356"/>
-      <c r="X52" s="356"/>
-      <c r="Y52" s="356"/>
-      <c r="Z52" s="356" t="s">
+      <c r="V52" s="294"/>
+      <c r="W52" s="294"/>
+      <c r="X52" s="294"/>
+      <c r="Y52" s="294"/>
+      <c r="Z52" s="294" t="s">
         <v>39</v>
       </c>
-      <c r="AA52" s="356"/>
-      <c r="AB52" s="356"/>
+      <c r="AA52" s="294"/>
+      <c r="AB52" s="294"/>
       <c r="AC52" s="105" t="s">
         <v>70</v>
       </c>
-      <c r="AD52" s="350" t="s">
+      <c r="AD52" s="295" t="s">
         <v>68</v>
       </c>
-      <c r="AE52" s="287"/>
-      <c r="AF52" s="287"/>
-      <c r="AG52" s="288"/>
+      <c r="AE52" s="296"/>
+      <c r="AF52" s="296"/>
+      <c r="AG52" s="297"/>
       <c r="AH52" s="49"/>
       <c r="AI52" s="49"/>
       <c r="AJ52" s="49"/>
@@ -8036,7 +7926,7 @@
       <c r="AS52" s="49"/>
       <c r="AT52" s="49"/>
     </row>
-    <row r="53" spans="3:53" s="58" customFormat="1" ht="36" customHeight="1">
+    <row r="53" spans="3:53" s="58" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D53" s="104">
         <v>2</v>
       </c>
@@ -8045,44 +7935,44 @@
       </c>
       <c r="F53" s="278"/>
       <c r="G53" s="278"/>
-      <c r="H53" s="366"/>
-      <c r="I53" s="367" t="s">
+      <c r="H53" s="299"/>
+      <c r="I53" s="298" t="s">
         <v>73</v>
       </c>
-      <c r="J53" s="367"/>
-      <c r="K53" s="367"/>
-      <c r="L53" s="367"/>
-      <c r="M53" s="312" t="s">
+      <c r="J53" s="298"/>
+      <c r="K53" s="298"/>
+      <c r="L53" s="298"/>
+      <c r="M53" s="311" t="s">
         <v>39</v>
       </c>
-      <c r="N53" s="313"/>
-      <c r="O53" s="313"/>
-      <c r="P53" s="313"/>
-      <c r="Q53" s="313"/>
-      <c r="R53" s="313"/>
-      <c r="S53" s="313"/>
-      <c r="T53" s="314"/>
-      <c r="U53" s="350" t="s">
+      <c r="N53" s="312"/>
+      <c r="O53" s="312"/>
+      <c r="P53" s="312"/>
+      <c r="Q53" s="312"/>
+      <c r="R53" s="312"/>
+      <c r="S53" s="312"/>
+      <c r="T53" s="313"/>
+      <c r="U53" s="295" t="s">
         <v>74</v>
       </c>
-      <c r="V53" s="287"/>
-      <c r="W53" s="287"/>
-      <c r="X53" s="287"/>
-      <c r="Y53" s="288"/>
-      <c r="Z53" s="356" t="s">
+      <c r="V53" s="296"/>
+      <c r="W53" s="296"/>
+      <c r="X53" s="296"/>
+      <c r="Y53" s="297"/>
+      <c r="Z53" s="294" t="s">
         <v>39</v>
       </c>
-      <c r="AA53" s="356"/>
-      <c r="AB53" s="356"/>
+      <c r="AA53" s="294"/>
+      <c r="AB53" s="294"/>
       <c r="AC53" s="105" t="s">
         <v>70</v>
       </c>
-      <c r="AD53" s="350" t="s">
+      <c r="AD53" s="295" t="s">
         <v>75</v>
       </c>
-      <c r="AE53" s="287"/>
-      <c r="AF53" s="287"/>
-      <c r="AG53" s="288"/>
+      <c r="AE53" s="296"/>
+      <c r="AF53" s="296"/>
+      <c r="AG53" s="297"/>
       <c r="AH53" s="49"/>
       <c r="AI53" s="49"/>
       <c r="AJ53" s="49"/>
@@ -8099,10 +7989,10 @@
       <c r="AS53" s="49"/>
       <c r="AT53" s="49"/>
     </row>
-    <row r="54" spans="3:53" ht="11.25" customHeight="1">
+    <row r="54" spans="3:53" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AY54" s="56"/>
     </row>
-    <row r="55" spans="3:53">
+    <row r="55" spans="3:53" x14ac:dyDescent="0.2">
       <c r="D55" s="106"/>
       <c r="E55" s="107"/>
       <c r="F55" s="108"/>
@@ -8144,7 +8034,7 @@
       <c r="AR55" s="42"/>
       <c r="AS55" s="42"/>
     </row>
-    <row r="56" spans="3:53">
+    <row r="56" spans="3:53" x14ac:dyDescent="0.2">
       <c r="C56" s="54" t="s">
         <v>47</v>
       </c>
@@ -8189,7 +8079,7 @@
       <c r="AR56" s="42"/>
       <c r="AS56" s="42"/>
     </row>
-    <row r="57" spans="3:53" ht="11.25" customHeight="1">
+    <row r="57" spans="3:53" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AI57" s="108"/>
       <c r="AJ57" s="108"/>
       <c r="AK57" s="42"/>
@@ -8206,25 +8096,25 @@
       <c r="AV57" s="42"/>
       <c r="AW57" s="42"/>
     </row>
-    <row r="58" spans="3:53">
-      <c r="D58" s="340" t="s">
+    <row r="58" spans="3:53" x14ac:dyDescent="0.2">
+      <c r="D58" s="332" t="s">
         <v>30</v>
       </c>
-      <c r="E58" s="342" t="s">
+      <c r="E58" s="286" t="s">
         <v>77</v>
       </c>
-      <c r="F58" s="343"/>
-      <c r="G58" s="343"/>
-      <c r="H58" s="343"/>
-      <c r="I58" s="343"/>
-      <c r="J58" s="344"/>
-      <c r="K58" s="342" t="s">
+      <c r="F58" s="287"/>
+      <c r="G58" s="287"/>
+      <c r="H58" s="287"/>
+      <c r="I58" s="287"/>
+      <c r="J58" s="288"/>
+      <c r="K58" s="286" t="s">
         <v>78</v>
       </c>
-      <c r="L58" s="343"/>
-      <c r="M58" s="343"/>
-      <c r="N58" s="344"/>
-      <c r="O58" s="376" t="s">
+      <c r="L58" s="287"/>
+      <c r="M58" s="287"/>
+      <c r="N58" s="288"/>
+      <c r="O58" s="284" t="s">
         <v>79</v>
       </c>
       <c r="P58" s="110" t="s">
@@ -8235,21 +8125,21 @@
       <c r="S58" s="111"/>
       <c r="T58" s="111"/>
       <c r="U58" s="111"/>
-      <c r="V58" s="342" t="s">
+      <c r="V58" s="286" t="s">
         <v>58</v>
       </c>
-      <c r="W58" s="343"/>
-      <c r="X58" s="343"/>
-      <c r="Y58" s="343"/>
-      <c r="Z58" s="343"/>
-      <c r="AA58" s="343"/>
-      <c r="AB58" s="343"/>
-      <c r="AC58" s="343"/>
-      <c r="AD58" s="343"/>
-      <c r="AE58" s="343"/>
-      <c r="AF58" s="343"/>
-      <c r="AG58" s="343"/>
-      <c r="AH58" s="344"/>
+      <c r="W58" s="287"/>
+      <c r="X58" s="287"/>
+      <c r="Y58" s="287"/>
+      <c r="Z58" s="287"/>
+      <c r="AA58" s="287"/>
+      <c r="AB58" s="287"/>
+      <c r="AC58" s="287"/>
+      <c r="AD58" s="287"/>
+      <c r="AE58" s="287"/>
+      <c r="AF58" s="287"/>
+      <c r="AG58" s="287"/>
+      <c r="AH58" s="288"/>
       <c r="AK58" s="42"/>
       <c r="AL58" s="42"/>
       <c r="AM58" s="42"/>
@@ -8264,19 +8154,19 @@
       <c r="AV58" s="42"/>
       <c r="AW58" s="42"/>
     </row>
-    <row r="59" spans="3:53">
-      <c r="D59" s="341"/>
-      <c r="E59" s="345"/>
-      <c r="F59" s="346"/>
-      <c r="G59" s="346"/>
-      <c r="H59" s="346"/>
-      <c r="I59" s="346"/>
-      <c r="J59" s="347"/>
-      <c r="K59" s="345"/>
-      <c r="L59" s="346"/>
-      <c r="M59" s="346"/>
-      <c r="N59" s="347"/>
-      <c r="O59" s="377"/>
+    <row r="59" spans="3:53" x14ac:dyDescent="0.2">
+      <c r="D59" s="333"/>
+      <c r="E59" s="289"/>
+      <c r="F59" s="290"/>
+      <c r="G59" s="290"/>
+      <c r="H59" s="290"/>
+      <c r="I59" s="290"/>
+      <c r="J59" s="291"/>
+      <c r="K59" s="289"/>
+      <c r="L59" s="290"/>
+      <c r="M59" s="290"/>
+      <c r="N59" s="291"/>
+      <c r="O59" s="285"/>
       <c r="P59" s="112" t="s">
         <v>81</v>
       </c>
@@ -8289,23 +8179,23 @@
       <c r="S59" s="112" t="s">
         <v>84</v>
       </c>
-      <c r="T59" s="378" t="s">
+      <c r="T59" s="292" t="s">
         <v>85</v>
       </c>
-      <c r="U59" s="379"/>
-      <c r="V59" s="345"/>
-      <c r="W59" s="346"/>
-      <c r="X59" s="346"/>
-      <c r="Y59" s="346"/>
-      <c r="Z59" s="346"/>
-      <c r="AA59" s="346"/>
-      <c r="AB59" s="346"/>
-      <c r="AC59" s="346"/>
-      <c r="AD59" s="346"/>
-      <c r="AE59" s="346"/>
-      <c r="AF59" s="346"/>
-      <c r="AG59" s="346"/>
-      <c r="AH59" s="347"/>
+      <c r="U59" s="293"/>
+      <c r="V59" s="289"/>
+      <c r="W59" s="290"/>
+      <c r="X59" s="290"/>
+      <c r="Y59" s="290"/>
+      <c r="Z59" s="290"/>
+      <c r="AA59" s="290"/>
+      <c r="AB59" s="290"/>
+      <c r="AC59" s="290"/>
+      <c r="AD59" s="290"/>
+      <c r="AE59" s="290"/>
+      <c r="AF59" s="290"/>
+      <c r="AG59" s="290"/>
+      <c r="AH59" s="291"/>
       <c r="AK59" s="42"/>
       <c r="AL59" s="42"/>
       <c r="AM59" s="42"/>
@@ -8320,24 +8210,24 @@
       <c r="AV59" s="42"/>
       <c r="AW59" s="42"/>
     </row>
-    <row r="60" spans="3:53">
+    <row r="60" spans="3:53" x14ac:dyDescent="0.2">
       <c r="D60" s="113">
         <v>1</v>
       </c>
-      <c r="E60" s="303" t="s">
+      <c r="E60" s="338" t="s">
         <v>86</v>
       </c>
-      <c r="F60" s="304"/>
-      <c r="G60" s="304"/>
-      <c r="H60" s="304"/>
-      <c r="I60" s="304"/>
-      <c r="J60" s="305"/>
-      <c r="K60" s="350" t="s">
+      <c r="F60" s="339"/>
+      <c r="G60" s="339"/>
+      <c r="H60" s="339"/>
+      <c r="I60" s="339"/>
+      <c r="J60" s="340"/>
+      <c r="K60" s="295" t="s">
         <v>87</v>
       </c>
-      <c r="L60" s="287"/>
-      <c r="M60" s="287"/>
-      <c r="N60" s="288"/>
+      <c r="L60" s="296"/>
+      <c r="M60" s="296"/>
+      <c r="N60" s="297"/>
       <c r="O60" s="114" t="s">
         <v>88</v>
       </c>
@@ -8353,25 +8243,25 @@
       <c r="S60" s="115" t="s">
         <v>39</v>
       </c>
-      <c r="T60" s="351" t="s">
+      <c r="T60" s="341" t="s">
         <v>39</v>
       </c>
-      <c r="U60" s="352"/>
-      <c r="V60" s="350" t="s">
+      <c r="U60" s="342"/>
+      <c r="V60" s="295" t="s">
         <v>39</v>
       </c>
-      <c r="W60" s="287"/>
-      <c r="X60" s="287"/>
-      <c r="Y60" s="287"/>
-      <c r="Z60" s="287"/>
-      <c r="AA60" s="287"/>
-      <c r="AB60" s="287"/>
-      <c r="AC60" s="287"/>
-      <c r="AD60" s="287"/>
-      <c r="AE60" s="287"/>
-      <c r="AF60" s="287"/>
-      <c r="AG60" s="287"/>
-      <c r="AH60" s="288"/>
+      <c r="W60" s="296"/>
+      <c r="X60" s="296"/>
+      <c r="Y60" s="296"/>
+      <c r="Z60" s="296"/>
+      <c r="AA60" s="296"/>
+      <c r="AB60" s="296"/>
+      <c r="AC60" s="296"/>
+      <c r="AD60" s="296"/>
+      <c r="AE60" s="296"/>
+      <c r="AF60" s="296"/>
+      <c r="AG60" s="296"/>
+      <c r="AH60" s="297"/>
       <c r="AK60" s="42"/>
       <c r="AL60" s="42"/>
       <c r="AM60" s="42"/>
@@ -8386,7 +8276,7 @@
       <c r="AV60" s="42"/>
       <c r="AW60" s="42"/>
     </row>
-    <row r="61" spans="3:53">
+    <row r="61" spans="3:53" x14ac:dyDescent="0.2">
       <c r="D61" s="116"/>
       <c r="E61" s="117"/>
       <c r="F61" s="117"/>
@@ -8434,7 +8324,7 @@
       <c r="AZ61" s="42"/>
       <c r="BA61" s="42"/>
     </row>
-    <row r="62" spans="3:53">
+    <row r="62" spans="3:53" x14ac:dyDescent="0.2">
       <c r="D62" s="106"/>
       <c r="E62" s="107"/>
       <c r="F62" s="108"/>
@@ -8478,7 +8368,7 @@
       <c r="AZ62" s="42"/>
       <c r="BA62" s="42"/>
     </row>
-    <row r="63" spans="3:53">
+    <row r="63" spans="3:53" x14ac:dyDescent="0.2">
       <c r="C63" s="54" t="s">
         <v>48</v>
       </c>
@@ -8492,143 +8382,143 @@
       <c r="AZ63" s="42"/>
       <c r="BA63" s="42"/>
     </row>
-    <row r="65" spans="1:58" ht="11.25" customHeight="1">
+    <row r="65" spans="1:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C65" s="119"/>
       <c r="D65" s="120" t="s">
         <v>30</v>
       </c>
-      <c r="E65" s="348" t="s">
+      <c r="E65" s="334" t="s">
         <v>89</v>
       </c>
-      <c r="F65" s="315"/>
-      <c r="G65" s="315"/>
-      <c r="H65" s="315"/>
-      <c r="I65" s="315"/>
-      <c r="J65" s="349"/>
-      <c r="K65" s="348" t="s">
+      <c r="F65" s="335"/>
+      <c r="G65" s="335"/>
+      <c r="H65" s="335"/>
+      <c r="I65" s="335"/>
+      <c r="J65" s="336"/>
+      <c r="K65" s="334" t="s">
         <v>90</v>
       </c>
-      <c r="L65" s="315"/>
-      <c r="M65" s="315"/>
-      <c r="N65" s="315"/>
-      <c r="O65" s="315"/>
-      <c r="P65" s="315"/>
-      <c r="Q65" s="316"/>
+      <c r="L65" s="335"/>
+      <c r="M65" s="335"/>
+      <c r="N65" s="335"/>
+      <c r="O65" s="335"/>
+      <c r="P65" s="335"/>
+      <c r="Q65" s="337"/>
       <c r="R65" s="274" t="s">
         <v>91</v>
       </c>
-      <c r="S65" s="315"/>
-      <c r="T65" s="315"/>
-      <c r="U65" s="315"/>
-      <c r="V65" s="315"/>
-      <c r="W65" s="315"/>
-      <c r="X65" s="315"/>
-      <c r="Y65" s="316"/>
-      <c r="Z65" s="363" t="s">
+      <c r="S65" s="335"/>
+      <c r="T65" s="335"/>
+      <c r="U65" s="335"/>
+      <c r="V65" s="335"/>
+      <c r="W65" s="335"/>
+      <c r="X65" s="335"/>
+      <c r="Y65" s="337"/>
+      <c r="Z65" s="306" t="s">
         <v>92</v>
       </c>
-      <c r="AA65" s="364"/>
-      <c r="AB65" s="364"/>
-      <c r="AC65" s="364"/>
-      <c r="AD65" s="365"/>
-      <c r="AE65" s="360" t="s">
+      <c r="AA65" s="307"/>
+      <c r="AB65" s="307"/>
+      <c r="AC65" s="307"/>
+      <c r="AD65" s="308"/>
+      <c r="AE65" s="325" t="s">
         <v>93</v>
       </c>
-      <c r="AF65" s="361"/>
-      <c r="AG65" s="361"/>
-      <c r="AH65" s="362"/>
-    </row>
-    <row r="66" spans="1:58" ht="27" customHeight="1">
+      <c r="AF65" s="326"/>
+      <c r="AG65" s="326"/>
+      <c r="AH65" s="327"/>
+    </row>
+    <row r="66" spans="1:58" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D66" s="121">
         <v>1</v>
       </c>
-      <c r="E66" s="353" t="s">
+      <c r="E66" s="328" t="s">
         <v>94</v>
       </c>
-      <c r="F66" s="354"/>
-      <c r="G66" s="354"/>
-      <c r="H66" s="354"/>
-      <c r="I66" s="354"/>
-      <c r="J66" s="355"/>
-      <c r="K66" s="350" t="s">
+      <c r="F66" s="329"/>
+      <c r="G66" s="329"/>
+      <c r="H66" s="329"/>
+      <c r="I66" s="329"/>
+      <c r="J66" s="330"/>
+      <c r="K66" s="295" t="s">
         <v>39</v>
       </c>
-      <c r="L66" s="287"/>
-      <c r="M66" s="287"/>
-      <c r="N66" s="287"/>
-      <c r="O66" s="287"/>
-      <c r="P66" s="287"/>
-      <c r="Q66" s="288"/>
-      <c r="R66" s="350" t="s">
+      <c r="L66" s="296"/>
+      <c r="M66" s="296"/>
+      <c r="N66" s="296"/>
+      <c r="O66" s="296"/>
+      <c r="P66" s="296"/>
+      <c r="Q66" s="297"/>
+      <c r="R66" s="295" t="s">
         <v>95</v>
       </c>
-      <c r="S66" s="287"/>
-      <c r="T66" s="287"/>
-      <c r="U66" s="287"/>
-      <c r="V66" s="287"/>
-      <c r="W66" s="287"/>
-      <c r="X66" s="287"/>
-      <c r="Y66" s="288"/>
-      <c r="Z66" s="350" t="s">
+      <c r="S66" s="296"/>
+      <c r="T66" s="296"/>
+      <c r="U66" s="296"/>
+      <c r="V66" s="296"/>
+      <c r="W66" s="296"/>
+      <c r="X66" s="296"/>
+      <c r="Y66" s="297"/>
+      <c r="Z66" s="295" t="s">
         <v>39</v>
       </c>
-      <c r="AA66" s="287"/>
-      <c r="AB66" s="287"/>
-      <c r="AC66" s="287"/>
-      <c r="AD66" s="288"/>
-      <c r="AE66" s="357" t="s">
+      <c r="AA66" s="296"/>
+      <c r="AB66" s="296"/>
+      <c r="AC66" s="296"/>
+      <c r="AD66" s="297"/>
+      <c r="AE66" s="322" t="s">
         <v>96</v>
       </c>
-      <c r="AF66" s="358"/>
-      <c r="AG66" s="358"/>
-      <c r="AH66" s="359"/>
-    </row>
-    <row r="67" spans="1:58" ht="27" customHeight="1">
+      <c r="AF66" s="323"/>
+      <c r="AG66" s="323"/>
+      <c r="AH66" s="324"/>
+    </row>
+    <row r="67" spans="1:58" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D67" s="121">
         <v>2</v>
       </c>
-      <c r="E67" s="353" t="s">
+      <c r="E67" s="328" t="s">
         <v>51</v>
       </c>
-      <c r="F67" s="354"/>
-      <c r="G67" s="354"/>
-      <c r="H67" s="354"/>
-      <c r="I67" s="354"/>
-      <c r="J67" s="355"/>
-      <c r="K67" s="350" t="s">
+      <c r="F67" s="329"/>
+      <c r="G67" s="329"/>
+      <c r="H67" s="329"/>
+      <c r="I67" s="329"/>
+      <c r="J67" s="330"/>
+      <c r="K67" s="295" t="s">
         <v>97</v>
       </c>
-      <c r="L67" s="287"/>
-      <c r="M67" s="287"/>
-      <c r="N67" s="287"/>
-      <c r="O67" s="287"/>
-      <c r="P67" s="287"/>
-      <c r="Q67" s="288"/>
-      <c r="R67" s="350" t="s">
+      <c r="L67" s="296"/>
+      <c r="M67" s="296"/>
+      <c r="N67" s="296"/>
+      <c r="O67" s="296"/>
+      <c r="P67" s="296"/>
+      <c r="Q67" s="297"/>
+      <c r="R67" s="295" t="s">
         <v>98</v>
       </c>
-      <c r="S67" s="287"/>
-      <c r="T67" s="287"/>
-      <c r="U67" s="287"/>
-      <c r="V67" s="287"/>
-      <c r="W67" s="287"/>
-      <c r="X67" s="287"/>
-      <c r="Y67" s="288"/>
-      <c r="Z67" s="350" t="s">
+      <c r="S67" s="296"/>
+      <c r="T67" s="296"/>
+      <c r="U67" s="296"/>
+      <c r="V67" s="296"/>
+      <c r="W67" s="296"/>
+      <c r="X67" s="296"/>
+      <c r="Y67" s="297"/>
+      <c r="Z67" s="295" t="s">
         <v>99</v>
       </c>
-      <c r="AA67" s="287"/>
-      <c r="AB67" s="287"/>
-      <c r="AC67" s="287"/>
-      <c r="AD67" s="288"/>
-      <c r="AE67" s="357" t="s">
+      <c r="AA67" s="296"/>
+      <c r="AB67" s="296"/>
+      <c r="AC67" s="296"/>
+      <c r="AD67" s="297"/>
+      <c r="AE67" s="322" t="s">
         <v>96</v>
       </c>
-      <c r="AF67" s="358"/>
-      <c r="AG67" s="358"/>
-      <c r="AH67" s="359"/>
-    </row>
-    <row r="68" spans="1:58" s="56" customFormat="1">
+      <c r="AF67" s="323"/>
+      <c r="AG67" s="323"/>
+      <c r="AH67" s="324"/>
+    </row>
+    <row r="68" spans="1:58" s="56" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D68" s="122"/>
       <c r="E68" s="123"/>
       <c r="F68" s="123"/>
@@ -8664,7 +8554,7 @@
       <c r="AO68" s="38"/>
       <c r="AP68" s="38"/>
     </row>
-    <row r="69" spans="1:58">
+    <row r="69" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A69" s="42"/>
       <c r="B69" s="42"/>
       <c r="C69" s="42"/>
@@ -8716,7 +8606,7 @@
       <c r="BA69" s="42"/>
       <c r="BB69" s="42"/>
     </row>
-    <row r="70" spans="1:58">
+    <row r="70" spans="1:58" x14ac:dyDescent="0.2">
       <c r="C70" s="42" t="s">
         <v>49</v>
       </c>
@@ -8742,7 +8632,7 @@
       <c r="BC70" s="42"/>
       <c r="BD70" s="42"/>
     </row>
-    <row r="71" spans="1:58" ht="11.25" customHeight="1">
+    <row r="71" spans="1:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C71" s="42"/>
       <c r="D71" s="124" t="s">
         <v>100</v>
@@ -8764,7 +8654,7 @@
       <c r="BC71" s="42"/>
       <c r="BD71" s="42"/>
     </row>
-    <row r="72" spans="1:58" ht="11.25" customHeight="1">
+    <row r="72" spans="1:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C72" s="42"/>
       <c r="D72" s="124"/>
       <c r="E72" s="124"/>
@@ -8784,7 +8674,7 @@
       <c r="BC72" s="42"/>
       <c r="BD72" s="42"/>
     </row>
-    <row r="73" spans="1:58" s="56" customFormat="1" ht="11.25" customHeight="1">
+    <row r="73" spans="1:58" s="56" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C73" s="38"/>
       <c r="D73" s="124"/>
       <c r="E73" s="124" t="s">
@@ -8792,13 +8682,13 @@
       </c>
       <c r="AP73" s="38"/>
     </row>
-    <row r="74" spans="1:58">
+    <row r="74" spans="1:58" x14ac:dyDescent="0.2">
       <c r="C74" s="42"/>
       <c r="D74" s="124"/>
       <c r="E74" s="124"/>
       <c r="F74" s="124"/>
     </row>
-    <row r="75" spans="1:58" ht="11.25" customHeight="1">
+    <row r="75" spans="1:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C75" s="42"/>
       <c r="D75" s="124"/>
       <c r="E75" s="124"/>
@@ -8807,7 +8697,7 @@
       </c>
       <c r="AP75" s="42"/>
     </row>
-    <row r="76" spans="1:58" s="56" customFormat="1">
+    <row r="76" spans="1:58" s="56" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="38"/>
       <c r="B76" s="44"/>
       <c r="C76" s="38"/>
@@ -8844,7 +8734,7 @@
       <c r="AI76" s="126"/>
       <c r="AJ76" s="107"/>
     </row>
-    <row r="77" spans="1:58" s="56" customFormat="1">
+    <row r="77" spans="1:58" s="56" customFormat="1" x14ac:dyDescent="0.2">
       <c r="AI77" s="127"/>
       <c r="AJ77" s="127"/>
       <c r="AK77" s="127"/>
@@ -8869,7 +8759,7 @@
       <c r="BD77" s="127"/>
       <c r="BE77" s="127"/>
     </row>
-    <row r="78" spans="1:58">
+    <row r="78" spans="1:58" x14ac:dyDescent="0.2">
       <c r="E78" s="54" t="s">
         <v>103</v>
       </c>
@@ -8898,7 +8788,7 @@
       <c r="BE78" s="128"/>
       <c r="BF78" s="128"/>
     </row>
-    <row r="79" spans="1:58">
+    <row r="79" spans="1:58" x14ac:dyDescent="0.2">
       <c r="H79" s="44"/>
       <c r="AJ79" s="128"/>
       <c r="AK79" s="128"/>
@@ -8924,7 +8814,7 @@
       <c r="BE79" s="128"/>
       <c r="BF79" s="128"/>
     </row>
-    <row r="80" spans="1:58">
+    <row r="80" spans="1:58" x14ac:dyDescent="0.2">
       <c r="E80" s="66"/>
       <c r="F80" s="66" t="s">
         <v>95</v>
@@ -8953,7 +8843,7 @@
       <c r="BE80" s="128"/>
       <c r="BF80" s="128"/>
     </row>
-    <row r="81" spans="1:58">
+    <row r="81" spans="1:58" x14ac:dyDescent="0.2">
       <c r="E81" s="66"/>
       <c r="F81" s="129"/>
       <c r="G81" s="66"/>
@@ -8981,7 +8871,7 @@
       <c r="BE81" s="128"/>
       <c r="BF81" s="128"/>
     </row>
-    <row r="82" spans="1:58">
+    <row r="82" spans="1:58" x14ac:dyDescent="0.2">
       <c r="E82" s="66"/>
       <c r="AJ82" s="128"/>
       <c r="AK82" s="128"/>
@@ -9007,7 +8897,7 @@
       <c r="BE82" s="128"/>
       <c r="BF82" s="128"/>
     </row>
-    <row r="83" spans="1:58" ht="11.25" customHeight="1">
+    <row r="83" spans="1:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C83" s="42"/>
       <c r="D83" s="124" t="s">
         <v>104</v>
@@ -9029,7 +8919,7 @@
       <c r="BC83" s="42"/>
       <c r="BD83" s="42"/>
     </row>
-    <row r="84" spans="1:58" ht="11.25" customHeight="1">
+    <row r="84" spans="1:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C84" s="42"/>
       <c r="D84" s="124"/>
       <c r="E84" s="124"/>
@@ -9049,7 +8939,7 @@
       <c r="BC84" s="42"/>
       <c r="BD84" s="42"/>
     </row>
-    <row r="85" spans="1:58" s="56" customFormat="1" ht="11.25" customHeight="1">
+    <row r="85" spans="1:58" s="56" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C85" s="38"/>
       <c r="D85" s="124"/>
       <c r="E85" s="124" t="s">
@@ -9057,13 +8947,13 @@
       </c>
       <c r="AP85" s="38"/>
     </row>
-    <row r="86" spans="1:58">
+    <row r="86" spans="1:58" x14ac:dyDescent="0.2">
       <c r="C86" s="42"/>
       <c r="D86" s="124"/>
       <c r="E86" s="124"/>
       <c r="F86" s="124"/>
     </row>
-    <row r="87" spans="1:58" ht="41.25" customHeight="1">
+    <row r="87" spans="1:58" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D87" s="42"/>
       <c r="E87" s="124"/>
       <c r="F87" s="130" t="s">
@@ -9072,40 +8962,40 @@
       <c r="G87" s="274" t="s">
         <v>105</v>
       </c>
-      <c r="H87" s="315"/>
-      <c r="I87" s="315"/>
-      <c r="J87" s="315"/>
-      <c r="K87" s="315"/>
-      <c r="L87" s="316"/>
+      <c r="H87" s="335"/>
+      <c r="I87" s="335"/>
+      <c r="J87" s="335"/>
+      <c r="K87" s="335"/>
+      <c r="L87" s="337"/>
       <c r="M87" s="274" t="s">
         <v>106</v>
       </c>
-      <c r="N87" s="315"/>
-      <c r="O87" s="315"/>
-      <c r="P87" s="315"/>
-      <c r="Q87" s="315"/>
-      <c r="R87" s="315"/>
-      <c r="S87" s="315"/>
-      <c r="T87" s="315"/>
-      <c r="U87" s="315"/>
-      <c r="V87" s="316"/>
-      <c r="W87" s="326" t="s">
+      <c r="N87" s="335"/>
+      <c r="O87" s="335"/>
+      <c r="P87" s="335"/>
+      <c r="Q87" s="335"/>
+      <c r="R87" s="335"/>
+      <c r="S87" s="335"/>
+      <c r="T87" s="335"/>
+      <c r="U87" s="335"/>
+      <c r="V87" s="337"/>
+      <c r="W87" s="364" t="s">
         <v>107</v>
       </c>
-      <c r="X87" s="327"/>
-      <c r="Y87" s="328"/>
-      <c r="Z87" s="326" t="s">
+      <c r="X87" s="365"/>
+      <c r="Y87" s="366"/>
+      <c r="Z87" s="364" t="s">
         <v>108</v>
       </c>
-      <c r="AA87" s="327"/>
-      <c r="AB87" s="327"/>
-      <c r="AC87" s="328"/>
-      <c r="AD87" s="309" t="s">
+      <c r="AA87" s="365"/>
+      <c r="AB87" s="365"/>
+      <c r="AC87" s="366"/>
+      <c r="AD87" s="352" t="s">
         <v>109</v>
       </c>
-      <c r="AE87" s="310"/>
-      <c r="AF87" s="310"/>
-      <c r="AG87" s="311"/>
+      <c r="AE87" s="353"/>
+      <c r="AF87" s="353"/>
+      <c r="AG87" s="354"/>
       <c r="AJ87" s="127"/>
       <c r="AK87" s="127"/>
       <c r="AL87" s="127"/>
@@ -9129,49 +9019,49 @@
       <c r="BD87" s="128"/>
       <c r="BE87" s="128"/>
     </row>
-    <row r="88" spans="1:58" ht="47.25" customHeight="1">
+    <row r="88" spans="1:58" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D88" s="42"/>
       <c r="E88" s="124"/>
       <c r="F88" s="131">
         <v>1</v>
       </c>
-      <c r="G88" s="312" t="s">
+      <c r="G88" s="311" t="s">
         <v>110</v>
       </c>
-      <c r="H88" s="313"/>
-      <c r="I88" s="313"/>
-      <c r="J88" s="313"/>
-      <c r="K88" s="313"/>
-      <c r="L88" s="314"/>
-      <c r="M88" s="312" t="s">
+      <c r="H88" s="312"/>
+      <c r="I88" s="312"/>
+      <c r="J88" s="312"/>
+      <c r="K88" s="312"/>
+      <c r="L88" s="313"/>
+      <c r="M88" s="311" t="s">
         <v>111</v>
       </c>
-      <c r="N88" s="313"/>
-      <c r="O88" s="313"/>
-      <c r="P88" s="313"/>
-      <c r="Q88" s="313"/>
-      <c r="R88" s="313"/>
-      <c r="S88" s="313"/>
-      <c r="T88" s="313"/>
-      <c r="U88" s="313"/>
-      <c r="V88" s="314"/>
-      <c r="W88" s="317" t="s">
+      <c r="N88" s="312"/>
+      <c r="O88" s="312"/>
+      <c r="P88" s="312"/>
+      <c r="Q88" s="312"/>
+      <c r="R88" s="312"/>
+      <c r="S88" s="312"/>
+      <c r="T88" s="312"/>
+      <c r="U88" s="312"/>
+      <c r="V88" s="313"/>
+      <c r="W88" s="355" t="s">
         <v>112</v>
       </c>
-      <c r="X88" s="318"/>
-      <c r="Y88" s="319"/>
-      <c r="Z88" s="323" t="s">
+      <c r="X88" s="356"/>
+      <c r="Y88" s="357"/>
+      <c r="Z88" s="361" t="s">
         <v>112</v>
       </c>
-      <c r="AA88" s="324"/>
-      <c r="AB88" s="324"/>
-      <c r="AC88" s="325"/>
-      <c r="AD88" s="312" t="s">
+      <c r="AA88" s="362"/>
+      <c r="AB88" s="362"/>
+      <c r="AC88" s="363"/>
+      <c r="AD88" s="311" t="s">
         <v>113</v>
       </c>
-      <c r="AE88" s="313"/>
-      <c r="AF88" s="313"/>
-      <c r="AG88" s="314"/>
+      <c r="AE88" s="312"/>
+      <c r="AF88" s="312"/>
+      <c r="AG88" s="313"/>
       <c r="AI88" s="127"/>
       <c r="AJ88" s="127"/>
       <c r="AK88" s="127"/>
@@ -9196,7 +9086,7 @@
       <c r="BD88" s="128"/>
       <c r="BE88" s="128"/>
     </row>
-    <row r="89" spans="1:58">
+    <row r="89" spans="1:58" x14ac:dyDescent="0.2">
       <c r="D89" s="42"/>
       <c r="E89" s="124"/>
       <c r="F89" s="56"/>
@@ -9252,19 +9142,19 @@
       <c r="BD89" s="128"/>
       <c r="BE89" s="128"/>
     </row>
-    <row r="90" spans="1:58" s="56" customFormat="1">
+    <row r="90" spans="1:58" s="56" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D90" s="38"/>
       <c r="E90" s="124"/>
       <c r="F90" s="56" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="91" spans="1:58" s="56" customFormat="1">
+    <row r="91" spans="1:58" s="56" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D91" s="38"/>
       <c r="E91" s="124"/>
       <c r="F91" s="124"/>
     </row>
-    <row r="92" spans="1:58" s="56" customFormat="1">
+    <row r="92" spans="1:58" s="56" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A92" s="38"/>
       <c r="B92" s="44"/>
       <c r="C92" s="38"/>
@@ -9301,87 +9191,87 @@
       <c r="AI92" s="126"/>
       <c r="AJ92" s="107"/>
     </row>
-    <row r="93" spans="1:58" ht="11.25" customHeight="1">
+    <row r="93" spans="1:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C93" s="42"/>
       <c r="D93" s="124"/>
       <c r="E93" s="124"/>
       <c r="AP93" s="42"/>
     </row>
-    <row r="94" spans="1:58">
+    <row r="94" spans="1:58" x14ac:dyDescent="0.2">
       <c r="E94" s="54" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="95" spans="1:58">
+    <row r="95" spans="1:58" x14ac:dyDescent="0.2">
       <c r="F95" s="54" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="97" spans="5:58" s="56" customFormat="1">
-      <c r="G97" s="294" t="s">
+    <row r="97" spans="5:58" s="56" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G97" s="367" t="s">
         <v>117</v>
       </c>
-      <c r="H97" s="295"/>
-      <c r="I97" s="295"/>
-      <c r="J97" s="295"/>
-      <c r="K97" s="295"/>
-      <c r="L97" s="295"/>
-      <c r="M97" s="295"/>
-      <c r="N97" s="295"/>
-      <c r="O97" s="295"/>
-      <c r="P97" s="296"/>
-      <c r="Q97" s="329" t="s">
+      <c r="H97" s="368"/>
+      <c r="I97" s="368"/>
+      <c r="J97" s="368"/>
+      <c r="K97" s="368"/>
+      <c r="L97" s="368"/>
+      <c r="M97" s="368"/>
+      <c r="N97" s="368"/>
+      <c r="O97" s="368"/>
+      <c r="P97" s="369"/>
+      <c r="Q97" s="370" t="s">
         <v>118</v>
       </c>
-      <c r="R97" s="330"/>
-      <c r="S97" s="330"/>
-      <c r="T97" s="330"/>
-      <c r="U97" s="330"/>
-      <c r="V97" s="330"/>
-      <c r="W97" s="330"/>
-      <c r="X97" s="330"/>
-      <c r="Y97" s="330"/>
-      <c r="Z97" s="331"/>
-    </row>
-    <row r="98" spans="5:58" ht="11.25" customHeight="1">
-      <c r="G98" s="297" t="s">
+      <c r="R97" s="371"/>
+      <c r="S97" s="371"/>
+      <c r="T97" s="371"/>
+      <c r="U97" s="371"/>
+      <c r="V97" s="371"/>
+      <c r="W97" s="371"/>
+      <c r="X97" s="371"/>
+      <c r="Y97" s="371"/>
+      <c r="Z97" s="372"/>
+    </row>
+    <row r="98" spans="5:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G98" s="343" t="s">
         <v>86</v>
       </c>
-      <c r="H98" s="298"/>
-      <c r="I98" s="298"/>
-      <c r="J98" s="298"/>
-      <c r="K98" s="298"/>
-      <c r="L98" s="298"/>
-      <c r="M98" s="298"/>
-      <c r="N98" s="298"/>
-      <c r="O98" s="298"/>
-      <c r="P98" s="299"/>
-      <c r="Q98" s="303" t="s">
+      <c r="H98" s="344"/>
+      <c r="I98" s="344"/>
+      <c r="J98" s="344"/>
+      <c r="K98" s="344"/>
+      <c r="L98" s="344"/>
+      <c r="M98" s="344"/>
+      <c r="N98" s="344"/>
+      <c r="O98" s="344"/>
+      <c r="P98" s="345"/>
+      <c r="Q98" s="338" t="s">
         <v>68</v>
       </c>
-      <c r="R98" s="304"/>
-      <c r="S98" s="304"/>
-      <c r="T98" s="304"/>
-      <c r="U98" s="304"/>
-      <c r="V98" s="304"/>
-      <c r="W98" s="304"/>
-      <c r="X98" s="304"/>
-      <c r="Y98" s="304"/>
-      <c r="Z98" s="305"/>
+      <c r="R98" s="339"/>
+      <c r="S98" s="339"/>
+      <c r="T98" s="339"/>
+      <c r="U98" s="339"/>
+      <c r="V98" s="339"/>
+      <c r="W98" s="339"/>
+      <c r="X98" s="339"/>
+      <c r="Y98" s="339"/>
+      <c r="Z98" s="340"/>
       <c r="AG98" s="132"/>
       <c r="AH98" s="132"/>
     </row>
-    <row r="99" spans="5:58" ht="11.25" customHeight="1">
-      <c r="G99" s="300"/>
-      <c r="H99" s="301"/>
-      <c r="I99" s="301"/>
-      <c r="J99" s="301"/>
-      <c r="K99" s="301"/>
-      <c r="L99" s="301"/>
-      <c r="M99" s="301"/>
-      <c r="N99" s="301"/>
-      <c r="O99" s="301"/>
-      <c r="P99" s="302"/>
+    <row r="99" spans="5:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G99" s="346"/>
+      <c r="H99" s="347"/>
+      <c r="I99" s="347"/>
+      <c r="J99" s="347"/>
+      <c r="K99" s="347"/>
+      <c r="L99" s="347"/>
+      <c r="M99" s="347"/>
+      <c r="N99" s="347"/>
+      <c r="O99" s="347"/>
+      <c r="P99" s="348"/>
       <c r="Q99" s="133" t="s">
         <v>119</v>
       </c>
@@ -9397,17 +9287,17 @@
       <c r="AG99" s="132"/>
       <c r="AH99" s="132"/>
     </row>
-    <row r="100" spans="5:58" ht="11.25" customHeight="1">
-      <c r="G100" s="300"/>
-      <c r="H100" s="301"/>
-      <c r="I100" s="301"/>
-      <c r="J100" s="301"/>
-      <c r="K100" s="301"/>
-      <c r="L100" s="301"/>
-      <c r="M100" s="301"/>
-      <c r="N100" s="301"/>
-      <c r="O100" s="301"/>
-      <c r="P100" s="302"/>
+    <row r="100" spans="5:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G100" s="346"/>
+      <c r="H100" s="347"/>
+      <c r="I100" s="347"/>
+      <c r="J100" s="347"/>
+      <c r="K100" s="347"/>
+      <c r="L100" s="347"/>
+      <c r="M100" s="347"/>
+      <c r="N100" s="347"/>
+      <c r="O100" s="347"/>
+      <c r="P100" s="348"/>
       <c r="Q100" s="133" t="s">
         <v>72</v>
       </c>
@@ -9423,17 +9313,17 @@
       <c r="AG100" s="132"/>
       <c r="AH100" s="132"/>
     </row>
-    <row r="101" spans="5:58" ht="11.25" customHeight="1">
-      <c r="G101" s="300"/>
-      <c r="H101" s="301"/>
-      <c r="I101" s="301"/>
-      <c r="J101" s="301"/>
-      <c r="K101" s="301"/>
-      <c r="L101" s="301"/>
-      <c r="M101" s="301"/>
-      <c r="N101" s="301"/>
-      <c r="O101" s="301"/>
-      <c r="P101" s="302"/>
+    <row r="101" spans="5:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G101" s="346"/>
+      <c r="H101" s="347"/>
+      <c r="I101" s="347"/>
+      <c r="J101" s="347"/>
+      <c r="K101" s="347"/>
+      <c r="L101" s="347"/>
+      <c r="M101" s="347"/>
+      <c r="N101" s="347"/>
+      <c r="O101" s="347"/>
+      <c r="P101" s="348"/>
       <c r="Q101" s="133" t="s">
         <v>120</v>
       </c>
@@ -9449,55 +9339,55 @@
       <c r="AG101" s="132"/>
       <c r="AH101" s="132"/>
     </row>
-    <row r="102" spans="5:58" ht="11.25" customHeight="1">
-      <c r="G102" s="300"/>
-      <c r="H102" s="301"/>
-      <c r="I102" s="301"/>
-      <c r="J102" s="301"/>
-      <c r="K102" s="301"/>
-      <c r="L102" s="301"/>
-      <c r="M102" s="301"/>
-      <c r="N102" s="301"/>
-      <c r="O102" s="301"/>
-      <c r="P102" s="302"/>
-      <c r="Q102" s="303" t="s">
+    <row r="102" spans="5:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G102" s="346"/>
+      <c r="H102" s="347"/>
+      <c r="I102" s="347"/>
+      <c r="J102" s="347"/>
+      <c r="K102" s="347"/>
+      <c r="L102" s="347"/>
+      <c r="M102" s="347"/>
+      <c r="N102" s="347"/>
+      <c r="O102" s="347"/>
+      <c r="P102" s="348"/>
+      <c r="Q102" s="338" t="s">
         <v>121</v>
       </c>
-      <c r="R102" s="304"/>
-      <c r="S102" s="304"/>
-      <c r="T102" s="304"/>
-      <c r="U102" s="304"/>
-      <c r="V102" s="304"/>
-      <c r="W102" s="304"/>
-      <c r="X102" s="304"/>
-      <c r="Y102" s="304"/>
-      <c r="Z102" s="305"/>
+      <c r="R102" s="339"/>
+      <c r="S102" s="339"/>
+      <c r="T102" s="339"/>
+      <c r="U102" s="339"/>
+      <c r="V102" s="339"/>
+      <c r="W102" s="339"/>
+      <c r="X102" s="339"/>
+      <c r="Y102" s="339"/>
+      <c r="Z102" s="340"/>
       <c r="AG102" s="132"/>
       <c r="AH102" s="132"/>
     </row>
-    <row r="103" spans="5:58">
-      <c r="G103" s="300"/>
-      <c r="H103" s="301"/>
-      <c r="I103" s="301"/>
-      <c r="J103" s="301"/>
-      <c r="K103" s="301"/>
-      <c r="L103" s="301"/>
-      <c r="M103" s="301"/>
-      <c r="N103" s="301"/>
-      <c r="O103" s="301"/>
-      <c r="P103" s="302"/>
-      <c r="Q103" s="303" t="s">
+    <row r="103" spans="5:58" x14ac:dyDescent="0.2">
+      <c r="G103" s="346"/>
+      <c r="H103" s="347"/>
+      <c r="I103" s="347"/>
+      <c r="J103" s="347"/>
+      <c r="K103" s="347"/>
+      <c r="L103" s="347"/>
+      <c r="M103" s="347"/>
+      <c r="N103" s="347"/>
+      <c r="O103" s="347"/>
+      <c r="P103" s="348"/>
+      <c r="Q103" s="338" t="s">
         <v>122</v>
       </c>
-      <c r="R103" s="304"/>
-      <c r="S103" s="304"/>
-      <c r="T103" s="304"/>
-      <c r="U103" s="304"/>
-      <c r="V103" s="304"/>
-      <c r="W103" s="304"/>
-      <c r="X103" s="304"/>
-      <c r="Y103" s="304"/>
-      <c r="Z103" s="305"/>
+      <c r="R103" s="339"/>
+      <c r="S103" s="339"/>
+      <c r="T103" s="339"/>
+      <c r="U103" s="339"/>
+      <c r="V103" s="339"/>
+      <c r="W103" s="339"/>
+      <c r="X103" s="339"/>
+      <c r="Y103" s="339"/>
+      <c r="Z103" s="340"/>
       <c r="AC103" s="128"/>
       <c r="AD103" s="128"/>
       <c r="AE103" s="128"/>
@@ -9515,31 +9405,31 @@
       <c r="AX103" s="128"/>
       <c r="AY103" s="128"/>
     </row>
-    <row r="104" spans="5:58">
-      <c r="G104" s="297" t="s">
+    <row r="104" spans="5:58" x14ac:dyDescent="0.2">
+      <c r="G104" s="343" t="s">
         <v>123</v>
       </c>
-      <c r="H104" s="298"/>
-      <c r="I104" s="298"/>
-      <c r="J104" s="298"/>
-      <c r="K104" s="298"/>
-      <c r="L104" s="298"/>
-      <c r="M104" s="298"/>
-      <c r="N104" s="298"/>
-      <c r="O104" s="298"/>
-      <c r="P104" s="299"/>
-      <c r="Q104" s="303" t="s">
+      <c r="H104" s="344"/>
+      <c r="I104" s="344"/>
+      <c r="J104" s="344"/>
+      <c r="K104" s="344"/>
+      <c r="L104" s="344"/>
+      <c r="M104" s="344"/>
+      <c r="N104" s="344"/>
+      <c r="O104" s="344"/>
+      <c r="P104" s="345"/>
+      <c r="Q104" s="338" t="s">
         <v>124</v>
       </c>
-      <c r="R104" s="304"/>
-      <c r="S104" s="304"/>
-      <c r="T104" s="304"/>
-      <c r="U104" s="304"/>
-      <c r="V104" s="304"/>
-      <c r="W104" s="304"/>
-      <c r="X104" s="304"/>
-      <c r="Y104" s="304"/>
-      <c r="Z104" s="305"/>
+      <c r="R104" s="339"/>
+      <c r="S104" s="339"/>
+      <c r="T104" s="339"/>
+      <c r="U104" s="339"/>
+      <c r="V104" s="339"/>
+      <c r="W104" s="339"/>
+      <c r="X104" s="339"/>
+      <c r="Y104" s="339"/>
+      <c r="Z104" s="340"/>
       <c r="AC104" s="128"/>
       <c r="AD104" s="128"/>
       <c r="AE104" s="128"/>
@@ -9557,29 +9447,29 @@
       <c r="AX104" s="128"/>
       <c r="AY104" s="128"/>
     </row>
-    <row r="105" spans="5:58">
-      <c r="G105" s="320"/>
-      <c r="H105" s="321"/>
-      <c r="I105" s="321"/>
-      <c r="J105" s="321"/>
-      <c r="K105" s="321"/>
-      <c r="L105" s="321"/>
-      <c r="M105" s="321"/>
-      <c r="N105" s="321"/>
-      <c r="O105" s="321"/>
-      <c r="P105" s="322"/>
-      <c r="Q105" s="303" t="s">
+    <row r="105" spans="5:58" x14ac:dyDescent="0.2">
+      <c r="G105" s="358"/>
+      <c r="H105" s="359"/>
+      <c r="I105" s="359"/>
+      <c r="J105" s="359"/>
+      <c r="K105" s="359"/>
+      <c r="L105" s="359"/>
+      <c r="M105" s="359"/>
+      <c r="N105" s="359"/>
+      <c r="O105" s="359"/>
+      <c r="P105" s="360"/>
+      <c r="Q105" s="338" t="s">
         <v>125</v>
       </c>
-      <c r="R105" s="304"/>
-      <c r="S105" s="304"/>
-      <c r="T105" s="304"/>
-      <c r="U105" s="304"/>
-      <c r="V105" s="304"/>
-      <c r="W105" s="304"/>
-      <c r="X105" s="304"/>
-      <c r="Y105" s="304"/>
-      <c r="Z105" s="305"/>
+      <c r="R105" s="339"/>
+      <c r="S105" s="339"/>
+      <c r="T105" s="339"/>
+      <c r="U105" s="339"/>
+      <c r="V105" s="339"/>
+      <c r="W105" s="339"/>
+      <c r="X105" s="339"/>
+      <c r="Y105" s="339"/>
+      <c r="Z105" s="340"/>
       <c r="AC105" s="128"/>
       <c r="AD105" s="128"/>
       <c r="AE105" s="128"/>
@@ -9597,29 +9487,29 @@
       <c r="AX105" s="128"/>
       <c r="AY105" s="128"/>
     </row>
-    <row r="106" spans="5:58">
-      <c r="G106" s="306" t="s">
+    <row r="106" spans="5:58" x14ac:dyDescent="0.2">
+      <c r="G106" s="349" t="s">
         <v>126</v>
       </c>
-      <c r="H106" s="307"/>
-      <c r="I106" s="307"/>
-      <c r="J106" s="307"/>
-      <c r="K106" s="307"/>
-      <c r="L106" s="307"/>
-      <c r="M106" s="307"/>
-      <c r="N106" s="307"/>
-      <c r="O106" s="307"/>
-      <c r="P106" s="307"/>
-      <c r="Q106" s="307"/>
-      <c r="R106" s="307"/>
-      <c r="S106" s="307"/>
-      <c r="T106" s="307"/>
-      <c r="U106" s="307"/>
-      <c r="V106" s="307"/>
-      <c r="W106" s="307"/>
-      <c r="X106" s="307"/>
-      <c r="Y106" s="307"/>
-      <c r="Z106" s="308"/>
+      <c r="H106" s="350"/>
+      <c r="I106" s="350"/>
+      <c r="J106" s="350"/>
+      <c r="K106" s="350"/>
+      <c r="L106" s="350"/>
+      <c r="M106" s="350"/>
+      <c r="N106" s="350"/>
+      <c r="O106" s="350"/>
+      <c r="P106" s="350"/>
+      <c r="Q106" s="350"/>
+      <c r="R106" s="350"/>
+      <c r="S106" s="350"/>
+      <c r="T106" s="350"/>
+      <c r="U106" s="350"/>
+      <c r="V106" s="350"/>
+      <c r="W106" s="350"/>
+      <c r="X106" s="350"/>
+      <c r="Y106" s="350"/>
+      <c r="Z106" s="351"/>
       <c r="AJ106" s="128"/>
       <c r="AK106" s="128"/>
       <c r="AL106" s="128"/>
@@ -9644,7 +9534,7 @@
       <c r="BE106" s="128"/>
       <c r="BF106" s="128"/>
     </row>
-    <row r="107" spans="5:58">
+    <row r="107" spans="5:58" x14ac:dyDescent="0.2">
       <c r="G107" s="136"/>
       <c r="H107" s="137"/>
       <c r="I107" s="137"/>
@@ -9689,7 +9579,7 @@
       <c r="BE107" s="128"/>
       <c r="BF107" s="128"/>
     </row>
-    <row r="108" spans="5:58">
+    <row r="108" spans="5:58" x14ac:dyDescent="0.2">
       <c r="G108" s="139"/>
       <c r="H108" s="140" t="s">
         <v>127</v>
@@ -9738,7 +9628,7 @@
       <c r="BE108" s="128"/>
       <c r="BF108" s="128"/>
     </row>
-    <row r="109" spans="5:58">
+    <row r="109" spans="5:58" x14ac:dyDescent="0.2">
       <c r="G109" s="144"/>
       <c r="H109" s="145"/>
       <c r="I109" s="145"/>
@@ -9783,7 +9673,7 @@
       <c r="BE109" s="128"/>
       <c r="BF109" s="128"/>
     </row>
-    <row r="110" spans="5:58">
+    <row r="110" spans="5:58" x14ac:dyDescent="0.2">
       <c r="G110" s="140"/>
       <c r="H110" s="140"/>
       <c r="I110" s="140"/>
@@ -9828,7 +9718,7 @@
       <c r="BE110" s="128"/>
       <c r="BF110" s="128"/>
     </row>
-    <row r="111" spans="5:58" s="56" customFormat="1">
+    <row r="111" spans="5:58" s="56" customFormat="1" x14ac:dyDescent="0.2">
       <c r="AI111" s="127"/>
       <c r="AJ111" s="127"/>
       <c r="AK111" s="127"/>
@@ -9853,7 +9743,7 @@
       <c r="BD111" s="127"/>
       <c r="BE111" s="127"/>
     </row>
-    <row r="112" spans="5:58">
+    <row r="112" spans="5:58" x14ac:dyDescent="0.2">
       <c r="E112" s="54" t="s">
         <v>130</v>
       </c>
@@ -9882,11 +9772,11 @@
       <c r="BE112" s="128"/>
       <c r="BF112" s="128"/>
     </row>
-    <row r="113" spans="4:58" s="56" customFormat="1">
+    <row r="113" spans="4:58" s="56" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D113" s="38"/>
       <c r="E113" s="124"/>
     </row>
-    <row r="114" spans="4:58">
+    <row r="114" spans="4:58" x14ac:dyDescent="0.2">
       <c r="E114" s="66"/>
       <c r="F114" s="66" t="s">
         <v>131</v>
@@ -9915,7 +9805,7 @@
       <c r="BE114" s="128"/>
       <c r="BF114" s="128"/>
     </row>
-    <row r="115" spans="4:58">
+    <row r="115" spans="4:58" x14ac:dyDescent="0.2">
       <c r="E115" s="66"/>
       <c r="F115" s="129"/>
       <c r="G115" s="66" t="s">
@@ -9945,7 +9835,7 @@
       <c r="BE115" s="128"/>
       <c r="BF115" s="128"/>
     </row>
-    <row r="116" spans="4:58">
+    <row r="116" spans="4:58" x14ac:dyDescent="0.2">
       <c r="E116" s="66"/>
       <c r="F116" s="129"/>
       <c r="H116" s="73" t="s">
@@ -9982,7 +9872,7 @@
       <c r="BE116" s="128"/>
       <c r="BF116" s="128"/>
     </row>
-    <row r="117" spans="4:58">
+    <row r="117" spans="4:58" x14ac:dyDescent="0.2">
       <c r="E117" s="66"/>
       <c r="F117" s="129"/>
       <c r="G117" s="66"/>
@@ -10010,7 +9900,7 @@
       <c r="BE117" s="128"/>
       <c r="BF117" s="128"/>
     </row>
-    <row r="118" spans="4:58">
+    <row r="118" spans="4:58" x14ac:dyDescent="0.2">
       <c r="E118" s="66"/>
       <c r="F118" s="66" t="s">
         <v>134</v>
@@ -10039,38 +9929,38 @@
       <c r="BE118" s="128"/>
       <c r="BF118" s="128"/>
     </row>
-    <row r="119" spans="4:58">
+    <row r="119" spans="4:58" x14ac:dyDescent="0.2">
       <c r="E119" s="66"/>
       <c r="F119" s="129"/>
-      <c r="G119" s="282" t="s">
+      <c r="G119" s="373" t="s">
         <v>135</v>
       </c>
-      <c r="H119" s="282"/>
-      <c r="I119" s="282"/>
-      <c r="J119" s="282"/>
-      <c r="K119" s="282"/>
-      <c r="L119" s="282"/>
-      <c r="M119" s="282"/>
-      <c r="N119" s="282"/>
-      <c r="O119" s="282"/>
-      <c r="P119" s="282"/>
-      <c r="Q119" s="282"/>
-      <c r="R119" s="282"/>
-      <c r="S119" s="282"/>
-      <c r="T119" s="282"/>
-      <c r="U119" s="282"/>
-      <c r="V119" s="282"/>
-      <c r="W119" s="282"/>
-      <c r="X119" s="282"/>
-      <c r="Y119" s="282"/>
-      <c r="Z119" s="282"/>
-      <c r="AA119" s="282"/>
-      <c r="AB119" s="282"/>
-      <c r="AC119" s="282"/>
-      <c r="AD119" s="282"/>
-      <c r="AE119" s="282"/>
-      <c r="AF119" s="282"/>
-      <c r="AG119" s="282"/>
+      <c r="H119" s="373"/>
+      <c r="I119" s="373"/>
+      <c r="J119" s="373"/>
+      <c r="K119" s="373"/>
+      <c r="L119" s="373"/>
+      <c r="M119" s="373"/>
+      <c r="N119" s="373"/>
+      <c r="O119" s="373"/>
+      <c r="P119" s="373"/>
+      <c r="Q119" s="373"/>
+      <c r="R119" s="373"/>
+      <c r="S119" s="373"/>
+      <c r="T119" s="373"/>
+      <c r="U119" s="373"/>
+      <c r="V119" s="373"/>
+      <c r="W119" s="373"/>
+      <c r="X119" s="373"/>
+      <c r="Y119" s="373"/>
+      <c r="Z119" s="373"/>
+      <c r="AA119" s="373"/>
+      <c r="AB119" s="373"/>
+      <c r="AC119" s="373"/>
+      <c r="AD119" s="373"/>
+      <c r="AE119" s="373"/>
+      <c r="AF119" s="373"/>
+      <c r="AG119" s="373"/>
       <c r="AJ119" s="128"/>
       <c r="AK119" s="128"/>
       <c r="AL119" s="128"/>
@@ -10095,36 +9985,36 @@
       <c r="BE119" s="128"/>
       <c r="BF119" s="128"/>
     </row>
-    <row r="120" spans="4:58">
+    <row r="120" spans="4:58" x14ac:dyDescent="0.2">
       <c r="E120" s="66"/>
       <c r="F120" s="129"/>
-      <c r="G120" s="282"/>
-      <c r="H120" s="282"/>
-      <c r="I120" s="282"/>
-      <c r="J120" s="282"/>
-      <c r="K120" s="282"/>
-      <c r="L120" s="282"/>
-      <c r="M120" s="282"/>
-      <c r="N120" s="282"/>
-      <c r="O120" s="282"/>
-      <c r="P120" s="282"/>
-      <c r="Q120" s="282"/>
-      <c r="R120" s="282"/>
-      <c r="S120" s="282"/>
-      <c r="T120" s="282"/>
-      <c r="U120" s="282"/>
-      <c r="V120" s="282"/>
-      <c r="W120" s="282"/>
-      <c r="X120" s="282"/>
-      <c r="Y120" s="282"/>
-      <c r="Z120" s="282"/>
-      <c r="AA120" s="282"/>
-      <c r="AB120" s="282"/>
-      <c r="AC120" s="282"/>
-      <c r="AD120" s="282"/>
-      <c r="AE120" s="282"/>
-      <c r="AF120" s="282"/>
-      <c r="AG120" s="282"/>
+      <c r="G120" s="373"/>
+      <c r="H120" s="373"/>
+      <c r="I120" s="373"/>
+      <c r="J120" s="373"/>
+      <c r="K120" s="373"/>
+      <c r="L120" s="373"/>
+      <c r="M120" s="373"/>
+      <c r="N120" s="373"/>
+      <c r="O120" s="373"/>
+      <c r="P120" s="373"/>
+      <c r="Q120" s="373"/>
+      <c r="R120" s="373"/>
+      <c r="S120" s="373"/>
+      <c r="T120" s="373"/>
+      <c r="U120" s="373"/>
+      <c r="V120" s="373"/>
+      <c r="W120" s="373"/>
+      <c r="X120" s="373"/>
+      <c r="Y120" s="373"/>
+      <c r="Z120" s="373"/>
+      <c r="AA120" s="373"/>
+      <c r="AB120" s="373"/>
+      <c r="AC120" s="373"/>
+      <c r="AD120" s="373"/>
+      <c r="AE120" s="373"/>
+      <c r="AF120" s="373"/>
+      <c r="AG120" s="373"/>
       <c r="AJ120" s="128"/>
       <c r="AK120" s="128"/>
       <c r="AL120" s="128"/>
@@ -10149,7 +10039,7 @@
       <c r="BE120" s="128"/>
       <c r="BF120" s="128"/>
     </row>
-    <row r="121" spans="4:58">
+    <row r="121" spans="4:58" x14ac:dyDescent="0.2">
       <c r="E121" s="66"/>
       <c r="F121" s="129"/>
       <c r="G121" s="66"/>
@@ -10180,7 +10070,7 @@
       <c r="BE121" s="128"/>
       <c r="BF121" s="128"/>
     </row>
-    <row r="122" spans="4:58">
+    <row r="122" spans="4:58" x14ac:dyDescent="0.2">
       <c r="E122" s="66"/>
       <c r="F122" s="66" t="s">
         <v>136</v>
@@ -10209,7 +10099,7 @@
       <c r="BE122" s="128"/>
       <c r="BF122" s="128"/>
     </row>
-    <row r="123" spans="4:58">
+    <row r="123" spans="4:58" x14ac:dyDescent="0.2">
       <c r="E123" s="66"/>
       <c r="F123" s="129"/>
       <c r="G123" s="66" t="s">
@@ -10239,7 +10129,7 @@
       <c r="BE123" s="128"/>
       <c r="BF123" s="128"/>
     </row>
-    <row r="124" spans="4:58">
+    <row r="124" spans="4:58" x14ac:dyDescent="0.2">
       <c r="E124" s="66"/>
       <c r="F124" s="129"/>
       <c r="H124" s="73" t="s">
@@ -10275,7 +10165,7 @@
       <c r="BE124" s="128"/>
       <c r="BF124" s="128"/>
     </row>
-    <row r="125" spans="4:58">
+    <row r="125" spans="4:58" x14ac:dyDescent="0.2">
       <c r="E125" s="66"/>
       <c r="F125" s="129"/>
       <c r="G125" s="66"/>
@@ -10303,7 +10193,7 @@
       <c r="BE125" s="128"/>
       <c r="BF125" s="128"/>
     </row>
-    <row r="126" spans="4:58">
+    <row r="126" spans="4:58" x14ac:dyDescent="0.2">
       <c r="E126" s="66"/>
       <c r="F126" s="66" t="s">
         <v>138</v>
@@ -10332,38 +10222,38 @@
       <c r="BE126" s="128"/>
       <c r="BF126" s="128"/>
     </row>
-    <row r="127" spans="4:58">
+    <row r="127" spans="4:58" x14ac:dyDescent="0.2">
       <c r="E127" s="66"/>
       <c r="F127" s="129"/>
-      <c r="G127" s="282" t="s">
+      <c r="G127" s="373" t="s">
         <v>139</v>
       </c>
-      <c r="H127" s="282"/>
-      <c r="I127" s="282"/>
-      <c r="J127" s="282"/>
-      <c r="K127" s="282"/>
-      <c r="L127" s="282"/>
-      <c r="M127" s="282"/>
-      <c r="N127" s="282"/>
-      <c r="O127" s="282"/>
-      <c r="P127" s="282"/>
-      <c r="Q127" s="282"/>
-      <c r="R127" s="282"/>
-      <c r="S127" s="282"/>
-      <c r="T127" s="282"/>
-      <c r="U127" s="282"/>
-      <c r="V127" s="282"/>
-      <c r="W127" s="282"/>
-      <c r="X127" s="282"/>
-      <c r="Y127" s="282"/>
-      <c r="Z127" s="282"/>
-      <c r="AA127" s="282"/>
-      <c r="AB127" s="282"/>
-      <c r="AC127" s="282"/>
-      <c r="AD127" s="282"/>
-      <c r="AE127" s="282"/>
-      <c r="AF127" s="282"/>
-      <c r="AG127" s="282"/>
+      <c r="H127" s="373"/>
+      <c r="I127" s="373"/>
+      <c r="J127" s="373"/>
+      <c r="K127" s="373"/>
+      <c r="L127" s="373"/>
+      <c r="M127" s="373"/>
+      <c r="N127" s="373"/>
+      <c r="O127" s="373"/>
+      <c r="P127" s="373"/>
+      <c r="Q127" s="373"/>
+      <c r="R127" s="373"/>
+      <c r="S127" s="373"/>
+      <c r="T127" s="373"/>
+      <c r="U127" s="373"/>
+      <c r="V127" s="373"/>
+      <c r="W127" s="373"/>
+      <c r="X127" s="373"/>
+      <c r="Y127" s="373"/>
+      <c r="Z127" s="373"/>
+      <c r="AA127" s="373"/>
+      <c r="AB127" s="373"/>
+      <c r="AC127" s="373"/>
+      <c r="AD127" s="373"/>
+      <c r="AE127" s="373"/>
+      <c r="AF127" s="373"/>
+      <c r="AG127" s="373"/>
       <c r="AJ127" s="128"/>
       <c r="AK127" s="128"/>
       <c r="AL127" s="128"/>
@@ -10388,36 +10278,36 @@
       <c r="BE127" s="128"/>
       <c r="BF127" s="128"/>
     </row>
-    <row r="128" spans="4:58">
+    <row r="128" spans="4:58" x14ac:dyDescent="0.2">
       <c r="E128" s="66"/>
       <c r="F128" s="129"/>
-      <c r="G128" s="282"/>
-      <c r="H128" s="282"/>
-      <c r="I128" s="282"/>
-      <c r="J128" s="282"/>
-      <c r="K128" s="282"/>
-      <c r="L128" s="282"/>
-      <c r="M128" s="282"/>
-      <c r="N128" s="282"/>
-      <c r="O128" s="282"/>
-      <c r="P128" s="282"/>
-      <c r="Q128" s="282"/>
-      <c r="R128" s="282"/>
-      <c r="S128" s="282"/>
-      <c r="T128" s="282"/>
-      <c r="U128" s="282"/>
-      <c r="V128" s="282"/>
-      <c r="W128" s="282"/>
-      <c r="X128" s="282"/>
-      <c r="Y128" s="282"/>
-      <c r="Z128" s="282"/>
-      <c r="AA128" s="282"/>
-      <c r="AB128" s="282"/>
-      <c r="AC128" s="282"/>
-      <c r="AD128" s="282"/>
-      <c r="AE128" s="282"/>
-      <c r="AF128" s="282"/>
-      <c r="AG128" s="282"/>
+      <c r="G128" s="373"/>
+      <c r="H128" s="373"/>
+      <c r="I128" s="373"/>
+      <c r="J128" s="373"/>
+      <c r="K128" s="373"/>
+      <c r="L128" s="373"/>
+      <c r="M128" s="373"/>
+      <c r="N128" s="373"/>
+      <c r="O128" s="373"/>
+      <c r="P128" s="373"/>
+      <c r="Q128" s="373"/>
+      <c r="R128" s="373"/>
+      <c r="S128" s="373"/>
+      <c r="T128" s="373"/>
+      <c r="U128" s="373"/>
+      <c r="V128" s="373"/>
+      <c r="W128" s="373"/>
+      <c r="X128" s="373"/>
+      <c r="Y128" s="373"/>
+      <c r="Z128" s="373"/>
+      <c r="AA128" s="373"/>
+      <c r="AB128" s="373"/>
+      <c r="AC128" s="373"/>
+      <c r="AD128" s="373"/>
+      <c r="AE128" s="373"/>
+      <c r="AF128" s="373"/>
+      <c r="AG128" s="373"/>
       <c r="AJ128" s="128"/>
       <c r="AK128" s="128"/>
       <c r="AL128" s="128"/>
@@ -10442,7 +10332,7 @@
       <c r="BE128" s="128"/>
       <c r="BF128" s="128"/>
     </row>
-    <row r="129" spans="5:59">
+    <row r="129" spans="5:59" x14ac:dyDescent="0.2">
       <c r="E129" s="66"/>
       <c r="F129" s="129"/>
       <c r="H129" s="73" t="s">
@@ -10478,7 +10368,7 @@
       <c r="BE129" s="128"/>
       <c r="BF129" s="128"/>
     </row>
-    <row r="130" spans="5:59">
+    <row r="130" spans="5:59" x14ac:dyDescent="0.2">
       <c r="E130" s="66"/>
       <c r="F130" s="129"/>
       <c r="G130" s="66"/>
@@ -10506,8 +10396,8 @@
       <c r="BE130" s="128"/>
       <c r="BF130" s="128"/>
     </row>
-    <row r="131" spans="5:59" ht="12" customHeight="1">
-      <c r="H131" s="289" t="s">
+    <row r="131" spans="5:59" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H131" s="309" t="s">
         <v>30</v>
       </c>
       <c r="I131" s="265" t="s">
@@ -10518,19 +10408,19 @@
       <c r="L131" s="266"/>
       <c r="M131" s="266"/>
       <c r="N131" s="267"/>
-      <c r="O131" s="291" t="s">
+      <c r="O131" s="378" t="s">
         <v>141</v>
       </c>
-      <c r="P131" s="292"/>
-      <c r="Q131" s="292"/>
-      <c r="R131" s="292"/>
-      <c r="S131" s="292"/>
-      <c r="T131" s="292"/>
-      <c r="U131" s="292"/>
-      <c r="V131" s="292"/>
-      <c r="W131" s="292"/>
-      <c r="X131" s="292"/>
-      <c r="Y131" s="293"/>
+      <c r="P131" s="379"/>
+      <c r="Q131" s="379"/>
+      <c r="R131" s="379"/>
+      <c r="S131" s="379"/>
+      <c r="T131" s="379"/>
+      <c r="U131" s="379"/>
+      <c r="V131" s="379"/>
+      <c r="W131" s="379"/>
+      <c r="X131" s="379"/>
+      <c r="Y131" s="380"/>
       <c r="Z131" s="265" t="s">
         <v>65</v>
       </c>
@@ -10545,29 +10435,29 @@
       <c r="AG131" s="152"/>
       <c r="AH131" s="153"/>
     </row>
-    <row r="132" spans="5:59" ht="12" customHeight="1">
-      <c r="H132" s="290"/>
+    <row r="132" spans="5:59" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H132" s="310"/>
       <c r="I132" s="271"/>
       <c r="J132" s="272"/>
       <c r="K132" s="272"/>
       <c r="L132" s="272"/>
       <c r="M132" s="272"/>
       <c r="N132" s="273"/>
-      <c r="O132" s="291" t="s">
+      <c r="O132" s="378" t="s">
         <v>64</v>
       </c>
-      <c r="P132" s="292"/>
-      <c r="Q132" s="292"/>
-      <c r="R132" s="292"/>
-      <c r="S132" s="293"/>
-      <c r="T132" s="294" t="s">
+      <c r="P132" s="379"/>
+      <c r="Q132" s="379"/>
+      <c r="R132" s="379"/>
+      <c r="S132" s="380"/>
+      <c r="T132" s="367" t="s">
         <v>142</v>
       </c>
-      <c r="U132" s="295"/>
-      <c r="V132" s="295"/>
-      <c r="W132" s="295"/>
-      <c r="X132" s="295"/>
-      <c r="Y132" s="296"/>
+      <c r="U132" s="368"/>
+      <c r="V132" s="368"/>
+      <c r="W132" s="368"/>
+      <c r="X132" s="368"/>
+      <c r="Y132" s="369"/>
       <c r="Z132" s="271"/>
       <c r="AA132" s="272"/>
       <c r="AB132" s="272"/>
@@ -10578,18 +10468,18 @@
       <c r="AG132" s="155"/>
       <c r="AH132" s="156"/>
     </row>
-    <row r="133" spans="5:59" ht="12" customHeight="1">
+    <row r="133" spans="5:59" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H133" s="104">
         <v>1</v>
       </c>
-      <c r="I133" s="283" t="s">
+      <c r="I133" s="374" t="s">
         <v>120</v>
       </c>
-      <c r="J133" s="284"/>
-      <c r="K133" s="284"/>
-      <c r="L133" s="284"/>
-      <c r="M133" s="284"/>
-      <c r="N133" s="285"/>
+      <c r="J133" s="375"/>
+      <c r="K133" s="375"/>
+      <c r="L133" s="375"/>
+      <c r="M133" s="375"/>
+      <c r="N133" s="376"/>
       <c r="O133" s="157" t="s">
         <v>86</v>
       </c>
@@ -10597,27 +10487,27 @@
       <c r="Q133" s="158"/>
       <c r="R133" s="158"/>
       <c r="S133" s="159"/>
-      <c r="T133" s="283" t="s">
+      <c r="T133" s="374" t="s">
         <v>39</v>
       </c>
-      <c r="U133" s="284"/>
-      <c r="V133" s="284"/>
-      <c r="W133" s="284"/>
-      <c r="X133" s="284"/>
-      <c r="Y133" s="285"/>
-      <c r="Z133" s="286" t="s">
+      <c r="U133" s="375"/>
+      <c r="V133" s="375"/>
+      <c r="W133" s="375"/>
+      <c r="X133" s="375"/>
+      <c r="Y133" s="376"/>
+      <c r="Z133" s="377" t="s">
         <v>143</v>
       </c>
-      <c r="AA133" s="287"/>
-      <c r="AB133" s="287"/>
-      <c r="AC133" s="287"/>
-      <c r="AD133" s="287"/>
-      <c r="AE133" s="288"/>
+      <c r="AA133" s="296"/>
+      <c r="AB133" s="296"/>
+      <c r="AC133" s="296"/>
+      <c r="AD133" s="296"/>
+      <c r="AE133" s="297"/>
       <c r="AF133" s="160"/>
       <c r="AG133" s="161"/>
       <c r="AH133" s="162"/>
     </row>
-    <row r="134" spans="5:59">
+    <row r="134" spans="5:59" x14ac:dyDescent="0.2">
       <c r="H134" s="163" t="s">
         <v>126</v>
       </c>
@@ -10671,7 +10561,7 @@
       <c r="BF134" s="128"/>
       <c r="BG134" s="128"/>
     </row>
-    <row r="135" spans="5:59">
+    <row r="135" spans="5:59" x14ac:dyDescent="0.2">
       <c r="H135" s="136"/>
       <c r="I135" s="137"/>
       <c r="J135" s="137"/>
@@ -10723,7 +10613,7 @@
       <c r="BF135" s="128"/>
       <c r="BG135" s="128"/>
     </row>
-    <row r="136" spans="5:59">
+    <row r="136" spans="5:59" x14ac:dyDescent="0.2">
       <c r="H136" s="139"/>
       <c r="I136" s="140" t="s">
         <v>127</v>
@@ -10779,7 +10669,7 @@
       <c r="BF136" s="128"/>
       <c r="BG136" s="128"/>
     </row>
-    <row r="137" spans="5:59">
+    <row r="137" spans="5:59" x14ac:dyDescent="0.2">
       <c r="H137" s="144"/>
       <c r="I137" s="145"/>
       <c r="J137" s="145"/>
@@ -10831,7 +10721,7 @@
       <c r="BF137" s="128"/>
       <c r="BG137" s="128"/>
     </row>
-    <row r="138" spans="5:59">
+    <row r="138" spans="5:59" x14ac:dyDescent="0.2">
       <c r="E138" s="66"/>
       <c r="F138" s="129"/>
       <c r="G138" s="66"/>
@@ -10859,38 +10749,38 @@
       <c r="BE138" s="128"/>
       <c r="BF138" s="128"/>
     </row>
-    <row r="139" spans="5:59">
+    <row r="139" spans="5:59" x14ac:dyDescent="0.2">
       <c r="E139" s="66"/>
       <c r="F139" s="129"/>
-      <c r="G139" s="282" t="s">
+      <c r="G139" s="373" t="s">
         <v>144</v>
       </c>
-      <c r="H139" s="282"/>
-      <c r="I139" s="282"/>
-      <c r="J139" s="282"/>
-      <c r="K139" s="282"/>
-      <c r="L139" s="282"/>
-      <c r="M139" s="282"/>
-      <c r="N139" s="282"/>
-      <c r="O139" s="282"/>
-      <c r="P139" s="282"/>
-      <c r="Q139" s="282"/>
-      <c r="R139" s="282"/>
-      <c r="S139" s="282"/>
-      <c r="T139" s="282"/>
-      <c r="U139" s="282"/>
-      <c r="V139" s="282"/>
-      <c r="W139" s="282"/>
-      <c r="X139" s="282"/>
-      <c r="Y139" s="282"/>
-      <c r="Z139" s="282"/>
-      <c r="AA139" s="282"/>
-      <c r="AB139" s="282"/>
-      <c r="AC139" s="282"/>
-      <c r="AD139" s="282"/>
-      <c r="AE139" s="282"/>
-      <c r="AF139" s="282"/>
-      <c r="AG139" s="282"/>
+      <c r="H139" s="373"/>
+      <c r="I139" s="373"/>
+      <c r="J139" s="373"/>
+      <c r="K139" s="373"/>
+      <c r="L139" s="373"/>
+      <c r="M139" s="373"/>
+      <c r="N139" s="373"/>
+      <c r="O139" s="373"/>
+      <c r="P139" s="373"/>
+      <c r="Q139" s="373"/>
+      <c r="R139" s="373"/>
+      <c r="S139" s="373"/>
+      <c r="T139" s="373"/>
+      <c r="U139" s="373"/>
+      <c r="V139" s="373"/>
+      <c r="W139" s="373"/>
+      <c r="X139" s="373"/>
+      <c r="Y139" s="373"/>
+      <c r="Z139" s="373"/>
+      <c r="AA139" s="373"/>
+      <c r="AB139" s="373"/>
+      <c r="AC139" s="373"/>
+      <c r="AD139" s="373"/>
+      <c r="AE139" s="373"/>
+      <c r="AF139" s="373"/>
+      <c r="AG139" s="373"/>
       <c r="AJ139" s="128"/>
       <c r="AK139" s="128"/>
       <c r="AL139" s="128"/>
@@ -10915,36 +10805,36 @@
       <c r="BE139" s="128"/>
       <c r="BF139" s="128"/>
     </row>
-    <row r="140" spans="5:59">
+    <row r="140" spans="5:59" x14ac:dyDescent="0.2">
       <c r="E140" s="66"/>
       <c r="F140" s="129"/>
-      <c r="G140" s="282"/>
-      <c r="H140" s="282"/>
-      <c r="I140" s="282"/>
-      <c r="J140" s="282"/>
-      <c r="K140" s="282"/>
-      <c r="L140" s="282"/>
-      <c r="M140" s="282"/>
-      <c r="N140" s="282"/>
-      <c r="O140" s="282"/>
-      <c r="P140" s="282"/>
-      <c r="Q140" s="282"/>
-      <c r="R140" s="282"/>
-      <c r="S140" s="282"/>
-      <c r="T140" s="282"/>
-      <c r="U140" s="282"/>
-      <c r="V140" s="282"/>
-      <c r="W140" s="282"/>
-      <c r="X140" s="282"/>
-      <c r="Y140" s="282"/>
-      <c r="Z140" s="282"/>
-      <c r="AA140" s="282"/>
-      <c r="AB140" s="282"/>
-      <c r="AC140" s="282"/>
-      <c r="AD140" s="282"/>
-      <c r="AE140" s="282"/>
-      <c r="AF140" s="282"/>
-      <c r="AG140" s="282"/>
+      <c r="G140" s="373"/>
+      <c r="H140" s="373"/>
+      <c r="I140" s="373"/>
+      <c r="J140" s="373"/>
+      <c r="K140" s="373"/>
+      <c r="L140" s="373"/>
+      <c r="M140" s="373"/>
+      <c r="N140" s="373"/>
+      <c r="O140" s="373"/>
+      <c r="P140" s="373"/>
+      <c r="Q140" s="373"/>
+      <c r="R140" s="373"/>
+      <c r="S140" s="373"/>
+      <c r="T140" s="373"/>
+      <c r="U140" s="373"/>
+      <c r="V140" s="373"/>
+      <c r="W140" s="373"/>
+      <c r="X140" s="373"/>
+      <c r="Y140" s="373"/>
+      <c r="Z140" s="373"/>
+      <c r="AA140" s="373"/>
+      <c r="AB140" s="373"/>
+      <c r="AC140" s="373"/>
+      <c r="AD140" s="373"/>
+      <c r="AE140" s="373"/>
+      <c r="AF140" s="373"/>
+      <c r="AG140" s="373"/>
       <c r="AJ140" s="128"/>
       <c r="AK140" s="128"/>
       <c r="AL140" s="128"/>
@@ -10969,8 +10859,8 @@
       <c r="BE140" s="128"/>
       <c r="BF140" s="128"/>
     </row>
-    <row r="141" spans="5:59" ht="12" customHeight="1">
-      <c r="H141" s="289" t="s">
+    <row r="141" spans="5:59" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H141" s="309" t="s">
         <v>30</v>
       </c>
       <c r="I141" s="265" t="s">
@@ -10981,19 +10871,19 @@
       <c r="L141" s="266"/>
       <c r="M141" s="266"/>
       <c r="N141" s="267"/>
-      <c r="O141" s="291" t="s">
+      <c r="O141" s="378" t="s">
         <v>141</v>
       </c>
-      <c r="P141" s="292"/>
-      <c r="Q141" s="292"/>
-      <c r="R141" s="292"/>
-      <c r="S141" s="292"/>
-      <c r="T141" s="292"/>
-      <c r="U141" s="292"/>
-      <c r="V141" s="292"/>
-      <c r="W141" s="292"/>
-      <c r="X141" s="292"/>
-      <c r="Y141" s="293"/>
+      <c r="P141" s="379"/>
+      <c r="Q141" s="379"/>
+      <c r="R141" s="379"/>
+      <c r="S141" s="379"/>
+      <c r="T141" s="379"/>
+      <c r="U141" s="379"/>
+      <c r="V141" s="379"/>
+      <c r="W141" s="379"/>
+      <c r="X141" s="379"/>
+      <c r="Y141" s="380"/>
       <c r="Z141" s="265" t="s">
         <v>65</v>
       </c>
@@ -11008,29 +10898,29 @@
       <c r="AG141" s="152"/>
       <c r="AH141" s="153"/>
     </row>
-    <row r="142" spans="5:59" ht="12" customHeight="1">
-      <c r="H142" s="290"/>
+    <row r="142" spans="5:59" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H142" s="310"/>
       <c r="I142" s="271"/>
       <c r="J142" s="272"/>
       <c r="K142" s="272"/>
       <c r="L142" s="272"/>
       <c r="M142" s="272"/>
       <c r="N142" s="273"/>
-      <c r="O142" s="291" t="s">
+      <c r="O142" s="378" t="s">
         <v>64</v>
       </c>
-      <c r="P142" s="292"/>
-      <c r="Q142" s="292"/>
-      <c r="R142" s="292"/>
-      <c r="S142" s="293"/>
-      <c r="T142" s="294" t="s">
+      <c r="P142" s="379"/>
+      <c r="Q142" s="379"/>
+      <c r="R142" s="379"/>
+      <c r="S142" s="380"/>
+      <c r="T142" s="367" t="s">
         <v>142</v>
       </c>
-      <c r="U142" s="295"/>
-      <c r="V142" s="295"/>
-      <c r="W142" s="295"/>
-      <c r="X142" s="295"/>
-      <c r="Y142" s="296"/>
+      <c r="U142" s="368"/>
+      <c r="V142" s="368"/>
+      <c r="W142" s="368"/>
+      <c r="X142" s="368"/>
+      <c r="Y142" s="369"/>
       <c r="Z142" s="271"/>
       <c r="AA142" s="272"/>
       <c r="AB142" s="272"/>
@@ -11041,18 +10931,18 @@
       <c r="AG142" s="155"/>
       <c r="AH142" s="156"/>
     </row>
-    <row r="143" spans="5:59" ht="12" customHeight="1">
+    <row r="143" spans="5:59" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H143" s="104">
         <v>1</v>
       </c>
-      <c r="I143" s="283" t="s">
+      <c r="I143" s="374" t="s">
         <v>145</v>
       </c>
-      <c r="J143" s="284"/>
-      <c r="K143" s="284"/>
-      <c r="L143" s="284"/>
-      <c r="M143" s="284"/>
-      <c r="N143" s="285"/>
+      <c r="J143" s="375"/>
+      <c r="K143" s="375"/>
+      <c r="L143" s="375"/>
+      <c r="M143" s="375"/>
+      <c r="N143" s="376"/>
       <c r="O143" s="157" t="s">
         <v>39</v>
       </c>
@@ -11060,38 +10950,38 @@
       <c r="Q143" s="158"/>
       <c r="R143" s="158"/>
       <c r="S143" s="159"/>
-      <c r="T143" s="283" t="s">
+      <c r="T143" s="374" t="s">
         <v>39</v>
       </c>
-      <c r="U143" s="284"/>
-      <c r="V143" s="284"/>
-      <c r="W143" s="284"/>
-      <c r="X143" s="284"/>
-      <c r="Y143" s="285"/>
-      <c r="Z143" s="286" t="s">
+      <c r="U143" s="375"/>
+      <c r="V143" s="375"/>
+      <c r="W143" s="375"/>
+      <c r="X143" s="375"/>
+      <c r="Y143" s="376"/>
+      <c r="Z143" s="377" t="s">
         <v>146</v>
       </c>
-      <c r="AA143" s="287"/>
-      <c r="AB143" s="287"/>
-      <c r="AC143" s="287"/>
-      <c r="AD143" s="287"/>
-      <c r="AE143" s="288"/>
+      <c r="AA143" s="296"/>
+      <c r="AB143" s="296"/>
+      <c r="AC143" s="296"/>
+      <c r="AD143" s="296"/>
+      <c r="AE143" s="297"/>
       <c r="AF143" s="160"/>
       <c r="AG143" s="161"/>
       <c r="AH143" s="162"/>
     </row>
-    <row r="144" spans="5:59" ht="12" customHeight="1">
+    <row r="144" spans="5:59" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H144" s="104">
         <v>2</v>
       </c>
-      <c r="I144" s="283" t="s">
+      <c r="I144" s="374" t="s">
         <v>120</v>
       </c>
-      <c r="J144" s="284"/>
-      <c r="K144" s="284"/>
-      <c r="L144" s="284"/>
-      <c r="M144" s="284"/>
-      <c r="N144" s="285"/>
+      <c r="J144" s="375"/>
+      <c r="K144" s="375"/>
+      <c r="L144" s="375"/>
+      <c r="M144" s="375"/>
+      <c r="N144" s="376"/>
       <c r="O144" s="157" t="s">
         <v>39</v>
       </c>
@@ -11099,27 +10989,27 @@
       <c r="Q144" s="158"/>
       <c r="R144" s="158"/>
       <c r="S144" s="159"/>
-      <c r="T144" s="283" t="s">
+      <c r="T144" s="374" t="s">
         <v>39</v>
       </c>
-      <c r="U144" s="284"/>
-      <c r="V144" s="284"/>
-      <c r="W144" s="284"/>
-      <c r="X144" s="284"/>
-      <c r="Y144" s="285"/>
-      <c r="Z144" s="286">
+      <c r="U144" s="375"/>
+      <c r="V144" s="375"/>
+      <c r="W144" s="375"/>
+      <c r="X144" s="375"/>
+      <c r="Y144" s="376"/>
+      <c r="Z144" s="377">
         <v>0</v>
       </c>
-      <c r="AA144" s="287"/>
-      <c r="AB144" s="287"/>
-      <c r="AC144" s="287"/>
-      <c r="AD144" s="287"/>
-      <c r="AE144" s="288"/>
+      <c r="AA144" s="296"/>
+      <c r="AB144" s="296"/>
+      <c r="AC144" s="296"/>
+      <c r="AD144" s="296"/>
+      <c r="AE144" s="297"/>
       <c r="AF144" s="160"/>
       <c r="AG144" s="161"/>
       <c r="AH144" s="162"/>
     </row>
-    <row r="145" spans="5:59">
+    <row r="145" spans="5:59" x14ac:dyDescent="0.2">
       <c r="H145" s="163" t="s">
         <v>126</v>
       </c>
@@ -11173,7 +11063,7 @@
       <c r="BF145" s="128"/>
       <c r="BG145" s="128"/>
     </row>
-    <row r="146" spans="5:59">
+    <row r="146" spans="5:59" x14ac:dyDescent="0.2">
       <c r="H146" s="136"/>
       <c r="I146" s="137"/>
       <c r="J146" s="137"/>
@@ -11225,7 +11115,7 @@
       <c r="BF146" s="128"/>
       <c r="BG146" s="128"/>
     </row>
-    <row r="147" spans="5:59">
+    <row r="147" spans="5:59" x14ac:dyDescent="0.2">
       <c r="H147" s="139"/>
       <c r="I147" s="140" t="s">
         <v>127</v>
@@ -11281,7 +11171,7 @@
       <c r="BF147" s="128"/>
       <c r="BG147" s="128"/>
     </row>
-    <row r="148" spans="5:59">
+    <row r="148" spans="5:59" x14ac:dyDescent="0.2">
       <c r="H148" s="144"/>
       <c r="I148" s="145"/>
       <c r="J148" s="145"/>
@@ -11333,7 +11223,7 @@
       <c r="BF148" s="128"/>
       <c r="BG148" s="128"/>
     </row>
-    <row r="149" spans="5:59">
+    <row r="149" spans="5:59" x14ac:dyDescent="0.2">
       <c r="E149" s="66"/>
       <c r="F149" s="129"/>
       <c r="G149" s="66"/>
@@ -11361,7 +11251,7 @@
       <c r="BE149" s="128"/>
       <c r="BF149" s="128"/>
     </row>
-    <row r="150" spans="5:59">
+    <row r="150" spans="5:59" x14ac:dyDescent="0.2">
       <c r="E150" s="66"/>
       <c r="F150" s="129"/>
       <c r="G150" s="66" t="s">
@@ -11391,7 +11281,7 @@
       <c r="BE150" s="128"/>
       <c r="BF150" s="128"/>
     </row>
-    <row r="151" spans="5:59">
+    <row r="151" spans="5:59" x14ac:dyDescent="0.2">
       <c r="E151" s="66"/>
       <c r="F151" s="129"/>
       <c r="G151" s="66"/>
@@ -11419,7 +11309,7 @@
       <c r="BE151" s="128"/>
       <c r="BF151" s="128"/>
     </row>
-    <row r="152" spans="5:59">
+    <row r="152" spans="5:59" x14ac:dyDescent="0.2">
       <c r="E152" s="66"/>
       <c r="F152" s="66" t="s">
         <v>148</v>
@@ -11448,7 +11338,7 @@
       <c r="BE152" s="128"/>
       <c r="BF152" s="128"/>
     </row>
-    <row r="153" spans="5:59">
+    <row r="153" spans="5:59" x14ac:dyDescent="0.2">
       <c r="E153" s="66"/>
       <c r="F153" s="129"/>
       <c r="G153" s="66"/>
@@ -11476,7 +11366,7 @@
       <c r="BE153" s="128"/>
       <c r="BF153" s="128"/>
     </row>
-    <row r="154" spans="5:59">
+    <row r="154" spans="5:59" x14ac:dyDescent="0.2">
       <c r="E154" s="66"/>
       <c r="F154" s="66"/>
       <c r="AJ154" s="128"/>
@@ -11503,7 +11393,7 @@
       <c r="BE154" s="128"/>
       <c r="BF154" s="128"/>
     </row>
-    <row r="155" spans="5:59">
+    <row r="155" spans="5:59" x14ac:dyDescent="0.2">
       <c r="E155" s="66"/>
       <c r="F155" s="129"/>
       <c r="G155" s="66"/>
@@ -11531,7 +11421,7 @@
       <c r="BE155" s="128"/>
       <c r="BF155" s="128"/>
     </row>
-    <row r="156" spans="5:59">
+    <row r="156" spans="5:59" x14ac:dyDescent="0.2">
       <c r="E156" s="66"/>
       <c r="F156" s="129"/>
       <c r="G156" s="66"/>
@@ -11559,7 +11449,7 @@
       <c r="BE156" s="128"/>
       <c r="BF156" s="128"/>
     </row>
-    <row r="157" spans="5:59">
+    <row r="157" spans="5:59" x14ac:dyDescent="0.2">
       <c r="E157" s="66"/>
       <c r="AJ157" s="128"/>
       <c r="AK157" s="128"/>
@@ -11587,6 +11477,97 @@
     </row>
   </sheetData>
   <mergeCells count="115">
+    <mergeCell ref="G139:AG140"/>
+    <mergeCell ref="G127:AG128"/>
+    <mergeCell ref="G119:AG120"/>
+    <mergeCell ref="I144:N144"/>
+    <mergeCell ref="T144:Y144"/>
+    <mergeCell ref="Z144:AE144"/>
+    <mergeCell ref="I143:N143"/>
+    <mergeCell ref="T143:Y143"/>
+    <mergeCell ref="Z143:AE143"/>
+    <mergeCell ref="H141:H142"/>
+    <mergeCell ref="I141:N142"/>
+    <mergeCell ref="O141:Y141"/>
+    <mergeCell ref="Z141:AE142"/>
+    <mergeCell ref="O142:S142"/>
+    <mergeCell ref="T142:Y142"/>
+    <mergeCell ref="I133:N133"/>
+    <mergeCell ref="T133:Y133"/>
+    <mergeCell ref="Z133:AE133"/>
+    <mergeCell ref="H131:H132"/>
+    <mergeCell ref="I131:N132"/>
+    <mergeCell ref="O131:Y131"/>
+    <mergeCell ref="Z131:AE132"/>
+    <mergeCell ref="O132:S132"/>
+    <mergeCell ref="T132:Y132"/>
+    <mergeCell ref="G98:P103"/>
+    <mergeCell ref="Q98:Z98"/>
+    <mergeCell ref="Q103:Z103"/>
+    <mergeCell ref="G106:Z106"/>
+    <mergeCell ref="AD87:AG87"/>
+    <mergeCell ref="AD88:AG88"/>
+    <mergeCell ref="G87:L87"/>
+    <mergeCell ref="G88:L88"/>
+    <mergeCell ref="M87:V87"/>
+    <mergeCell ref="W88:Y88"/>
+    <mergeCell ref="Q102:Z102"/>
+    <mergeCell ref="G104:P105"/>
+    <mergeCell ref="Q104:Z104"/>
+    <mergeCell ref="Q105:Z105"/>
+    <mergeCell ref="Z88:AC88"/>
+    <mergeCell ref="Z87:AC87"/>
+    <mergeCell ref="M88:V88"/>
+    <mergeCell ref="G97:P97"/>
+    <mergeCell ref="Q97:Z97"/>
+    <mergeCell ref="W87:Y87"/>
+    <mergeCell ref="V44:AC44"/>
+    <mergeCell ref="D49:D51"/>
+    <mergeCell ref="M50:T51"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="E58:J59"/>
+    <mergeCell ref="K58:N59"/>
+    <mergeCell ref="E65:J65"/>
+    <mergeCell ref="R65:Y65"/>
+    <mergeCell ref="K66:Q66"/>
+    <mergeCell ref="E60:J60"/>
+    <mergeCell ref="K60:N60"/>
+    <mergeCell ref="T60:U60"/>
+    <mergeCell ref="V60:AH60"/>
+    <mergeCell ref="E66:J66"/>
+    <mergeCell ref="Z53:AB53"/>
+    <mergeCell ref="K65:Q65"/>
+    <mergeCell ref="R66:Y66"/>
+    <mergeCell ref="Z66:AD66"/>
+    <mergeCell ref="E50:H51"/>
+    <mergeCell ref="AE67:AH67"/>
+    <mergeCell ref="U53:Y53"/>
+    <mergeCell ref="AE65:AH65"/>
+    <mergeCell ref="Z65:AD65"/>
+    <mergeCell ref="AE66:AH66"/>
+    <mergeCell ref="E52:H52"/>
+    <mergeCell ref="I52:L52"/>
+    <mergeCell ref="E67:J67"/>
+    <mergeCell ref="K67:Q67"/>
+    <mergeCell ref="R67:Y67"/>
+    <mergeCell ref="Z67:AD67"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AC2:AF2"/>
     <mergeCell ref="E43:M43"/>
     <mergeCell ref="N43:P43"/>
     <mergeCell ref="Q43:U43"/>
@@ -11611,97 +11592,6 @@
     <mergeCell ref="M53:T53"/>
     <mergeCell ref="M52:T52"/>
     <mergeCell ref="Q44:U44"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AE67:AH67"/>
-    <mergeCell ref="U53:Y53"/>
-    <mergeCell ref="AE65:AH65"/>
-    <mergeCell ref="Z65:AD65"/>
-    <mergeCell ref="AE66:AH66"/>
-    <mergeCell ref="E52:H52"/>
-    <mergeCell ref="I52:L52"/>
-    <mergeCell ref="E67:J67"/>
-    <mergeCell ref="K67:Q67"/>
-    <mergeCell ref="R67:Y67"/>
-    <mergeCell ref="Z67:AD67"/>
-    <mergeCell ref="V44:AC44"/>
-    <mergeCell ref="D49:D51"/>
-    <mergeCell ref="M50:T51"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="E58:J59"/>
-    <mergeCell ref="K58:N59"/>
-    <mergeCell ref="E65:J65"/>
-    <mergeCell ref="R65:Y65"/>
-    <mergeCell ref="K66:Q66"/>
-    <mergeCell ref="E60:J60"/>
-    <mergeCell ref="K60:N60"/>
-    <mergeCell ref="T60:U60"/>
-    <mergeCell ref="V60:AH60"/>
-    <mergeCell ref="E66:J66"/>
-    <mergeCell ref="Z53:AB53"/>
-    <mergeCell ref="K65:Q65"/>
-    <mergeCell ref="R66:Y66"/>
-    <mergeCell ref="Z66:AD66"/>
-    <mergeCell ref="E50:H51"/>
-    <mergeCell ref="G98:P103"/>
-    <mergeCell ref="Q98:Z98"/>
-    <mergeCell ref="Q103:Z103"/>
-    <mergeCell ref="G106:Z106"/>
-    <mergeCell ref="AD87:AG87"/>
-    <mergeCell ref="AD88:AG88"/>
-    <mergeCell ref="G87:L87"/>
-    <mergeCell ref="G88:L88"/>
-    <mergeCell ref="M87:V87"/>
-    <mergeCell ref="W88:Y88"/>
-    <mergeCell ref="Q102:Z102"/>
-    <mergeCell ref="G104:P105"/>
-    <mergeCell ref="Q104:Z104"/>
-    <mergeCell ref="Q105:Z105"/>
-    <mergeCell ref="Z88:AC88"/>
-    <mergeCell ref="Z87:AC87"/>
-    <mergeCell ref="M88:V88"/>
-    <mergeCell ref="G97:P97"/>
-    <mergeCell ref="Q97:Z97"/>
-    <mergeCell ref="W87:Y87"/>
-    <mergeCell ref="G139:AG140"/>
-    <mergeCell ref="G127:AG128"/>
-    <mergeCell ref="G119:AG120"/>
-    <mergeCell ref="I144:N144"/>
-    <mergeCell ref="T144:Y144"/>
-    <mergeCell ref="Z144:AE144"/>
-    <mergeCell ref="I143:N143"/>
-    <mergeCell ref="T143:Y143"/>
-    <mergeCell ref="Z143:AE143"/>
-    <mergeCell ref="H141:H142"/>
-    <mergeCell ref="I141:N142"/>
-    <mergeCell ref="O141:Y141"/>
-    <mergeCell ref="Z141:AE142"/>
-    <mergeCell ref="O142:S142"/>
-    <mergeCell ref="T142:Y142"/>
-    <mergeCell ref="I133:N133"/>
-    <mergeCell ref="T133:Y133"/>
-    <mergeCell ref="Z133:AE133"/>
-    <mergeCell ref="H131:H132"/>
-    <mergeCell ref="I131:N132"/>
-    <mergeCell ref="O131:Y131"/>
-    <mergeCell ref="Z131:AE132"/>
-    <mergeCell ref="O132:S132"/>
-    <mergeCell ref="T132:Y132"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <dataValidations count="5">
@@ -11758,7 +11648,7 @@
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21" style="54" customWidth="1"/>
     <col min="2" max="2" width="30.5" style="54" bestFit="1" customWidth="1"/>
@@ -11767,7 +11657,7 @@
     <col min="5" max="16384" width="9.33203125" style="54"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="166" t="s">
         <v>149</v>
       </c>
@@ -11781,7 +11671,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="114" t="s">
         <v>39</v>
       </c>
@@ -11795,7 +11685,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="114" t="s">
         <v>152</v>
       </c>
@@ -11809,7 +11699,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="114" t="s">
         <v>69</v>
       </c>
@@ -11823,7 +11713,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="114" t="s">
         <v>158</v>
       </c>
@@ -11834,7 +11724,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="114" t="s">
         <v>161</v>
       </c>
@@ -11842,7 +11732,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="114" t="s">
         <v>163</v>
       </c>
@@ -11850,27 +11740,27 @@
         <v>164</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="114" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="114" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="114" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="114" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="114" t="s">
         <v>168</v>
       </c>
